--- a/call_log.xlsx
+++ b/call_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://krcmar-my.sharepoint.com/personal/francisco_protectyourboundaries_ca/Documents/Documents/csdashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{195A2F47-6FEF-4072-BF7A-394FA619F365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{679512C3-90F1-413C-B91E-6B9CD34BBA83}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{195A2F47-6FEF-4072-BF7A-394FA619F365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{762041AE-6E49-4980-BF9F-1E1F3E301825}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C605F76E-DC30-49A8-A8A4-2EDF6E134D2C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="257">
   <si>
     <t>CC</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Francisco</t>
   </si>
   <si>
-    <t>647-981-6815</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>289-404-4483</t>
-  </si>
-  <si>
     <t>Asking for codes for four people, lady also requested by email. I sent the codes to the registered email addressess.</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
     <t xml:space="preserve">Jessica Penley, ask for a link to change her attendance type. </t>
   </si>
   <si>
-    <t xml:space="preserve"> 416-832-4862</t>
-  </si>
-  <si>
     <t>Jeff on the phone was checking the phones were working alright</t>
   </si>
   <si>
@@ -113,21 +104,12 @@
     <t>Sandra</t>
   </si>
   <si>
-    <t>416-865-7864</t>
-  </si>
-  <si>
     <t xml:space="preserve">logging in invalid password. I ask her to please not copy paste and just write the password she is able to log in to the conference </t>
   </si>
   <si>
-    <t>416-317-0193</t>
-  </si>
-  <si>
     <t xml:space="preserve">logging in invalid password. I ask him to please not copy paste and just write the password she is able to logging to the conference </t>
   </si>
   <si>
-    <t>416-899-3765</t>
-  </si>
-  <si>
     <t>Access password invalid. awhyte@loonix.com Alexandra White. Amandah gives me a new one and while on the call she is able to log in</t>
   </si>
   <si>
@@ -137,75 +119,45 @@
     <t>changed the link code to access. jpenley@millerthomson.com Jessica Penley. I transfer to Jeff</t>
   </si>
   <si>
-    <t>647-465-4118</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chelsea Ramsay,  logging in invalid password. I ask her to please not copy paste and just write the password she is able to logging to the conference </t>
   </si>
   <si>
-    <t>416-432-4104</t>
-  </si>
-  <si>
     <t>CustomSearch</t>
   </si>
   <si>
     <t>Track a survey: 526 Benway Rd, Consecon, ON K0K 1T0. I couldn't find any srprs under this address I suggested a Custom Search</t>
   </si>
   <si>
-    <t>416-566-8430</t>
-  </si>
-  <si>
     <t>password invalid. domenic drotunto@iqpartners.ca he cannot access, he is confused, the code we gave him that's the password</t>
   </si>
   <si>
-    <t xml:space="preserve"> 647-338-8300</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lady is asking for the SKIP THE DISHES CODE, she says already redeem. Jessica mentioned about this. She claims she checked her balance and still says 0. I asked her to send us a screenshot of her account. </t>
   </si>
   <si>
-    <t>647-465-6437</t>
-  </si>
-  <si>
     <t>land pro webcast. Monday no code. CHELSEA REMSEY. crasay@whitemeters.com I send her the email with the link and codes</t>
   </si>
   <si>
     <t>her</t>
   </si>
   <si>
-    <t>416-865-7000</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maria More, her code was not working, I ask for a new one </t>
   </si>
   <si>
-    <t>905-985-8465</t>
-  </si>
-  <si>
     <t>Cant find Megan Deck. Found her order and sent her a code</t>
   </si>
   <si>
-    <t>519-846-5366</t>
-  </si>
-  <si>
     <t xml:space="preserve">aCCESS. Password.  Sara Sha sarah@morris-shannon.ca. Amandah gives me a ew one </t>
   </si>
   <si>
     <t>Has trouble login in. "invalid code" - Ben Pucci. I asked the customer to COPY/PASTE and was able to login</t>
   </si>
   <si>
-    <t>416-909-1641</t>
-  </si>
-  <si>
     <t xml:space="preserve">he niru muru@onrios.com. Sr is a guest, he hung up </t>
   </si>
   <si>
     <t>Watching the conference online. Jessica Smuskowitz</t>
   </si>
   <si>
-    <t>416-864-4424</t>
-  </si>
-  <si>
     <t xml:space="preserve">land pro conference.  Wahba Kevin  the ocde not working. </t>
   </si>
   <si>
@@ -215,18 +167,12 @@
     <t xml:space="preserve">Cant login Gidian Johaness - </t>
   </si>
   <si>
-    <t>416-450-1789</t>
-  </si>
-  <si>
     <t>ExistingOrder</t>
   </si>
   <si>
     <t xml:space="preserve">Martha Serdynska asking if she place an order yesterday, I told her we don't have an order with her </t>
   </si>
   <si>
-    <t>416-948-4610</t>
-  </si>
-  <si>
     <t>Teams 3 men are on teams waiting for the conference to start, I send them the right link</t>
   </si>
   <si>
@@ -236,63 +182,36 @@
     <t>Calling back as requested per Jessica, sr can't login. Sr was able to login to the webcast.</t>
   </si>
   <si>
-    <t>anonymous</t>
-  </si>
-  <si>
     <t xml:space="preserve">logging in invalid password. I ask her to please not copy paste and just write the password she is able to logging to the conference </t>
   </si>
   <si>
-    <t>249-444-0097</t>
-  </si>
-  <si>
     <t xml:space="preserve">PYB Website. surveys.108 Morin St, Field, ON P0H 1M0, Canadá, nothing on the property only R-plan and a subdivision plan I recommend not to buy them and I offer CS </t>
   </si>
   <si>
-    <t>416-200-7160</t>
-  </si>
-  <si>
     <t>StakeOut</t>
   </si>
   <si>
     <t xml:space="preserve">Man needs a new stakeout, I suggest he contact the local surveyor. </t>
   </si>
   <si>
-    <t>416-705-0063</t>
-  </si>
-  <si>
     <t>NAME austin todd atodd@toddglen,com I send him the codes again</t>
   </si>
   <si>
-    <t>416-446-0800</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wi-Fi Password at the event? - Yes, there are signs around. </t>
   </si>
   <si>
-    <t>226-821-2136</t>
-  </si>
-  <si>
     <t>ExistingSRPR</t>
   </si>
   <si>
     <t>Ashley owns a house, between her property there's a retaining wall, who owns it?. Already has a survey. 1896.    37 Arthur St North Guelph - I suggested contacting a local surveyor to determine the ownsership of the retaining wall.</t>
   </si>
   <si>
-    <t>416-863-8653</t>
-  </si>
-  <si>
     <t>Lady is asking how she can pick up her lunch at the conference.</t>
   </si>
   <si>
-    <t>416-884-7880</t>
-  </si>
-  <si>
     <t>find out: 29 Herdwick St, Brampton, ON L6S 6L6, Canadá. 122 Church St E, Brampton, ON L6V 1G8, Canadá. Both porperties have only subdivision plans and R-plan, I suggest to double check with the city the type of plan he needs and I recommend CS</t>
   </si>
   <si>
-    <t>647-338-8300</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lady wants to know what to do about skipping her lunch, I told her to contact skip dishes support. </t>
   </si>
   <si>
@@ -302,33 +221,18 @@
     <t>skip the dishes. jessica sma jessica.s@shermanbrown.com TQC2X8DFXSDFZ7TF, she called earlier because her log in code was not working and now her skip the dishes is also not wprking</t>
   </si>
   <si>
-    <t>416-906-3996</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lady with the issue of skipp the dishes, I told her someone will call her back </t>
   </si>
   <si>
-    <t>416-456-6664</t>
-  </si>
-  <si>
     <t>Lady with the issue of skipp the dishes, I told her she has to call skip the dishes support</t>
   </si>
   <si>
-    <t>705-970-4612</t>
-  </si>
-  <si>
     <t xml:space="preserve">surveys: reference plan, lady needs to know what's included on the R-plan I tell her normally it does not include boundaries, building or setbacks I recommend CS </t>
   </si>
   <si>
-    <t>647-401-4119</t>
-  </si>
-  <si>
     <t xml:space="preserve">Man wants to know what a reference and a registered plan. He also asked about the historic plan. </t>
   </si>
   <si>
-    <t>727-536-1012</t>
-  </si>
-  <si>
     <t>NoAnswer-error</t>
   </si>
   <si>
@@ -338,192 +242,102 @@
     <t>lAND PRO CONFERENCE. LINK. JAMES BUJAK JBUJAK@SORBABR.COM</t>
   </si>
   <si>
-    <t>416-360-3019</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lady is asking if she can access the conference since she had to leave earlier. </t>
   </si>
   <si>
-    <t>416-644-8889</t>
-  </si>
-  <si>
     <t>NewSurvey</t>
   </si>
   <si>
     <t>50 Macdonell Ave, Toronto, ON M6R 2A2 - Possible Encroachment.  We don't have an existing srpr available on the website. I suggested a Custom Search and contacting a local surveyor.</t>
   </si>
   <si>
-    <t>416-508-8394</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lady asking what is an easement report and what should she get for a boundary issue. </t>
   </si>
   <si>
-    <t>647-504-9537</t>
-  </si>
-  <si>
     <t>INQUIRE about survey: 7255 Windrush Ct, Mississauga, ON L5N 6K1, Canadá. Sr is looking for a survey to submit for a basement permit, he has many questions about surveys and CS I explain to him what he can expect I also recommend to double check with the city on the type of survey he needs</t>
   </si>
   <si>
-    <t>905-604-2595</t>
-  </si>
-  <si>
     <t xml:space="preserve">Man needs a survey for 30 Guildcrest Dr, Scarborough, I told him we have two options available online. </t>
   </si>
   <si>
-    <t>803-883-0008</t>
-  </si>
-  <si>
-    <t>916-685-8806</t>
-  </si>
-  <si>
     <t>No answer, only noise</t>
   </si>
   <si>
-    <t>647-801-9231</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lady purchase a plan but wants to know why it doesn't have the house number on the survey. I told her that it has the lot number </t>
   </si>
   <si>
     <t xml:space="preserve">Bought a property and looking to build a pool. 65 29th St Wasaga Beach. </t>
   </si>
   <si>
-    <t>416-319-4888</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lady needs a legal survey for 42 Grandview Blvd S, Toronto, I told her we have an SRPR survey available online. </t>
   </si>
   <si>
-    <t>416-994-2140</t>
-  </si>
-  <si>
     <t>Looking to get a land survey plans, no legal survey available. - Purpose: looking to get a permit for the basement. The designer is asking for the site plan. 1321 woodstream ave oshawa - No srpr available, I suggested a Custom Search</t>
   </si>
   <si>
-    <t>519-410-6070</t>
-  </si>
-  <si>
     <t>lAND PRO CONFERENCE. OLS, purchase ticket now. I am not sure about this info but he can send us an email and we will double check, he is a OLS and he could not registered before I called back and tell him. theycan purchase a ticket https://www.protectyourboundaries.ca/landpro-conference-2023-webcast.html</t>
   </si>
   <si>
-    <t>905-535-2494</t>
-  </si>
-  <si>
     <t xml:space="preserve">Call Mrs Barnes I had no answer, she left a VM asking for a survey, </t>
   </si>
   <si>
-    <t>909-414-5100</t>
-  </si>
-  <si>
     <t>Question about a Reference Plan seen in our website, Purpose:  796 Highway Sideline - Sr needs to know the Dimensions of the Property.</t>
   </si>
   <si>
-    <t>416-520-6837</t>
-  </si>
-  <si>
     <t xml:space="preserve">Man needs a survey 19825 Airport Rd, Caledon, since we only have a registered plan I suggest a custom search. </t>
   </si>
   <si>
-    <t>905-639-1222</t>
-  </si>
-  <si>
     <t>LAND PRO Conference this lady is asking how many hours a person was at the conference,  I ask her to repeat the question, but I lost the connection, she was asking about a lawyer, or maybe how many hours before they can rewatch the conference I could not get her question</t>
   </si>
   <si>
     <t>Lady called to ask How many hours should she report for the Educational Credits for the Law Society of Ontario, which are stated on the website: "Professionalism Hours: 2 hour and 10 mins. Substantive Hours are at the participant's discretion."</t>
   </si>
   <si>
-    <t>919-596-4585</t>
-  </si>
-  <si>
     <t>No answer</t>
   </si>
   <si>
-    <t>647-618-1913</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lady is asking about a subdivision plan and a R-plan, She built a pool at her house and she needs to submit a survey I suggest CS and explain to her about the plans we have </t>
   </si>
   <si>
-    <t>647-803-3297</t>
-  </si>
-  <si>
     <t xml:space="preserve">335 Church St Mississauga. Want to put a digital sign on the st. Was looking for a Land Survey Boundary. No srprs or any other kind of survey was available I suggested a Custom Search. </t>
   </si>
   <si>
-    <t>416-432-4069</t>
-  </si>
-  <si>
     <t xml:space="preserve">jD dINCLERS. Survey for zoning review, boundary lines. and he needs a new survey I tell him he can send us his info to info@krcmar.ca and they get back to him with a quote </t>
   </si>
   <si>
-    <t>416-559-4462</t>
-  </si>
-  <si>
     <t>Lady needs a survey for 7 Cathedral Bluff Dr, Scarborough, since we only have a reference plan I suggest a custom search</t>
   </si>
   <si>
-    <t>416-464-6775</t>
-  </si>
-  <si>
     <t>Wodering, lookinng for a Survey: 177 Wedgewood Dr North York. Purpose of the Survey Landscaping and interior design. Sr was calling on behalf of his clients. We have an existing srpr dated 1962 that may be helpul. I suggested seeing the preview at the website. He asked for a 2003 and existing survey plan which we don't have and I offered a Custom Search</t>
   </si>
   <si>
-    <t>416-553-6418</t>
-  </si>
-  <si>
     <t>survey: 1518 Tillingham Gardens, Mississauga, ON L5M 3J2, Canadá. Sr is looking to apply for a permit o extent his fence, but he nneds a survey stating the extention. We have a 1987 SRPR he can use and in case he needs a new survey or plan he can send us an email to krcmar</t>
   </si>
   <si>
-    <t>416-923-9776</t>
-  </si>
-  <si>
     <t>Sally. Toronto property manager. Survey for the building, I ask her to please send all the info to our email at Krcmar</t>
   </si>
   <si>
-    <t>647-272-7312</t>
-  </si>
-  <si>
     <t>Lady needs a survey for 568 Shepard Av, Pickering, she want a survey done in 1980, I explain the one we have is a registered plan.</t>
   </si>
   <si>
     <t xml:space="preserve">Looking 1918 Fairport Rd Pickering On. Lady wants to know the boundaries of the property. Possible encroachment. An existing srpr appears on Geopro but not at the website I check with Amandah. The link didn't appear on the search. Amanda sent her a link to purchase an srpr. </t>
   </si>
   <si>
-    <t>416-487-1213</t>
-  </si>
-  <si>
     <t>Man wants to buy a survey, but wanted to confirm what he receive will be clear</t>
   </si>
   <si>
-    <t>416-436-9254</t>
-  </si>
-  <si>
     <t>Man ask when will he receive the plan for his order #5014, I told him he needs to contact the survey company that owns the survey</t>
   </si>
   <si>
-    <t>850-654-1567</t>
-  </si>
-  <si>
-    <t>416-453-2425</t>
-  </si>
-  <si>
     <t>TransferCall</t>
   </si>
   <si>
     <t>Sophie for Francisco</t>
   </si>
   <si>
-    <t>416-836-6974</t>
-  </si>
-  <si>
     <t>Man needs a survey but can't find it, I suggest a custom search</t>
   </si>
   <si>
-    <t>905-955-1211</t>
-  </si>
-  <si>
     <t>Website Issue</t>
   </si>
   <si>
@@ -533,76 +347,40 @@
     <t>PYB : legal survey not avaible. Extend BASEMENT. I explain to him about CS and ho to place the order, While on the call he follows the process</t>
   </si>
   <si>
-    <t>905-213-4228</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sr purchased a survey for </t>
   </si>
   <si>
     <t xml:space="preserve">Sr purchased a survey for 9 Pine Post Rd, Keswick, he claimed he got a land survey for a wrong address, I asked him to reply the email stating this issue. </t>
   </si>
   <si>
-    <t>647-784-118</t>
-  </si>
-  <si>
     <t>Man purchase a survey #5548, he say the survey has a bad quality, I ask him to send an email explaining the problem</t>
   </si>
   <si>
     <t>Man has an issue with the website and I ask him to refresh the page and start over</t>
   </si>
   <si>
-    <t>416-726-1945</t>
-  </si>
-  <si>
     <t xml:space="preserve">Man wants a new survey, I aks him to send an email to krcmar. </t>
   </si>
   <si>
-    <t>236-334-0071</t>
-  </si>
-  <si>
     <t>Lady asking for Inga, we do not have anyne under that name, she was mistaken</t>
   </si>
   <si>
-    <t>289-231-6715</t>
-  </si>
-  <si>
     <t>Lady needs a survey for 95 Connell Dr, Georgina, since we only have a registered plan I suggest a custom search</t>
   </si>
   <si>
-    <t xml:space="preserve"> 905-758-6683</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lady on the website. Download 1 price 250. - 327 Hedge Rd Sutton. Realtor Sold the House, and the buyer is briging the architect for an addition to the house. Looking for the certificate number on the Survey. I confirmed that this copy has a Surveyor's Certificate and the signature.  The price at property page says 250 and when she adds it 625 appears. I let her know this is a bug a the 625 price is the correct one. </t>
   </si>
   <si>
-    <t>416-576-7204</t>
-  </si>
-  <si>
     <t>looking for a document, replacing a fence: 4417 Dennis Ave, Beamsville, ON L0R 1B5, Canadá. nothing on the propery Sr is looking to build a fence I suggest to consider stake out and CS since we do not have any survesy for him I explain to him about our service</t>
   </si>
   <si>
-    <t>647-687-2493</t>
-  </si>
-  <si>
-    <t>905-846-2156</t>
-  </si>
-  <si>
     <t xml:space="preserve">23 Buick Blvd, Brampton, ON L7A 3B9, Canadá. We do ot have srpr fr the property only a R-plan, I suggest CS explain to her about the service and let her know how to place the order </t>
   </si>
   <si>
-    <t>647-461-4638</t>
-  </si>
-  <si>
     <t xml:space="preserve">Man needs a survey for 210 Queensdale Av, East York, since we only have a registered plan I suggest a custom search. </t>
   </si>
   <si>
-    <t>416-725-7764</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sr website, confirm SRPR availabe. Submitting an aplication for a permit. Renovations. -  27 Vitanna Rd, Gormley, ON L0H 1G0 -- Although there is an existing srpr dated 2009 I suggested to confirm with the city if this one would be accepted </t>
-  </si>
-  <si>
-    <t>416-589-5818</t>
   </si>
   <si>
     <t xml:space="preserve">Lady wants to watch the webcast she purchase I told her to send an email </t>
@@ -615,33 +393,18 @@
 East York, ON. No srpr available. I suggested a custom search</t>
   </si>
   <si>
-    <t>416-522-0888</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lady needs a legal survey for 168 Gordon Rd, North York, I told her we have a legal survey online </t>
   </si>
   <si>
-    <t>770-515-8007</t>
-  </si>
-  <si>
     <t>No answer, noise.</t>
   </si>
   <si>
-    <t>416-487-121</t>
-  </si>
-  <si>
     <t>Call back Murray but I had no answer, I'll try later on</t>
   </si>
   <si>
-    <t>833-806-6771</t>
-  </si>
-  <si>
     <t>Lady from a Radio station offered us to enter a contest, first asked me my First Name and then asked for last name. Only provided first name and asked her if she could send the details of the promotion by email.</t>
   </si>
   <si>
-    <t>317-255-8696</t>
-  </si>
-  <si>
     <t>USA . New law goverment applying for underuse parrysound. We do not have this information he has to call the building department for his municipality. He lives in the US but he has a cottage in Canada. We can provide him with surveys or reports</t>
   </si>
   <si>
@@ -649,9 +412,6 @@
   </si>
   <si>
     <t>meganscottteam@gmail.com</t>
-  </si>
-  <si>
-    <t>416-729-7743</t>
   </si>
   <si>
     <t>Buying a  property, there's a possible right of way.  There is no addres. PIN Number: 280230144. Easement Issue: 
@@ -659,189 +419,87 @@
 She was told there's an easement attached to this land which, to the property in front: 1106 Island Dr Monaghan. She was told we could help her to confirm if this is correct.  Will give a call back . Need to check with Amandah. Sent her an email with a link to purchase an easemente report</t>
   </si>
   <si>
-    <t>416-540-4080</t>
-  </si>
-  <si>
     <t xml:space="preserve">Survey: year of the survey, 355 traders boulevard east misssauga. 375 Traders Blvd E, Mississauga, ON L4Z 2E5, Canadá Lady needs a survey for these properties, the same plans are showing for both and I tell her probably the lots were not divided back when the surveys were done, she can send us an email with her questions but we don't have the assistance of a surveyor, she can of course check with the city when the properties were bought and she can also apply for CS to get a srpr </t>
   </si>
   <si>
-    <t>480-893-3748</t>
-  </si>
-  <si>
-    <t>651-407-6397</t>
-  </si>
-  <si>
-    <t>905-447-4811</t>
-  </si>
-  <si>
     <t>Lady from Rose surveyors calling to see if their clients purchase a survey from us. I told her we would need a name or order number.</t>
   </si>
   <si>
-    <t>Anonymous</t>
-  </si>
-  <si>
     <t xml:space="preserve">Krcmar surveyors. Rplan topo plan, site grading plan. Sr is looking for a quote with LSG I explain to him LSG was taken by Krcmar and of course we can provide him with a quote if he send us all the info to kcmar email he can also call o the number they have on their web </t>
   </si>
   <si>
-    <t xml:space="preserve"> 314-452-4982</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trying to find the PIN number of a municipal address. Sr didn't have the municipal address also. He said will call back later. </t>
   </si>
   <si>
-    <t xml:space="preserve"> 704-227-2820</t>
-  </si>
-  <si>
-    <t>416-305-0502</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sr called us before and said he got disconnected. He purchased a Survey plan,  The problem is that the property is for the next door. And wanted a refund. I asked him to reply his order confirmation stating his issue.  </t>
   </si>
   <si>
     <t>5070, Sr bought a survey for 24 roslin avenue but he got the survey for number 22 I check the web page and yes it seems the survey was missplaced, I ask him to hold but the call dropped</t>
   </si>
   <si>
-    <t>416-886-0761</t>
-  </si>
-  <si>
-    <t>905-465-0507</t>
-  </si>
-  <si>
     <t>Call didn't get through</t>
   </si>
   <si>
-    <t>519-619-1000</t>
-  </si>
-  <si>
     <t xml:space="preserve">Man wants to know what he has to do to move her property lines, I told him he should ask directly in the city. </t>
   </si>
   <si>
-    <t>254-799-0291</t>
-  </si>
-  <si>
-    <t>416-573-7625</t>
-  </si>
-  <si>
     <t xml:space="preserve">Man from 107 Pape Av, Toronto, I told him we don't have any surveys available but we could try locating one. </t>
   </si>
   <si>
     <t>Find out who or where, when was 150 Albert StPaisley, ON N0G 2N0 severed. We don't have any records for this property. I suggested contacting the Commitee of Adjustments and/or an OLS for more information.</t>
   </si>
   <si>
-    <t>612-721-7245</t>
-  </si>
-  <si>
-    <t>416-271-7653</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lady needs a survey for 291 Joicey Blvd, North York, I told her we have a survey available online. </t>
   </si>
   <si>
-    <t>416-409-6521</t>
-  </si>
-  <si>
     <t xml:space="preserve">5 Millcar Dr, Scarborough, ON M1B 6J5, Canadá. Sr is a realtor he is selling the property andhe is looking for a survey I suggest CS and explain to him about the service and the different surveys. the 95CAD is a fee for CS and there is also a fee in case we get a copy and he wants to buy it </t>
   </si>
   <si>
-    <t>778-858-4447</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sr is seeig a subdivision plan for his property and he is applying for a permit. I sugegst o check which survey he needs and I recommend CS and explain to him what he can expect, he says he is not conviced with the service and he'll call back </t>
   </si>
   <si>
-    <t>416-321-2124</t>
-  </si>
-  <si>
     <t>Planning to purchase a Survey on PYB, make sure what information does it include: 1817 castle point oshawa. Purpose: His architech asked him for a boundary survey. We don't have any srprs available and I suggested a Custom Search</t>
   </si>
   <si>
-    <t>816-444-7165</t>
-  </si>
-  <si>
-    <t>705-378-0893</t>
-  </si>
-  <si>
     <t>Man needs a survey for 24 Narrows side Rd, Seguin, since we don't have any survey available I sugest a custom search.</t>
   </si>
   <si>
-    <t>360-263-4900</t>
-  </si>
-  <si>
-    <t>314-222-1085</t>
-  </si>
-  <si>
-    <t>816-366-8949</t>
-  </si>
-  <si>
     <t>Lady wants a survey for 8 River heights Dr, Brampton. shivang@relysolution.com</t>
   </si>
   <si>
     <t>Heather</t>
   </si>
   <si>
-    <t>437-833-8837</t>
-  </si>
-  <si>
     <t>Ehsan from post media asking for Heather, I transfer the call</t>
   </si>
   <si>
-    <t>416-856-0419</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sr calling back. He was told the survey was "uploading" It's been More than 24 hours and wants to check.  170 links crescent woodstock On N4T 0E7. The surveyor who did the survey told him that it was given to us. I checked and we only have a Reference Plan I suggested a Custom Search Instead. </t>
   </si>
   <si>
-    <t>647-863-7748</t>
-  </si>
-  <si>
     <t>Jeffrey, survey: 47 Calais St, Whitby, ON L1N 5M3, Canadá. We have a 1973 survey record, I ask him to contact his contractor and the city to know the kind of survey he needs and this one is a drawing of his property and the neighbours, before he purchases anything he can check, surveys are non refundable</t>
   </si>
   <si>
-    <t>575-544-0031</t>
-  </si>
-  <si>
-    <t>647-989-0458</t>
-  </si>
-  <si>
     <t xml:space="preserve">Residential owner, sell a portion of his land with the neighbour, he needs to submit a survey, Krcmar can give him a quote for what he needs, I let him know he has to send his info and request to krcmar </t>
   </si>
   <si>
-    <t>416-464-0838</t>
-  </si>
-  <si>
     <t>Man wants to know how does a custom search work. I explain how it works</t>
   </si>
   <si>
-    <t>905-903-0837</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lady needs a survey for 48 Hawley Crescent, Whitby, since we don't have a legal survey I suggest a custom search. </t>
   </si>
   <si>
-    <t>647-898-1838</t>
-  </si>
-  <si>
     <t>429 Christie St, Toronto, ON M6G 3C7, Canadá. We have a 1939 survey which is a sketch, she wants to know if the building is there I tell her to please send us an email so we can confirm the content since I am only able to see a preiew</t>
   </si>
   <si>
     <t>5 Gallaghar Court Ajax, wants to apply for a building permit and need a land survey.</t>
   </si>
   <si>
-    <t>409-769-3876</t>
-  </si>
-  <si>
     <t>No answer, static noise</t>
   </si>
   <si>
-    <t>647-964-8501</t>
-  </si>
-  <si>
     <t xml:space="preserve">At the website, there are 4 documents. Not sure which one. Purpose: build up a Fence. Looking for property lines: 37 third st tiny ON. No SRPR available, i suggested a Custom Search </t>
   </si>
   <si>
-    <t>905-955-8577</t>
-  </si>
-  <si>
     <t>survey, 15 Aranton Ct, Holland Landing, ON L9N 1H2, Canadá. Sr has a copy but it's very blurry I tell him we have a 1987 copy, but he can send us the specific info for the copy he is looking for and we will get back to him, the price is fixed by the record owner and we are not able to change it</t>
   </si>
   <si>
@@ -854,208 +512,106 @@
     <t>survey: BASEMENT apply for a permit. 72 Courtney Crescent, Barrie, ON L4N 5S8, Canadá</t>
   </si>
   <si>
-    <t>519-760-0055</t>
-  </si>
-  <si>
     <t>At website: wanted to buy a registered plan. He has been told about registered plans. Purpose: Need it for to complete a site plan. and needs to know the fence line and property lines.  174 Yorkshire St North Guelph. No SRPR available I suggested a Custom Search and walked thorugh the page to place an order.</t>
   </si>
   <si>
-    <t>780-968-2246</t>
-  </si>
-  <si>
-    <t>647-391-9922</t>
-  </si>
-  <si>
     <t>Call Bonnie she is looking for a survey, she did not pick up I left a VM</t>
   </si>
   <si>
-    <t> 206-486-4838</t>
-  </si>
-  <si>
-    <t>647-274-2946</t>
-  </si>
-  <si>
     <t>Marylin, survey. 000005593. There was an error with the link and she is not able to download the file she sent an email to info and Amandah replied, we will reach out to the record owner and get back to her</t>
   </si>
   <si>
-    <t>416-797-3188</t>
-  </si>
-  <si>
     <t>Man was asking about a new survey, then he hang up</t>
   </si>
   <si>
     <t>Sr needed a Survey Done, 140 grandview st oshawa. Sr was looking to build up on the property. Would need to apply for a permit. We don't have an existing srpr available. Sr asked for a referral and provided krcmar email address to request a quote.</t>
   </si>
   <si>
-    <t>416-618-9756</t>
-  </si>
-  <si>
     <t>Lady needs a stakeout, I suggest she contact the local surveyor</t>
   </si>
   <si>
-    <t>416-579-7483</t>
-  </si>
-  <si>
     <t xml:space="preserve">Man needs help handling his boundary issues, I told him we don't do that and that he needs to contact the city </t>
   </si>
   <si>
-    <t>647-642-8326</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sr looking for Survey, don't know which one to buy. 28 Montpelier St, Brampton, ON L6Y 6A6, Canada Purpose: Sr was applying for a building permit and was asked a survey plan with the house outline and setbacks. There's No SRPR available for this property so I suggested a Custom Search and contacting a local surveyor </t>
   </si>
   <si>
     <t xml:space="preserve">Sr Looking at the website, needs a Survey in Brampton.  is the same customer from 28 monpellier st Brampton asking for a survey of the adjacent property, 59 Edinburgh St. I checked and there are no SRPR available. The purpopse of the survey is to apply for a permit </t>
   </si>
   <si>
-    <t>314-474-6859</t>
-  </si>
-  <si>
-    <t>416-833-3460</t>
-  </si>
-  <si>
     <t xml:space="preserve">Finding a Survey: 49 Astley Ave, Toronto, ON M4W 3B5, Canada. RE Agent, client wants to buy the property. The contractor requested a suervey to see if they could build what they want to. They are not planning to apply for a permit yet. There's an existing SRPR dated 1943. I walked the client through the page to see the map preview and she'll forward it to her client. </t>
   </si>
   <si>
-    <t>416-483-4560</t>
-  </si>
-  <si>
     <t xml:space="preserve">Had a survey done by Michael Clancy, and now she have boundaries issues and needs a stakeout. I suggest she contact the city and a local surveyor </t>
   </si>
   <si>
-    <t>647-207-5852</t>
-  </si>
-  <si>
     <t>Man wants to know what it is a registered plan, I explain and suggest he ask in the city if that plan is enough for his buildings permit.</t>
   </si>
   <si>
-    <t>437-772-8056</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lady wants to build up a garden at the property, they need a survey plan, 170 Sheldon Ave Etobico On. There's an SRPR dated 1933. Since they are applying for a permit I asked her to confirm with the City if an existing srpr would be accepted. </t>
   </si>
   <si>
-    <t>519-993-7701</t>
-  </si>
-  <si>
     <t>Lady needs a survey for 14 Bechtel St, Cambridge, with setbacks, I suggest a custom search or that she can contact a local surveyor to get a new survey</t>
   </si>
   <si>
-    <t>416-278-1758</t>
-  </si>
-  <si>
     <t xml:space="preserve">Man purchase a custom search #5611, but he thought that was the price of the plan. I told him no. </t>
   </si>
   <si>
-    <t>647-637-5585</t>
-  </si>
-  <si>
     <t>pin: lot 16 renny road PIN 584230501 584230542. I can see by the LD there are easements on boths parcels, if he wants to know more info about it he can obtain the report, since we do not have a property page I ask him to please send us an email requesting the reports and we will give him the fee</t>
   </si>
   <si>
-    <t>416-839-7938</t>
-  </si>
-  <si>
     <t xml:space="preserve">Man needs a survey for 21 Cedar Brae Blvd, Scarborough, I told him we have a survey from 1964, and if he nees something else we could try locating it </t>
   </si>
   <si>
-    <t>905-643-1200</t>
-  </si>
-  <si>
     <t xml:space="preserve">34 Hollydene Pl, Hamilton, ON L8E 1K8, Canadá. Lady bought a subdvision plan only including lot number, I tell her what she needs is a srpr because of the info she mentioned, I tell her abou CS and explain to her what to expect </t>
   </si>
   <si>
-    <t>540-264-0185</t>
-  </si>
-  <si>
     <t>Karen</t>
   </si>
   <si>
-    <t>905-399-4078</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lady looking for a land survey, lady wants to build a pool. A surveyor told her her survey was on our website. 2248 Devonshire Ct Oaksville ON.  Salna - 2247 Devonshire. There is an SRPR next to her property. I'd need to confirm with Amandah and give a call back to client. </t>
   </si>
   <si>
-    <t>647-207-2431</t>
-  </si>
-  <si>
     <t>Lady wants to get an SRPR survey but wants to know if that would be enough for her to have work on her property, I suggest she ask directly to the contractor</t>
   </si>
   <si>
     <t xml:space="preserve">ORDER a survey. it's not accurate000005624. 253 brimorton. I tell her the numbers she sees are lot numbers and the municipal address is there, she can check the little numbers inside the building, there is her property </t>
   </si>
   <si>
-    <t>416-616-1263</t>
-  </si>
-  <si>
     <t xml:space="preserve">Man needs a survey for 11 Basildon Crescent, Scarborugh, I told him we have a survey available online but he should confirm first with the city. </t>
   </si>
   <si>
-    <t>905-409-8487</t>
-  </si>
-  <si>
     <t>Michael J Clancy,  Sr has a survey for this company. 37 Presley Ave Toronto, wondering if we may have topographic. Designing a second story. We have an existing SRPR dated 1987. I suggested contacting a local surveyor for a topographic survey</t>
   </si>
   <si>
     <t>looking to replace a survey. 853 Dundee Ave, Ottawa, ON K2B 5S8, Canadá</t>
   </si>
   <si>
-    <t>613-829-6650</t>
-  </si>
-  <si>
     <t xml:space="preserve">Brenda Sidhu. Find a survey for her house. 3264 old berbely road cambridge. 3264 Old Beverly Rd, Cambridge, ON N1R 5S7, Canadá, nothing on the property I suggest CS </t>
   </si>
   <si>
-    <t>519-341-2151</t>
-  </si>
-  <si>
     <t>INVOICE: #000005448 000005520. LOT NUMBER 171, he had no idea what he bought I explain to him what to see on a survey and where is his proprty located, I ask him for his pin or lot number and let him know which one is his property this is a legal survey</t>
   </si>
   <si>
-    <t>416-575-9532</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lady needs a survey for 20 Maneola Rd E, Mississauga, since we don't have anything available I suggest a custom search. </t>
   </si>
   <si>
-    <t>416-560-0391</t>
-  </si>
-  <si>
     <t xml:space="preserve">survey:  1716 Woodgate Trail, Oshawa, ON L1G 8B4, Canadá. Sr needs a survey with setbacks we have a reference plan but I am unable to see the previw at the moment I ask him to send us an email we will confirm if there are setbacks if not he can apply for CS </t>
   </si>
   <si>
-    <t>416-989-2581</t>
-  </si>
-  <si>
     <t>Man needs a survey for 2437 Vandorf SideRd, Stouffville, since we don't have anything available I suggest a custom search</t>
   </si>
   <si>
-    <t>416-487-9500</t>
-  </si>
-  <si>
     <t>Has a survey created by Horowitz, had receive d anoticed from neighbour. The domensions shown on the neighbours property is different about what they have. 1220 Bayview Ave toronto. I suggested contacting a local surveyor</t>
   </si>
   <si>
-    <t>416-527-7276</t>
-  </si>
-  <si>
     <t>Realtor that wants to know what is the difference of the reports we have, she also asked about the easement report an for the legal survey</t>
   </si>
   <si>
-    <t>416-629-2002</t>
-  </si>
-  <si>
     <t>Easement report, 370 Wilson Ave, Burlington, ON L7L 2M9, Canadá.Sr bought a report from I call client who bought this report, I explain to him there are no easements on his property, I ask Amandah about what he needs and I transfer the call</t>
   </si>
   <si>
-    <t>416-858-4639</t>
-  </si>
-  <si>
     <t xml:space="preserve">SURVEY: 15075 Humber Station Rd, Bolton, ON L7E 3A2, Canadá, no surveys tfor this property,the ones we have are not accurate so I suggest CS </t>
-  </si>
-  <si>
-    <t>905-213-8832</t>
   </si>
   <si>
     <t>Realtor: Find -320 Raglan Rd
@@ -1068,63 +624,33 @@
     <t>Man wants to confirm the krcmar email so he can request a new survey</t>
   </si>
   <si>
-    <t>416-577-2293</t>
-  </si>
-  <si>
     <t xml:space="preserve">Call Hassan . 1 duval drive barrie l4m6v4. Sr bought a plan and he claimed he never got it, we sent it twice already but he was confused on what he bought I explain to him this is non refundable, he bought a R-Plan and what he needed is different, he can send us an email asking for a refund and buy the right plan but I cannot guarantee this will be possible. I talked to Amandah about it </t>
   </si>
   <si>
     <t>Call Hassan. To inform him about the survey, Amandah will give him a one time courtsey because of his pruchase, so 449+tax so he can obtain the copy, she will send him an email and he can check the oreview and also ask if this is the plan he needs before he pays fo it</t>
   </si>
   <si>
-    <t>416-258-7033</t>
-  </si>
-  <si>
     <t>Looking for help: Zoning By Law. Has 3 Surveys. The neighbour removed some pins. She suspects there's an encroachment. I suggested her that with the aid of her current survey try to come to an agreement with neighbour. She wanted someone went to her property to measure, then I suggested contacting a local surveyor to conduct an up to date land survey</t>
   </si>
   <si>
-    <t>905-853-5495</t>
-  </si>
-  <si>
     <t>190 Hurd St, Bradford, ON L3Z 1K9, Canadá. Sr is searching for a survey for his client, he is seeing a 1985 survey from Lloyd and Purccel ounder OLS Report I ask him to wait so I can confirm with Amandah, the survey is for the property bellor the one he is looking for  I recommend CS and he will ask his client</t>
   </si>
   <si>
-    <t>647-239-3845</t>
-  </si>
-  <si>
     <t>Contractor trying to locate a client's property C 285 Durham Rd 12 Cannington On M0E1E0. We don't have surveys available for this property I suggested a Custom Search</t>
   </si>
   <si>
-    <t>705-792-4787</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lady needs a stakeout, I suggest she contact the local surveyor. </t>
   </si>
   <si>
-    <t>712-755-7607</t>
-  </si>
-  <si>
-    <t>647-700-8042</t>
-  </si>
-  <si>
     <t>Man needs a survey for 33 Tulane Crescent, North York, and he wants to know if he purchase the survey available what would the quality be</t>
   </si>
   <si>
-    <t>416-483-7578</t>
-  </si>
-  <si>
     <t>Lady at the Website. There's a Survey dated 1973. Purpose: Selling her house. 37 Kimbark Blv Toronto  There's an existing SRPR dated 1973 available for this purpose.</t>
   </si>
   <si>
-    <t>705-252-5800</t>
-  </si>
-  <si>
     <t>Man needs a survey for 27 Master Dr, Barrie, I told him that we have a legal survey from 2002, I told him he can see the preview</t>
   </si>
   <si>
-    <t>416-888-5135</t>
-  </si>
-  <si>
     <t>Lady is applying for a permit and she wants a survey with setbacks, we have a 2002 survey but she needs to confirm with the city the type of survey they accept, this one includes more than one property 27 MASTERS DRIVE barrie</t>
   </si>
   <si>
@@ -1134,123 +660,63 @@
     <t xml:space="preserve">Man from 33 Tulane Crescent, North York, wants to know why the price is change, I told him the prices are set up by the copywrite owners </t>
   </si>
   <si>
-    <t>817-645-0085</t>
-  </si>
-  <si>
-    <t>647-204-6801</t>
-  </si>
-  <si>
     <t>John, PYB website. neighbours fence property line. 105 fermanagh avenue toronto he needs to know where the fence was before, I tell him the 1958 survey show setbacks to the side and there is also the legend "fenced" but ot the distance from the fence to the line, he can consider stake out and also send us an email to confirm the info he needs</t>
   </si>
   <si>
-    <t>416-709-2069</t>
-  </si>
-  <si>
     <t>Man purchase a plan and wanted to know how can he download it. #5647</t>
   </si>
   <si>
-    <t>905-451-6714</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lady calling about the condo, how much time does she have to watch it </t>
   </si>
   <si>
-    <t>519-731-0163</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sr calling about a survey for 56 angelico drive. We do have a srpr but he says it's too expensive I tell him the prices are fixed by the record owner, he can buy another one if it's only for a listing but the other do not offer detailed info about the property </t>
   </si>
   <si>
-    <t>289-716-5777</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lady asking if we offered any kind of Courses? I shared the BoundaryWise website. </t>
   </si>
   <si>
     <t xml:space="preserve">Call Murray he left a VM about the survey he bought. He is busy so he will have to call us back or send an email </t>
   </si>
   <si>
-    <t>416-617-1069</t>
-  </si>
-  <si>
     <t>PURCHASE ONLINE. order: 244 Greenwood Ave, Toronto, ON M4L 2R3, Canadá, Sr had a link from landsurveyrecords to buy this survey but it's not for his property, it's for 246. I ask Amandah for help, we will refund the survey and figure out what was the problem and why the survey was missplaced</t>
   </si>
   <si>
-    <t>647-928-4956</t>
-  </si>
-  <si>
     <t>Sr looking for a Survey for his house, builder needs one: 75 Upper Trl Scarborough. I offered him a Custom Search becauser there aren't any SRPR available. He said will talk to his parents and call us back</t>
   </si>
   <si>
-    <t>416-422-3010</t>
-  </si>
-  <si>
     <t xml:space="preserve">copy of a survey 69 coldridge, she needs a hard copy I ask her to send us an email and we will check if we are able to send a hard cipy by mail. before she purchases anything </t>
   </si>
   <si>
-    <t>402-205-0657</t>
-  </si>
-  <si>
     <t>Lady at the website, she was asking for land survey plans for the United States. I let her know we only have records for the GTA and Ontario CA</t>
   </si>
   <si>
-    <t>647-201-0738</t>
-  </si>
-  <si>
     <t xml:space="preserve">Neil, drawing for his home. Lot survey: 1303 gallant court 1303 Gallant Ct, Pickering, ON L1W 3W7, Canadá. Only a registered plan so I recommend CS, he'll chek with his engineer and get back to us </t>
   </si>
   <si>
-    <t xml:space="preserve"> 905-706-6636</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lady needs to get a copy of her Land Survey, getting her basement finish an entrance. Since they're applying fpr a permit I asked her to confirm with the City if an existing srpr dated 1987 would be sufficient.   19 Dakin Dr Ajax, </t>
   </si>
   <si>
-    <t>416-662-6679</t>
-  </si>
-  <si>
     <t>Man needs a survey for 11 Colleridge St, Ajax, since we only have a registered plan I suggest a custom search</t>
   </si>
   <si>
-    <t>416-452-7158</t>
-  </si>
-  <si>
     <t xml:space="preserve">Man from 844 4th st for Francisco. I explained they need to send an email to krcmar to get a quote. </t>
   </si>
   <si>
     <t xml:space="preserve">5 Millcar Dr, Scarborough, ON M1B 6J5, Canadá. No surveys for this property, he is a realtor an looking for a srpr becasue of the selling of a property, I suggest CS since there are only subdivision plans. the 95 fee is for the search and there is an additional fee in case we find a survey and he wants to buy it </t>
   </si>
   <si>
-    <t>905-851-7535</t>
-  </si>
-  <si>
     <t xml:space="preserve">Man ordersd a survey for 33 Hill Garden Rd, Etobicoke, man order an easement report and wants to know how long it takes and what is a registered plan. </t>
   </si>
   <si>
-    <t>416-876-4569</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lady attended to the conference and now wants to watch the webcast, I told her she would need to buy the access. </t>
   </si>
   <si>
-    <t>606-653-9010</t>
-  </si>
-  <si>
-    <t>416-433-3602</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lady wants a survey for 116 Drayton Av, To, I suggest she confirms with the city if that survey is good enough. </t>
   </si>
   <si>
     <t xml:space="preserve">Sr is applying for a permit but he  needs a survey, his property has no surveys on our system so I suggest CS and let him know how to place the order 122 Church Street East Brampton </t>
   </si>
   <si>
-    <t>647-939-4534</t>
-  </si>
-  <si>
-    <t>416-333-6395</t>
-  </si>
-  <si>
     <t>Lady wants to know if there are easements on 7 Heron St, Cameron, I told her I can't see that and that she can send us an email to check that furder</t>
   </si>
   <si>
@@ -1269,157 +735,76 @@
     <t>March 21st survey plan, 000005625. Lady thought she was getting a survey because the email showed "Once your package ships we will send you a tracking number." I tell her that must be an error and she says it is very missleading, I explain to her about the service she bought and the copy of the sruvey we found which she also bought and that on our web the service is explained and the email has this sentence but it's not accurate I'll make sure to let my manager know about it and she can also send us an email to check this out</t>
   </si>
   <si>
-    <t>705-331-5480</t>
-  </si>
-  <si>
     <t>Looking for an existing survey:  220 Morgan Rd, Stayner, ON L0M 1S0, Purpose: Listing the property: No srpr available I suggested a Custom Search instead.</t>
   </si>
   <si>
-    <t>647-567-1950</t>
-  </si>
-  <si>
     <t>Lady is trying to get a CAD file for a survey, I suggest she send an email but I told her we usually don't have CAD files</t>
   </si>
   <si>
-    <t>416-888-2625</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sr is seaching for a copy of 93 Elmwood Ave, North York, ON M2N 3L9, Canadá a survey I explain to him the copy we have might  be the same one he was given,but our files are pdf HD format, I can't confrim with him all the numbers but he can send us an email for more detail, I also tell him this copy is the original copy so he can send us the number of survey he has and we confirm is the same drawing </t>
   </si>
   <si>
-    <t> 416-888-2625</t>
-  </si>
-  <si>
     <t xml:space="preserve">House owner of a property. There's a discrepancey. Two houses build in the 1950's. There'sa gap of 9 inches.  93 Elmwood Ave Toronto - Order Number 5680- Marc - Purpose: Building a Fence. - I asked him to contact a local surveyor to get the boundary line marked out with the aid of the SRPR he already purchased and build the fence once the boundary has been established. </t>
   </si>
   <si>
-    <t>705-984-2066</t>
-  </si>
-  <si>
     <t>Lady needs a survey for 6651 Highway 93, Elmvale, since we don't have anything available I suggest a custom search</t>
   </si>
   <si>
-    <t>437-772-6278</t>
-  </si>
-  <si>
     <t>Man needs a survey for 1354 Red Pine Cross, London, since we only have a registered plan I suggest a custom search</t>
   </si>
   <si>
-    <t>416-525-6653</t>
-  </si>
-  <si>
     <t>Lady needs a survey for 18 Olive Av, To,  since we only have a registered plan I suggest a custom search</t>
   </si>
   <si>
-    <t>416-526-5231</t>
-  </si>
-  <si>
     <t>Realtor: has a client it was done by Dunning and Talyor. Question: Has a question about a Survey Plan, he is interested in Part 2, of the report, we only have the plan  available at the website: 981 Dufferin Toronto: Listing the property. We usually don't have the written reports available. Realtor seemed interested in reading a survey I suggested our section on how to read a survey plan and the BW website</t>
   </si>
   <si>
-    <t>416-271-7680</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lady needs a survey for 683 Ossington Av, To, I told her we have a survey from 1980 she can get online. </t>
   </si>
   <si>
     <t xml:space="preserve">Brent Remax, PYB survey for 156 Cornell Ave, Scarborough, ON M1N 2Y4, Canadá. </t>
   </si>
   <si>
-    <t>705-209-6779</t>
-  </si>
-  <si>
     <t>Lady needs a survey for 14 Stoneybrook Crescent, Barry, I told her that we have a legal survey available online from 1999</t>
   </si>
   <si>
-    <t>647-576-2745</t>
-  </si>
-  <si>
     <t>Amy for the person in charge of HR, I told her to send an email</t>
   </si>
   <si>
-    <t>705-</t>
-  </si>
-  <si>
-    <t>905-920-1674</t>
-  </si>
-  <si>
     <t xml:space="preserve">Janett. registered plan and reference. I expalin to her the kind of plans they are and I suggest CS since she is doing a drwaing for a client, she is an architect. She'll check with her client and get back to us </t>
   </si>
   <si>
-    <t>416-321-2090</t>
-  </si>
-  <si>
     <t>Sr purchased a Survey: Order Number 5689 - 1578 Docking Ct Oshawa. Sr Purchased a PROPOSED plan *before* calling us. Purpose, build duplex for the Basement. Sr was not asking for a refund. he wanted to know how to find an existing survey. I walked him through our custom search page</t>
   </si>
   <si>
-    <t>416-931-4397</t>
-  </si>
-  <si>
     <t>John Mcskiming. survey a lot more clear. 88 Crooked Stick Rd, Concord, ON L4K 1P5, Canadá. We have a 1984 survey I tell him it's probably the same copy he has but this one is pdf HD format he can purchase it online, he also asks for stake out but I recommend a local surveyor since we do not provide the service</t>
   </si>
   <si>
-    <t>208-452-4864</t>
-  </si>
-  <si>
-    <t>905-839-4187</t>
-  </si>
-  <si>
     <t>Lady wants to know what is a reference plan and what kind of information she can see on it</t>
   </si>
   <si>
     <t xml:space="preserve">Lady needs a survey for 3264 Old Beverly Rd, Cambridge, since we only have a registered plan I suggest a custom search. </t>
   </si>
   <si>
-    <t>402-466-9217</t>
-  </si>
-  <si>
-    <t>830-896-0677</t>
-  </si>
-  <si>
-    <t>905-965-4329</t>
-  </si>
-  <si>
     <t>Lady needs a survey for 218 McMurchy Av, Brampton,  since we only have a registered plan I suggest a custom search</t>
   </si>
   <si>
-    <t>647-763-1675</t>
-  </si>
-  <si>
     <t xml:space="preserve">Man needs a survey for 11 Wentwood St. N, Hamilton, since we only have a registered plan I suggest a custom search, </t>
   </si>
   <si>
-    <t>416-702-2323</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lady is applying for a permit and she needs a survey, the surveys we have don't offer info on her property so I recommend CS and explain to her how it works, she also asks for a new survey and I tell her she can send us the info and we can get back to her with a quote but she is confused on the services I explain to her again but she will call back </t>
   </si>
   <si>
-    <t>416-648-5543</t>
-  </si>
-  <si>
     <t>Lady needs a survey for 156 Cornell Av, Scarborough, since we only have a registered plan I suggest a custom search</t>
   </si>
   <si>
-    <t>416-414-1921</t>
-  </si>
-  <si>
     <t>Lady purchased a Survey Plan but didn't know how to download it, Order number 5668. I walked through the confirmation email and the download pdf section.</t>
   </si>
   <si>
-    <t>416-737-0953</t>
-  </si>
-  <si>
     <t xml:space="preserve">RECORDS for 2 Ellesboro Dr, Mississauga, ON L5N 1C1, Canadá. we have a 1956 survey and I tell him he should ask the city and his contractor first if this is a accurate survey for him </t>
   </si>
   <si>
-    <t>647-226-3675</t>
-  </si>
-  <si>
     <t>Call Maria about the survey she claims she got wrong, we need to know her order number and double check, she did not pck up I left a VM</t>
-  </si>
-  <si>
-    <t>647-284-2144</t>
   </si>
   <si>
     <t>Man needs a survey for 9 Flower St, St. Catherines, since we only have a registered plan I suggest a custom search</t>
@@ -2015,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3A60FE-583D-4435-8016-E6D6AD39F1F9}">
   <dimension ref="A1:L260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="A261" sqref="A261:XFD339"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2072,14 +1457,12 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>12</v>
@@ -2088,7 +1471,7 @@
         <v>0.15625</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="216">
@@ -2104,14 +1487,12 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>12</v>
@@ -2127,28 +1508,26 @@
         <v>44929</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="I4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K4" s="7">
         <v>0.20902777777777778</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="144">
@@ -2164,14 +1543,12 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="G5" s="6"/>
       <c r="H5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>12</v>
@@ -2194,10 +1571,10 @@
       <c r="F6" s="4"/>
       <c r="G6" s="6"/>
       <c r="H6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>12</v>
@@ -2213,28 +1590,26 @@
         <v>44929</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="G7" s="6"/>
       <c r="H7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K7" s="8">
         <v>4.2361111111111106E-2</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="244.8">
@@ -2245,28 +1620,26 @@
         <v>44929</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K8" s="8">
         <v>4.0972222222222222E-2</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="244.8">
@@ -2277,28 +1650,26 @@
         <v>44929</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K9" s="8">
         <v>0.2298611111111111</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="172.8">
@@ -2317,7 +1688,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="4"/>
       <c r="I10" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>12</v>
@@ -2339,10 +1710,10 @@
       <c r="G11" s="6"/>
       <c r="H11" s="4"/>
       <c r="I11" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="6"/>
@@ -2355,28 +1726,26 @@
         <v>44929</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="G12" s="6"/>
       <c r="H12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K12" s="7">
         <v>0.30902777777777779</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="259.2">
@@ -2392,14 +1761,12 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="G13" s="6"/>
       <c r="H13" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>12</v>
@@ -2417,28 +1784,26 @@
         <v>44929</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="G14" s="6"/>
       <c r="H14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7">
         <v>0.11666666666666665</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="374.4">
@@ -2454,14 +1819,12 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>12</v>
@@ -2480,55 +1843,51 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="G16" s="4"/>
       <c r="H16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K16" s="8">
         <v>9.8611111111111108E-2</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="100.8">
       <c r="A17" s="6" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B17" s="5">
         <v>44929</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="G17" s="6"/>
       <c r="H17" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K17" s="8">
         <v>0.3444444444444445</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="115.2">
@@ -2542,14 +1901,12 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="G18" s="6"/>
       <c r="H18" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>12</v>
@@ -2565,20 +1922,18 @@
         <v>44929</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="G19" s="10"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="4"/>
@@ -2599,7 +1954,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="11" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>12</v>
@@ -2618,15 +1973,13 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="G21" s="10"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K21" s="8"/>
       <c r="L21" s="4"/>
@@ -2647,7 +2000,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>12</v>
@@ -2666,15 +2019,13 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="6"/>
@@ -2695,7 +2046,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>12</v>
@@ -2719,7 +2070,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>12</v>
@@ -2735,28 +2086,26 @@
         <v>44929</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K26" s="8">
         <v>0.22361111111111109</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="158.4">
@@ -2770,17 +2119,15 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="G27" s="6"/>
       <c r="H27" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="4"/>
@@ -2801,7 +2148,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>12</v>
@@ -2822,14 +2169,12 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="6">
-        <v>14164591919</v>
-      </c>
+      <c r="G29" s="6"/>
       <c r="H29" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>12</v>
@@ -2845,28 +2190,26 @@
         <v>44929</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="G30" s="6"/>
       <c r="H30" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K30" s="8">
         <v>7.6388888888888895E-2</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="302.39999999999998">
@@ -2877,28 +2220,26 @@
         <v>44929</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="G31" s="6"/>
       <c r="H31" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K31" s="8">
         <v>0.17569444444444446</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="129.6">
@@ -2909,28 +2250,26 @@
         <v>44929</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="6" t="s">
-        <v>70</v>
-      </c>
+      <c r="G32" s="6"/>
       <c r="H32" s="6" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K32" s="8">
         <v>0.11041666666666666</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="129.6">
@@ -2941,28 +2280,26 @@
         <v>44929</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="G33" s="6"/>
       <c r="H33" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K33" s="8">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="115.2">
@@ -2978,14 +2315,12 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="6" t="s">
-        <v>75</v>
-      </c>
+      <c r="G34" s="6"/>
       <c r="H34" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="J34" s="6" t="s">
         <v>12</v>
@@ -2994,7 +2329,7 @@
         <v>7.9861111111111105E-2</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="409.6">
@@ -3010,14 +2345,12 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="G35" s="6"/>
       <c r="H35" s="6" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>12</v>
@@ -3026,7 +2359,7 @@
         <v>0.35138888888888892</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="129.6">
@@ -3037,28 +2370,26 @@
         <v>44929</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="G36" s="6"/>
       <c r="H36" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K36" s="8">
         <v>7.4305555555555555E-2</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="409.6">
@@ -3069,28 +2400,26 @@
         <v>44929</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="G37" s="6"/>
       <c r="H37" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K37" s="8">
         <v>0.23194444444444443</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="187.2">
@@ -3101,28 +2430,26 @@
         <v>44929</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="G38" s="6"/>
       <c r="H38" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K38" s="8">
         <v>0.30138888888888887</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="345.6">
@@ -3133,20 +2460,20 @@
         <v>44929</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K39" s="8"/>
       <c r="L39" s="6"/>
@@ -3159,26 +2486,24 @@
         <v>44929</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="G40" s="6"/>
       <c r="H40" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K40" s="8"/>
       <c r="L40" s="6" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="158.4">
@@ -3189,28 +2514,26 @@
         <v>44929</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="G41" s="6"/>
       <c r="H41" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K41" s="8">
         <v>0.1173611111111111</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="316.8">
@@ -3221,28 +2544,26 @@
         <v>44929</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="G42" s="6"/>
       <c r="H42" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K42" s="8">
         <v>5.0694444444444452E-2</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="187.2">
@@ -3253,28 +2574,26 @@
         <v>44929</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="6" t="s">
-        <v>94</v>
-      </c>
+      <c r="G43" s="6"/>
       <c r="H43" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K43" s="8">
         <v>0.12291666666666667</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="28.8">
@@ -3285,28 +2604,26 @@
         <v>44929</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="G44" s="4"/>
       <c r="H44" s="4" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K44" s="7">
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="144">
@@ -3323,10 +2640,10 @@
       <c r="G45" s="12"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K45" s="8"/>
       <c r="L45" s="6"/>
@@ -3339,28 +2656,26 @@
         <v>44929</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="4" t="s">
-        <v>100</v>
-      </c>
+      <c r="G46" s="4"/>
       <c r="H46" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K46" s="7">
         <v>0.16458333333333333</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="345.6">
@@ -3374,14 +2689,12 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="4" t="s">
-        <v>102</v>
-      </c>
+      <c r="G47" s="4"/>
       <c r="H47" s="4" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>12</v>
@@ -3399,28 +2712,26 @@
         <v>44929</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="G48" s="4"/>
       <c r="H48" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K48" s="7">
         <v>0.19652777777777777</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="409.6">
@@ -3431,28 +2742,26 @@
         <v>44960</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="G49" s="4"/>
       <c r="H49" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K49" s="7">
         <v>0.5395833333333333</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="201.6">
@@ -3463,28 +2772,26 @@
         <v>44960</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="13"/>
-      <c r="G50" s="4" t="s">
-        <v>109</v>
-      </c>
+      <c r="G50" s="4"/>
       <c r="H50" s="6" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K50" s="8">
         <v>0.10972222222222222</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="28.8">
@@ -3495,28 +2802,26 @@
         <v>44960</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="G51" s="4"/>
       <c r="H51" s="4" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K51" s="8">
         <v>2.013888888888889E-2</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="57.6">
@@ -3532,14 +2837,12 @@
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="G52" s="4"/>
       <c r="H52" s="4" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>12</v>
@@ -3548,7 +2851,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="259.2">
@@ -3559,28 +2862,26 @@
         <v>44960</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="G53" s="4"/>
       <c r="H53" s="4" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K53" s="7">
         <v>0.17916666666666667</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="129.6">
@@ -3599,7 +2900,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="6" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>12</v>
@@ -3622,7 +2923,7 @@
       <c r="H55" s="4"/>
       <c r="I55" s="6"/>
       <c r="J55" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K55" s="8"/>
       <c r="L55" s="6"/>
@@ -3635,28 +2936,26 @@
         <v>44988</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="G56" s="4"/>
       <c r="H56" s="4" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K56" s="8">
         <v>0.20972222222222223</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="409.6">
@@ -3672,14 +2971,12 @@
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="4" t="s">
-        <v>119</v>
-      </c>
+      <c r="G57" s="4"/>
       <c r="H57" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I57" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="J57" s="6" t="s">
         <v>12</v>
@@ -3688,7 +2985,7 @@
         <v>0.20902777777777778</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="409.6">
@@ -3699,26 +2996,24 @@
         <v>44988</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="14"/>
-      <c r="G58" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="G58" s="4"/>
       <c r="H58" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K58" s="8"/>
       <c r="L58" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="115.2">
@@ -3729,28 +3024,26 @@
         <v>44988</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="14"/>
-      <c r="G59" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="G59" s="4"/>
       <c r="H59" s="15" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K59" s="8">
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="244.8">
@@ -3766,14 +3059,12 @@
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="G60" s="4"/>
       <c r="H60" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>12</v>
@@ -3782,7 +3073,7 @@
         <v>0.20277777777777781</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="216">
@@ -3793,28 +3084,26 @@
         <v>44988</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="6" t="s">
-        <v>127</v>
-      </c>
+      <c r="G61" s="6"/>
       <c r="H61" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K61" s="8">
         <v>0.11666666666666665</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="409.6">
@@ -3825,28 +3114,26 @@
         <v>44988</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="G62" s="6"/>
       <c r="H62" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K62" s="7">
         <v>5.8333333333333327E-2</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="409.6">
@@ -3862,14 +3149,12 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="G63" s="6"/>
       <c r="H63" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="J63" s="6" t="s">
         <v>12</v>
@@ -3878,7 +3163,7 @@
         <v>0.12361111111111112</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="28.8">
@@ -3889,28 +3174,26 @@
         <v>44988</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="6" t="s">
-        <v>132</v>
-      </c>
+      <c r="G64" s="6"/>
       <c r="H64" s="6" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K64" s="8">
         <v>2.7083333333333334E-2</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="316.8">
@@ -3919,28 +3202,26 @@
         <v>44988</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="6" t="s">
-        <v>134</v>
-      </c>
+      <c r="G65" s="6"/>
       <c r="H65" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K65" s="8">
         <v>0.23750000000000002</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="374.4">
@@ -3956,14 +3237,12 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="6" t="s">
-        <v>136</v>
-      </c>
+      <c r="G66" s="6"/>
       <c r="H66" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="J66" s="6" t="s">
         <v>12</v>
@@ -3972,7 +3251,7 @@
         <v>0.39652777777777781</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="331.2">
@@ -3983,28 +3262,26 @@
         <v>44988</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="6" t="s">
-        <v>138</v>
-      </c>
+      <c r="G67" s="6"/>
       <c r="H67" s="6" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K67" s="8">
         <v>0.10486111111111111</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="216">
@@ -4015,28 +3292,26 @@
         <v>44991</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="6" t="s">
-        <v>140</v>
-      </c>
+      <c r="G68" s="6"/>
       <c r="H68" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K68" s="8">
         <v>0.32708333333333334</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="409.6">
@@ -4052,14 +3327,12 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="6" t="s">
-        <v>142</v>
-      </c>
+      <c r="G69" s="6"/>
       <c r="H69" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="J69" s="6" t="s">
         <v>12</v>
@@ -4068,7 +3341,7 @@
         <v>0.24374999999999999</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="409.6">
@@ -4079,28 +3352,26 @@
         <v>44991</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="6" t="s">
-        <v>144</v>
-      </c>
+      <c r="G70" s="6"/>
       <c r="H70" s="6" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K70" s="8">
         <v>0.33055555555555555</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="57.6">
@@ -4111,28 +3382,26 @@
         <v>44991</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="6" t="s">
-        <v>146</v>
-      </c>
+      <c r="G71" s="6"/>
       <c r="H71" s="6" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K71" s="8">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="201.6">
@@ -4143,28 +3412,26 @@
         <v>44991</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="6" t="s">
-        <v>146</v>
-      </c>
+      <c r="G72" s="6"/>
       <c r="H72" s="6" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K72" s="7">
         <v>0.10208333333333335</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="244.8">
@@ -4175,24 +3442,22 @@
         <v>44991</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="6" t="s">
-        <v>148</v>
-      </c>
+      <c r="G73" s="6"/>
       <c r="H73" s="6"/>
       <c r="I73" s="6" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K73" s="7"/>
       <c r="L73" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="409.6">
@@ -4211,7 +3476,7 @@
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
       <c r="I74" s="6" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="J74" s="6" t="s">
         <v>12</v>
@@ -4229,28 +3494,26 @@
         <v>44991</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
-      <c r="G75" s="6" t="s">
-        <v>151</v>
-      </c>
+      <c r="G75" s="6"/>
       <c r="H75" s="6" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K75" s="7">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="172.8">
@@ -4261,28 +3524,26 @@
         <v>44991</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="6" t="s">
-        <v>151</v>
-      </c>
+      <c r="G76" s="6"/>
       <c r="H76" s="6" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K76" s="7">
         <v>6.3888888888888884E-2</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="259.2">
@@ -4293,28 +3554,26 @@
         <v>44991</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
-      <c r="G77" s="6" t="s">
-        <v>153</v>
-      </c>
+      <c r="G77" s="6"/>
       <c r="H77" s="6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K77" s="7">
         <v>0.25138888888888888</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="57.6">
@@ -4325,28 +3584,26 @@
         <v>44991</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="6" t="s">
-        <v>155</v>
-      </c>
+      <c r="G78" s="6"/>
       <c r="H78" s="6" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K78" s="8">
         <v>2.2916666666666669E-2</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="43.2">
@@ -4362,23 +3619,21 @@
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="16"/>
-      <c r="G79" s="6" t="s">
-        <v>156</v>
-      </c>
+      <c r="G79" s="6"/>
       <c r="H79" s="4" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K79" s="7">
         <v>4.6527777777777779E-2</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="115.2">
@@ -4389,28 +3644,26 @@
         <v>44991</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="4" t="s">
-        <v>159</v>
-      </c>
+      <c r="G80" s="4"/>
       <c r="H80" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K80" s="7">
         <v>7.9861111111111105E-2</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="409.6">
@@ -4426,14 +3679,12 @@
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
-      <c r="G81" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="G81" s="4"/>
       <c r="H81" s="6" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="J81" s="6" t="s">
         <v>12</v>
@@ -4442,7 +3693,7 @@
         <v>0.22708333333333333</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="288">
@@ -4453,28 +3704,26 @@
         <v>44991</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="4" t="s">
-        <v>159</v>
-      </c>
+      <c r="G82" s="4"/>
       <c r="H82" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K82" s="8">
         <v>0.18472222222222223</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="72">
@@ -4485,28 +3734,26 @@
         <v>44991</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="4" t="s">
-        <v>165</v>
-      </c>
+      <c r="G83" s="4"/>
       <c r="H83" s="6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K83" s="7">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="302.39999999999998">
@@ -4522,14 +3769,12 @@
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="6" t="s">
-        <v>161</v>
-      </c>
+      <c r="G84" s="6"/>
       <c r="H84" s="6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="J84" s="6" t="s">
         <v>12</v>
@@ -4538,7 +3783,7 @@
         <v>6.7361111111111108E-2</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="201.6">
@@ -4549,28 +3794,26 @@
         <v>44991</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
-      <c r="G85" s="6" t="s">
-        <v>168</v>
-      </c>
+      <c r="G85" s="6"/>
       <c r="H85" s="6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K85" s="7">
         <v>0.1013888888888889</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="144">
@@ -4581,28 +3824,26 @@
         <v>44991</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
-      <c r="G86" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="G86" s="4"/>
       <c r="H86" s="4" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K86" s="7">
         <v>0.23402777777777781</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="129.6">
@@ -4613,28 +3854,26 @@
         <v>44991</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
-      <c r="G87" s="4" t="s">
-        <v>171</v>
-      </c>
+      <c r="G87" s="4"/>
       <c r="H87" s="4" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K87" s="8">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="158.4">
@@ -4645,28 +3884,26 @@
         <v>44991</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
-      <c r="G88" s="4" t="s">
-        <v>173</v>
-      </c>
+      <c r="G88" s="4"/>
       <c r="H88" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K88" s="8">
         <v>2.9861111111111113E-2</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="216">
@@ -4677,28 +3914,26 @@
         <v>44992</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="4" t="s">
-        <v>175</v>
-      </c>
+      <c r="G89" s="4"/>
       <c r="H89" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K89" s="7">
         <v>0.11666666666666665</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="409.6">
@@ -4714,14 +3949,12 @@
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
-      <c r="G90" s="4" t="s">
-        <v>177</v>
-      </c>
+      <c r="G90" s="4"/>
       <c r="H90" s="6" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="J90" s="6" t="s">
         <v>12</v>
@@ -4730,7 +3963,7 @@
         <v>0.5</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="409.6">
@@ -4741,28 +3974,26 @@
         <v>44992</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
-      <c r="G91" s="4" t="s">
-        <v>179</v>
-      </c>
+      <c r="G91" s="4"/>
       <c r="H91" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K91" s="7">
         <v>0.3444444444444445</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4773,18 +4004,16 @@
         <v>44992</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
-      <c r="G92" s="4" t="s">
-        <v>181</v>
-      </c>
+      <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="6"/>
       <c r="J92" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K92" s="7"/>
       <c r="L92" s="4"/>
@@ -4797,28 +4026,26 @@
         <v>44992</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
-      <c r="G93" s="4" t="s">
-        <v>182</v>
-      </c>
+      <c r="G93" s="4"/>
       <c r="H93" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K93" s="7">
         <v>0.15625</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="230.4">
@@ -4829,26 +4056,24 @@
         <v>44992</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
-      <c r="G94" s="4" t="s">
-        <v>184</v>
-      </c>
+      <c r="G94" s="4"/>
       <c r="H94" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>185</v>
+        <v>113</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K94" s="7"/>
       <c r="L94" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="409.6">
@@ -4864,14 +4089,12 @@
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="4" t="s">
-        <v>186</v>
-      </c>
+      <c r="G95" s="4"/>
       <c r="H95" s="4" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>187</v>
+        <v>114</v>
       </c>
       <c r="J95" s="4" t="s">
         <v>12</v>
@@ -4880,7 +4103,7 @@
         <v>0.23541666666666669</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="144">
@@ -4891,28 +4114,26 @@
         <v>44992</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
-      <c r="G96" s="4" t="s">
-        <v>188</v>
-      </c>
+      <c r="G96" s="4"/>
       <c r="H96" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K96" s="8">
         <v>0.14305555555555557</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="374.4">
@@ -4923,20 +4144,20 @@
         <v>44992</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="4"/>
       <c r="H97" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K97" s="8"/>
       <c r="L97" s="6"/>
@@ -4956,10 +4177,10 @@
       <c r="F98" s="6"/>
       <c r="G98" s="4"/>
       <c r="H98" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>191</v>
+        <v>117</v>
       </c>
       <c r="J98" s="6" t="s">
         <v>12</v>
@@ -4968,7 +4189,7 @@
         <v>8.7500000000000008E-2</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4986,7 +4207,7 @@
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K99" s="8"/>
       <c r="L99" s="6"/>
@@ -4999,28 +4220,26 @@
         <v>44993</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
-      <c r="G100" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G100" s="4"/>
       <c r="H100" s="6" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K100" s="8">
         <v>0.3611111111111111</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="43.2">
@@ -5036,14 +4255,12 @@
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
-      <c r="G101" s="4" t="s">
-        <v>194</v>
-      </c>
+      <c r="G101" s="4"/>
       <c r="H101" s="6" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="J101" s="6" t="s">
         <v>12</v>
@@ -5052,7 +4269,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="100.8">
@@ -5063,28 +4280,26 @@
         <v>44993</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
-      <c r="G102" s="4" t="s">
-        <v>196</v>
-      </c>
+      <c r="G102" s="4"/>
       <c r="H102" s="6" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K102" s="8">
         <v>1.5277777777777777E-2</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="409.6">
@@ -5100,14 +4315,12 @@
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
-      <c r="G103" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="G103" s="4"/>
       <c r="H103" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I103" s="17" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
       <c r="J103" s="6" t="s">
         <v>12</v>
@@ -5116,7 +4329,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="43.2">
@@ -5127,28 +4340,26 @@
         <v>44993</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
-      <c r="G104" s="6" t="s">
-        <v>200</v>
-      </c>
+      <c r="G104" s="6"/>
       <c r="H104" s="6" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K104" s="8">
         <v>9.0277777777777787E-3</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="409.6">
@@ -5159,28 +4370,26 @@
         <v>44993</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
-      <c r="G105" s="6" t="s">
-        <v>200</v>
-      </c>
+      <c r="G105" s="6"/>
       <c r="H105" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K105" s="8">
         <v>5.9027777777777783E-2</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="409.6">
@@ -5194,20 +4403,18 @@
         <v>12</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>202</v>
+        <v>123</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="F106" s="4"/>
-      <c r="G106" s="6" t="s">
-        <v>204</v>
-      </c>
+      <c r="G106" s="6"/>
       <c r="H106" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="J106" s="4" t="s">
         <v>12</v>
@@ -5225,22 +4432,20 @@
         <v>44993</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="G107" s="6" t="s">
-        <v>206</v>
-      </c>
+      <c r="G107" s="6"/>
       <c r="H107" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K107" s="7"/>
       <c r="L107" s="4"/>
@@ -5258,14 +4463,12 @@
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="6" t="s">
-        <v>208</v>
-      </c>
+      <c r="G108" s="6"/>
       <c r="H108" s="4" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="J108" s="4" t="s">
         <v>12</v>
@@ -5274,7 +4477,7 @@
         <v>1.3194444444444444E-2</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="43.2">
@@ -5285,28 +4488,26 @@
         <v>44994</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
-      <c r="G109" s="6" t="s">
-        <v>209</v>
-      </c>
+      <c r="G109" s="6"/>
       <c r="H109" s="6" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K109" s="7">
         <v>1.4583333333333332E-2</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="244.8">
@@ -5317,28 +4518,26 @@
         <v>44994</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="6" t="s">
-        <v>210</v>
-      </c>
+      <c r="G110" s="6"/>
       <c r="H110" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>211</v>
+        <v>127</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K110" s="7">
         <v>9.2361111111111116E-2</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="409.6">
@@ -5349,28 +4548,26 @@
         <v>44994</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
-      <c r="G111" s="6" t="s">
-        <v>212</v>
-      </c>
+      <c r="G111" s="6"/>
       <c r="H111" s="4" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K111" s="7">
         <v>0.14930555555555555</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="216">
@@ -5386,14 +4583,12 @@
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
-      <c r="G112" s="6" t="s">
-        <v>214</v>
-      </c>
+      <c r="G112" s="6"/>
       <c r="H112" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>215</v>
+        <v>129</v>
       </c>
       <c r="J112" s="4" t="s">
         <v>12</v>
@@ -5402,7 +4597,7 @@
         <v>6.0416666666666667E-2</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="43.2">
@@ -5418,14 +4613,12 @@
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="6" t="s">
-        <v>216</v>
-      </c>
+      <c r="G113" s="6"/>
       <c r="H113" s="4" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="J113" s="4" t="s">
         <v>12</v>
@@ -5434,7 +4627,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="403.2">
@@ -5450,14 +4643,12 @@
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
-      <c r="G114" s="6" t="s">
-        <v>217</v>
-      </c>
+      <c r="G114" s="6"/>
       <c r="H114" s="4" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>218</v>
+        <v>130</v>
       </c>
       <c r="J114" s="4" t="s">
         <v>12</v>
@@ -5466,7 +4657,7 @@
         <v>5.7638888888888885E-2</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="360">
@@ -5477,28 +4668,26 @@
         <v>44994</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
-      <c r="G115" s="6" t="s">
-        <v>217</v>
-      </c>
+      <c r="G115" s="6"/>
       <c r="H115" s="4" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K115" s="8">
         <v>0.14861111111111111</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="43.2">
@@ -5509,22 +4698,20 @@
         <v>44995</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
-      <c r="G116" s="6" t="s">
-        <v>220</v>
-      </c>
+      <c r="G116" s="6"/>
       <c r="H116" s="4" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K116" s="7"/>
       <c r="L116" s="4"/>
@@ -5542,14 +4729,12 @@
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
-      <c r="G117" s="6" t="s">
-        <v>221</v>
-      </c>
+      <c r="G117" s="6"/>
       <c r="H117" s="6" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="J117" s="6" t="s">
         <v>12</v>
@@ -5558,7 +4743,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="L117" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="43.2">
@@ -5574,13 +4759,13 @@
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K118" s="8"/>
       <c r="L118" s="6"/>
@@ -5593,28 +4778,26 @@
         <v>44998</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
-      <c r="G119" s="6" t="s">
-        <v>223</v>
-      </c>
+      <c r="G119" s="6"/>
       <c r="H119" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K119" s="8">
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="L119" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="28.8">
@@ -5625,22 +4808,20 @@
         <v>44998</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
-      <c r="G120" s="6" t="s">
-        <v>225</v>
-      </c>
+      <c r="G120" s="6"/>
       <c r="H120" s="6" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K120" s="8"/>
       <c r="L120" s="4"/>
@@ -5653,28 +4834,26 @@
         <v>44998</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
-      <c r="G121" s="6" t="s">
-        <v>226</v>
-      </c>
+      <c r="G121" s="6"/>
       <c r="H121" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>227</v>
+        <v>134</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K121" s="8">
         <v>0.14166666666666666</v>
       </c>
       <c r="L121" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="409.6">
@@ -5690,14 +4869,12 @@
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
-      <c r="G122" s="6" t="s">
-        <v>223</v>
-      </c>
+      <c r="G122" s="6"/>
       <c r="H122" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>228</v>
+        <v>135</v>
       </c>
       <c r="J122" s="6" t="s">
         <v>12</v>
@@ -5706,7 +4883,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="43.2">
@@ -5717,28 +4894,26 @@
         <v>44998</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
-      <c r="G123" s="6" t="s">
-        <v>229</v>
-      </c>
+      <c r="G123" s="6"/>
       <c r="H123" s="6" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K123" s="8">
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="L123" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="187.2">
@@ -5749,28 +4924,26 @@
         <v>44998</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
-      <c r="G124" s="6" t="s">
-        <v>230</v>
-      </c>
+      <c r="G124" s="6"/>
       <c r="H124" s="6" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>231</v>
+        <v>136</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K124" s="7">
         <v>0.29375000000000001</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="409.6">
@@ -5781,28 +4954,26 @@
         <v>44998</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
-      <c r="G125" s="6" t="s">
-        <v>232</v>
-      </c>
+      <c r="G125" s="6"/>
       <c r="H125" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>233</v>
+        <v>137</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K125" s="20">
         <v>0.43263888888888885</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="409.6">
@@ -5813,28 +4984,26 @@
         <v>44998</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
-      <c r="G126" s="6" t="s">
-        <v>234</v>
-      </c>
+      <c r="G126" s="6"/>
       <c r="H126" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>235</v>
+        <v>138</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K126" s="8">
         <v>0.16041666666666668</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="409.6">
@@ -5850,14 +5019,12 @@
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
-      <c r="G127" s="6" t="s">
-        <v>236</v>
-      </c>
+      <c r="G127" s="6"/>
       <c r="H127" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>237</v>
+        <v>139</v>
       </c>
       <c r="J127" s="6" t="s">
         <v>12</v>
@@ -5866,7 +5033,7 @@
         <v>0.24722222222222223</v>
       </c>
       <c r="L127" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="28.8">
@@ -5877,22 +5044,20 @@
         <v>44999</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
-      <c r="G128" s="6" t="s">
-        <v>238</v>
-      </c>
+      <c r="G128" s="6"/>
       <c r="H128" s="6" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K128" s="8"/>
       <c r="L128" s="4"/>
@@ -5905,28 +5070,26 @@
         <v>44999</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
       <c r="F129" s="14"/>
-      <c r="G129" s="6" t="s">
-        <v>239</v>
-      </c>
+      <c r="G129" s="6"/>
       <c r="H129" s="15" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K129" s="8">
         <v>6.3194444444444442E-2</v>
       </c>
       <c r="L129" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="28.8">
@@ -5942,14 +5105,12 @@
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="21"/>
-      <c r="G130" s="6" t="s">
-        <v>241</v>
-      </c>
+      <c r="G130" s="6"/>
       <c r="H130" s="22" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="J130" s="4" t="s">
         <v>12</v>
@@ -5958,7 +5119,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="28.8">
@@ -5969,28 +5130,26 @@
         <v>44999</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="21"/>
-      <c r="G131" s="6" t="s">
-        <v>242</v>
-      </c>
+      <c r="G131" s="6"/>
       <c r="H131" s="22" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K131" s="7">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="43.2">
@@ -6001,28 +5160,26 @@
         <v>44999</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
-      <c r="G132" s="6" t="s">
-        <v>243</v>
-      </c>
+      <c r="G132" s="6"/>
       <c r="H132" s="4" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K132" s="7">
         <v>2.013888888888889E-2</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="172.8">
@@ -6033,28 +5190,26 @@
         <v>44999</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
-      <c r="G133" s="23" t="s">
-        <v>92</v>
-      </c>
+      <c r="G133" s="23"/>
       <c r="H133" s="4" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>244</v>
+        <v>141</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K133" s="7">
         <v>0.24861111111111112</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="115.2">
@@ -6065,28 +5220,26 @@
         <v>44999</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>245</v>
+        <v>142</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
-      <c r="G134" s="23" t="s">
-        <v>246</v>
-      </c>
+      <c r="G134" s="23"/>
       <c r="H134" s="4" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>247</v>
+        <v>143</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K134" s="7">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="L134" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="409.6">
@@ -6102,14 +5255,12 @@
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
-      <c r="G135" s="23" t="s">
-        <v>248</v>
-      </c>
+      <c r="G135" s="23"/>
       <c r="H135" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>249</v>
+        <v>144</v>
       </c>
       <c r="J135" s="4" t="s">
         <v>12</v>
@@ -6118,7 +5269,7 @@
         <v>0.41805555555555557</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="409.6">
@@ -6129,28 +5280,26 @@
         <v>45000</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
-      <c r="G136" s="23" t="s">
-        <v>250</v>
-      </c>
+      <c r="G136" s="23"/>
       <c r="H136" s="4" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>251</v>
+        <v>145</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K136" s="7">
         <v>0.21875</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6161,28 +5310,26 @@
         <v>45000</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
-      <c r="G137" s="23" t="s">
-        <v>252</v>
-      </c>
+      <c r="G137" s="23"/>
       <c r="H137" s="4" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K137" s="7">
         <v>1.9444444444444445E-2</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="360">
@@ -6193,28 +5340,26 @@
         <v>45000</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
-      <c r="G138" s="23" t="s">
-        <v>253</v>
-      </c>
+      <c r="G138" s="23"/>
       <c r="H138" s="6" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>254</v>
+        <v>146</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K138" s="8">
         <v>0.13402777777777777</v>
       </c>
       <c r="L138" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="144">
@@ -6225,28 +5370,26 @@
         <v>45000</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
-      <c r="G139" s="6" t="s">
-        <v>255</v>
-      </c>
+      <c r="G139" s="6"/>
       <c r="H139" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K139" s="8">
         <v>0.1076388888888889</v>
       </c>
       <c r="L139" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="216">
@@ -6257,28 +5400,26 @@
         <v>45000</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
-      <c r="G140" s="6" t="s">
-        <v>257</v>
-      </c>
+      <c r="G140" s="6"/>
       <c r="H140" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>258</v>
+        <v>148</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K140" s="8">
         <v>0.13819444444444443</v>
       </c>
       <c r="L140" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="409.6">
@@ -6289,22 +5430,20 @@
         <v>45000</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D141" s="6"/>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
-      <c r="G141" s="6" t="s">
-        <v>259</v>
-      </c>
+      <c r="G141" s="6"/>
       <c r="H141" s="6" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>260</v>
+        <v>149</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K141" s="8">
         <v>0.15277777777777776</v>
@@ -6327,7 +5466,7 @@
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
       <c r="I142" s="6" t="s">
-        <v>261</v>
+        <v>150</v>
       </c>
       <c r="J142" s="6" t="s">
         <v>12</v>
@@ -6343,28 +5482,26 @@
         <v>45000</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
-      <c r="G143" s="6" t="s">
-        <v>262</v>
-      </c>
+      <c r="G143" s="6"/>
       <c r="H143" s="6" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>263</v>
+        <v>151</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K143" s="8">
         <v>1.4583333333333332E-2</v>
       </c>
       <c r="L143" s="6" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="360">
@@ -6380,14 +5517,12 @@
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
-      <c r="G144" s="6" t="s">
-        <v>264</v>
-      </c>
+      <c r="G144" s="6"/>
       <c r="H144" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>265</v>
+        <v>152</v>
       </c>
       <c r="J144" s="6" t="s">
         <v>12</v>
@@ -6396,7 +5531,7 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="L144" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="409.6">
@@ -6407,28 +5542,26 @@
         <v>45001</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
-      <c r="G145" s="6" t="s">
-        <v>266</v>
-      </c>
+      <c r="G145" s="6"/>
       <c r="H145" s="6" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>267</v>
+        <v>153</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K145" s="8">
         <v>0.25972222222222224</v>
       </c>
       <c r="L145" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="288">
@@ -6439,28 +5572,26 @@
         <v>45001</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
-      <c r="G146" s="6" t="s">
-        <v>159</v>
-      </c>
+      <c r="G146" s="6"/>
       <c r="H146" s="6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>268</v>
+        <v>154</v>
       </c>
       <c r="J146" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K146" s="8">
         <v>3.9583333333333331E-2</v>
       </c>
       <c r="L146" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="172.8">
@@ -6471,22 +5602,22 @@
         <v>45002</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4" t="s">
-        <v>269</v>
+        <v>155</v>
       </c>
       <c r="F147" s="4"/>
       <c r="G147" s="6"/>
       <c r="H147" s="4" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K147" s="7"/>
       <c r="L147" s="4"/>
@@ -6504,14 +5635,12 @@
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
-      <c r="G148" s="6" t="s">
-        <v>271</v>
-      </c>
+      <c r="G148" s="6"/>
       <c r="H148" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>272</v>
+        <v>157</v>
       </c>
       <c r="J148" s="6" t="s">
         <v>12</v>
@@ -6520,7 +5649,7 @@
         <v>0.55138888888888882</v>
       </c>
       <c r="L148" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="28.8">
@@ -6531,28 +5660,26 @@
         <v>45002</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
-      <c r="G149" s="6" t="s">
-        <v>273</v>
-      </c>
+      <c r="G149" s="6"/>
       <c r="H149" s="6" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K149" s="8">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="L149" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="144">
@@ -6563,28 +5690,25 @@
         <v>45002</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
-      <c r="G150" t="s">
-        <v>274</v>
-      </c>
       <c r="H150" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>275</v>
+        <v>158</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K150" s="8">
         <v>2.9861111111111113E-2</v>
       </c>
       <c r="L150" s="6" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="28.8">
@@ -6595,28 +5719,25 @@
         <v>45002</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
-      <c r="G151" t="s">
-        <v>276</v>
-      </c>
       <c r="H151" s="6" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="J151" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K151" s="8">
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="374.4">
@@ -6627,28 +5748,25 @@
         <v>45002</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
-      <c r="G152" t="s">
-        <v>277</v>
-      </c>
       <c r="H152" s="4" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>278</v>
+        <v>159</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K152" s="7">
         <v>0.43611111111111112</v>
       </c>
       <c r="L152" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="100.8">
@@ -6659,28 +5777,26 @@
         <v>45002</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
-      <c r="G153" s="4" t="s">
-        <v>279</v>
-      </c>
+      <c r="G153" s="4"/>
       <c r="H153" s="4" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K153" s="7">
         <v>1.3194444444444444E-2</v>
       </c>
       <c r="L153" s="4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="409.6">
@@ -6696,14 +5812,12 @@
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
-      <c r="G154" s="4" t="s">
-        <v>279</v>
-      </c>
+      <c r="G154" s="4"/>
       <c r="H154" s="6" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="I154" s="6" t="s">
-        <v>281</v>
+        <v>161</v>
       </c>
       <c r="J154" s="6" t="s">
         <v>12</v>
@@ -6712,7 +5826,7 @@
         <v>0.13055555555555556</v>
       </c>
       <c r="L154" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="115.2">
@@ -6723,28 +5837,26 @@
         <v>45005</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
-      <c r="G155" s="4" t="s">
-        <v>282</v>
-      </c>
+      <c r="G155" s="4"/>
       <c r="H155" s="4" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>283</v>
+        <v>162</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K155" s="7">
         <v>0.17569444444444446</v>
       </c>
       <c r="L155" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="216">
@@ -6755,28 +5867,26 @@
         <v>45005</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
-      <c r="G156" s="4" t="s">
-        <v>284</v>
-      </c>
+      <c r="G156" s="4"/>
       <c r="H156" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>285</v>
+        <v>163</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K156" s="7">
         <v>4.027777777777778E-2</v>
       </c>
       <c r="L156" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="409.6">
@@ -6792,14 +5902,12 @@
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
-      <c r="G157" s="4" t="s">
-        <v>286</v>
-      </c>
+      <c r="G157" s="4"/>
       <c r="H157" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I157" s="6" t="s">
-        <v>287</v>
+        <v>164</v>
       </c>
       <c r="J157" s="6" t="s">
         <v>12</v>
@@ -6808,7 +5916,7 @@
         <v>0.28611111111111115</v>
       </c>
       <c r="L157" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="409.6">
@@ -6824,14 +5932,12 @@
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
-      <c r="G158" s="4" t="s">
-        <v>286</v>
-      </c>
+      <c r="G158" s="4"/>
       <c r="H158" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I158" s="6" t="s">
-        <v>288</v>
+        <v>165</v>
       </c>
       <c r="J158" s="6" t="s">
         <v>12</v>
@@ -6847,28 +5953,26 @@
         <v>45005</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
-      <c r="G159" s="4" t="s">
-        <v>289</v>
-      </c>
+      <c r="G159" s="4"/>
       <c r="H159" s="6" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I159" s="6" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="J159" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K159" s="8">
         <v>1.5277777777777777E-2</v>
       </c>
       <c r="L159" s="6" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="409.6">
@@ -6884,14 +5988,12 @@
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
-      <c r="G160" s="6" t="s">
-        <v>290</v>
-      </c>
+      <c r="G160" s="6"/>
       <c r="H160" s="6" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I160" s="6" t="s">
-        <v>291</v>
+        <v>166</v>
       </c>
       <c r="J160" s="6" t="s">
         <v>12</v>
@@ -6900,7 +6002,7 @@
         <v>0.33402777777777781</v>
       </c>
       <c r="L160" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="273.60000000000002">
@@ -6911,28 +6013,26 @@
         <v>45005</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
-      <c r="G161" s="6" t="s">
-        <v>292</v>
-      </c>
+      <c r="G161" s="6"/>
       <c r="H161" s="6" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="I161" s="6" t="s">
-        <v>293</v>
+        <v>167</v>
       </c>
       <c r="J161" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K161" s="8">
         <v>0.27083333333333331</v>
       </c>
       <c r="L161" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -6950,7 +6050,7 @@
       <c r="H162" s="6"/>
       <c r="I162" s="6"/>
       <c r="J162" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K162" s="8"/>
       <c r="L162" s="4"/>
@@ -6963,28 +6063,26 @@
         <v>45006</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
-      <c r="G163" s="6" t="s">
-        <v>294</v>
-      </c>
+      <c r="G163" s="6"/>
       <c r="H163" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I163" s="6" t="s">
-        <v>295</v>
+        <v>168</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K163" s="8">
         <v>0.1013888888888889</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="409.6">
@@ -7000,14 +6098,12 @@
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
-      <c r="G164" s="6" t="s">
-        <v>296</v>
-      </c>
+      <c r="G164" s="6"/>
       <c r="H164" s="6" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I164" s="6" t="s">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="J164" s="6" t="s">
         <v>12</v>
@@ -7016,7 +6112,7 @@
         <v>0.2590277777777778</v>
       </c>
       <c r="L164" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="288">
@@ -7027,28 +6123,26 @@
         <v>45006</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
-      <c r="G165" s="6" t="s">
-        <v>298</v>
-      </c>
+      <c r="G165" s="6"/>
       <c r="H165" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I165" s="6" t="s">
-        <v>299</v>
+        <v>170</v>
       </c>
       <c r="J165" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K165" s="8">
         <v>0.25347222222222221</v>
       </c>
       <c r="L165" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="187.2">
@@ -7059,28 +6153,26 @@
         <v>45006</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
-      <c r="G166" s="6" t="s">
-        <v>300</v>
-      </c>
+      <c r="G166" s="6"/>
       <c r="H166" s="6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>301</v>
+        <v>171</v>
       </c>
       <c r="J166" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K166" s="8">
         <v>0.1076388888888889</v>
       </c>
       <c r="L166" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="409.6">
@@ -7091,28 +6183,26 @@
         <v>45006</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
-      <c r="G167" s="6" t="s">
-        <v>302</v>
-      </c>
+      <c r="G167" s="6"/>
       <c r="H167" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>303</v>
+        <v>172</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K167" s="8">
         <v>0.23819444444444446</v>
       </c>
       <c r="L167" s="4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="288">
@@ -7123,28 +6213,26 @@
         <v>45006</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
-      <c r="G168" s="6" t="s">
-        <v>304</v>
-      </c>
+      <c r="G168" s="6"/>
       <c r="H168" s="6" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>305</v>
+        <v>173</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K168" s="7">
         <v>0.16180555555555556</v>
       </c>
       <c r="L168" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="409.6">
@@ -7155,22 +6243,20 @@
         <v>45006</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
-      <c r="G169" s="6" t="s">
-        <v>306</v>
-      </c>
+      <c r="G169" s="6"/>
       <c r="H169" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I169" s="6" t="s">
-        <v>307</v>
+        <v>174</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K169" s="7">
         <v>0.15625</v>
@@ -7185,28 +6271,26 @@
         <v>45006</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
-      <c r="G170" s="6" t="s">
-        <v>308</v>
-      </c>
+      <c r="G170" s="6"/>
       <c r="H170" s="6" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K170" s="8">
         <v>2.361111111111111E-2</v>
       </c>
       <c r="L170" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="409.6">
@@ -7218,18 +6302,16 @@
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="6" t="s">
-        <v>309</v>
+        <v>175</v>
       </c>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
-      <c r="G171" s="6" t="s">
-        <v>310</v>
-      </c>
+      <c r="G171" s="6"/>
       <c r="H171" s="6" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I171" s="6" t="s">
-        <v>311</v>
+        <v>176</v>
       </c>
       <c r="J171" s="6" t="s">
         <v>12</v>
@@ -7245,28 +6327,26 @@
         <v>45006</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
-      <c r="G172" s="6" t="s">
-        <v>312</v>
-      </c>
+      <c r="G172" s="6"/>
       <c r="H172" s="6" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>313</v>
+        <v>177</v>
       </c>
       <c r="J172" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K172" s="8">
         <v>6.458333333333334E-2</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="374.4">
@@ -7277,26 +6357,24 @@
         <v>45006</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
-      <c r="G173" s="6" t="s">
-        <v>312</v>
-      </c>
+      <c r="G173" s="6"/>
       <c r="H173" s="6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>314</v>
+        <v>178</v>
       </c>
       <c r="J173" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K173" s="8"/>
       <c r="L173" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="259.2">
@@ -7307,28 +6385,26 @@
         <v>45006</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
-      <c r="G174" s="6" t="s">
-        <v>315</v>
-      </c>
+      <c r="G174" s="6"/>
       <c r="H174" s="6" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>316</v>
+        <v>179</v>
       </c>
       <c r="J174" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K174" s="8">
         <v>0.10486111111111111</v>
       </c>
       <c r="L174" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="409.6">
@@ -7344,14 +6420,12 @@
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
-      <c r="G175" s="6" t="s">
-        <v>317</v>
-      </c>
+      <c r="G175" s="6"/>
       <c r="H175" s="6" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I175" s="6" t="s">
-        <v>318</v>
+        <v>180</v>
       </c>
       <c r="J175" s="6" t="s">
         <v>12</v>
@@ -7360,7 +6434,7 @@
         <v>0.28750000000000003</v>
       </c>
       <c r="L175" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="158.4">
@@ -7371,22 +6445,20 @@
         <v>45006</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
-      <c r="G176" s="6" t="s">
-        <v>312</v>
-      </c>
+      <c r="G176" s="6"/>
       <c r="H176" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I176" s="6" t="s">
-        <v>319</v>
+        <v>181</v>
       </c>
       <c r="J176" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K176" s="8"/>
       <c r="L176" s="6"/>
@@ -7399,22 +6471,20 @@
         <v>45006</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
-      <c r="G177" s="6" t="s">
-        <v>320</v>
-      </c>
+      <c r="G177" s="6"/>
       <c r="H177" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>321</v>
+        <v>182</v>
       </c>
       <c r="J177" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K177" s="8">
         <v>0.10694444444444444</v>
@@ -7429,22 +6499,20 @@
         <v>45006</v>
       </c>
       <c r="C178" s="24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D178" s="24"/>
       <c r="E178" s="24"/>
       <c r="F178" s="24"/>
-      <c r="G178" s="6" t="s">
-        <v>322</v>
-      </c>
+      <c r="G178" s="6"/>
       <c r="H178" s="24" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I178" s="24" t="s">
-        <v>323</v>
+        <v>183</v>
       </c>
       <c r="J178" s="24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K178" s="25">
         <v>0.20208333333333331</v>
@@ -7459,28 +6527,26 @@
         <v>45006</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
-      <c r="G179" s="6" t="s">
-        <v>324</v>
-      </c>
+      <c r="G179" s="6"/>
       <c r="H179" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I179" s="6" t="s">
-        <v>325</v>
+        <v>184</v>
       </c>
       <c r="J179" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K179" s="8">
         <v>0.13402777777777777</v>
       </c>
       <c r="L179" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="409.6">
@@ -7491,22 +6557,20 @@
         <v>45006</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
-      <c r="G180" s="4" t="s">
-        <v>326</v>
-      </c>
+      <c r="G180" s="4"/>
       <c r="H180" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I180" s="6" t="s">
-        <v>327</v>
+        <v>185</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K180" s="7">
         <v>0.42777777777777781</v>
@@ -7521,28 +6585,26 @@
         <v>45007</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
-      <c r="G181" s="6" t="s">
-        <v>328</v>
-      </c>
+      <c r="G181" s="6"/>
       <c r="H181" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I181" s="6" t="s">
-        <v>329</v>
+        <v>186</v>
       </c>
       <c r="J181" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K181" s="8">
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="L181" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="409.6">
@@ -7558,14 +6620,12 @@
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
-      <c r="G182" s="4" t="s">
-        <v>330</v>
-      </c>
+      <c r="G182" s="4"/>
       <c r="H182" s="4" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I182" s="6" t="s">
-        <v>331</v>
+        <v>187</v>
       </c>
       <c r="J182" s="4" t="s">
         <v>12</v>
@@ -7574,7 +6634,7 @@
         <v>0.30763888888888891</v>
       </c>
       <c r="L182" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -7592,7 +6652,7 @@
       <c r="H183" s="6"/>
       <c r="I183" s="6"/>
       <c r="J183" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K183" s="8"/>
       <c r="L183" s="6"/>
@@ -7605,28 +6665,26 @@
         <v>45007</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
-      <c r="G184" s="4" t="s">
-        <v>332</v>
-      </c>
+      <c r="G184" s="4"/>
       <c r="H184" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I184" s="6" t="s">
-        <v>333</v>
+        <v>188</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K184" s="7">
         <v>0.21388888888888891</v>
       </c>
       <c r="L184" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="409.6">
@@ -7637,28 +6695,26 @@
         <v>45007</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
-      <c r="G185" s="4" t="s">
-        <v>334</v>
-      </c>
+      <c r="G185" s="4"/>
       <c r="H185" s="4" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I185" s="6" t="s">
-        <v>335</v>
+        <v>189</v>
       </c>
       <c r="J185" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K185" s="7">
         <v>0.19236111111111112</v>
       </c>
       <c r="L185" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="288">
@@ -7672,23 +6728,21 @@
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
-      <c r="G186" s="4" t="s">
-        <v>336</v>
-      </c>
+      <c r="G186" s="4"/>
       <c r="H186" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I186" s="6" t="s">
-        <v>337</v>
+        <v>190</v>
       </c>
       <c r="J186" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K186" s="8">
         <v>0.24027777777777778</v>
       </c>
       <c r="L186" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="331.2">
@@ -7704,14 +6758,12 @@
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
-      <c r="G187" s="4" t="s">
-        <v>338</v>
-      </c>
+      <c r="G187" s="4"/>
       <c r="H187" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I187" s="6" t="s">
-        <v>339</v>
+        <v>191</v>
       </c>
       <c r="J187" s="4" t="s">
         <v>12</v>
@@ -7720,7 +6772,7 @@
         <v>0.23611111111111113</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="403.2">
@@ -7731,28 +6783,26 @@
         <v>45007</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
-      <c r="G188" s="4" t="s">
-        <v>300</v>
-      </c>
+      <c r="G188" s="4"/>
       <c r="H188" s="4" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I188" s="6" t="s">
-        <v>340</v>
+        <v>192</v>
       </c>
       <c r="J188" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K188" s="7">
         <v>0.15902777777777777</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="144">
@@ -7763,28 +6813,26 @@
         <v>45007</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
-      <c r="G189" s="4" t="s">
-        <v>212</v>
-      </c>
+      <c r="G189" s="4"/>
       <c r="H189" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I189" s="6" t="s">
-        <v>341</v>
+        <v>193</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K189" s="7">
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="L189" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="409.6">
@@ -7795,28 +6843,26 @@
         <v>45007</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
-      <c r="G190" s="4" t="s">
-        <v>342</v>
-      </c>
+      <c r="G190" s="4"/>
       <c r="H190" s="4" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I190" s="6" t="s">
-        <v>343</v>
+        <v>194</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K190" s="7">
         <v>0.29097222222222224</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="409.6">
@@ -7827,22 +6873,20 @@
         <v>45007</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
-      <c r="G191" s="4" t="s">
-        <v>342</v>
-      </c>
+      <c r="G191" s="4"/>
       <c r="H191" s="6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I191" s="6" t="s">
-        <v>344</v>
+        <v>195</v>
       </c>
       <c r="J191" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K191" s="8"/>
       <c r="L191" s="6"/>
@@ -7858,14 +6902,12 @@
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
-      <c r="G192" s="6" t="s">
-        <v>345</v>
-      </c>
+      <c r="G192" s="6"/>
       <c r="H192" s="6" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="I192" s="6" t="s">
-        <v>346</v>
+        <v>196</v>
       </c>
       <c r="J192" s="4" t="s">
         <v>12</v>
@@ -7874,7 +6916,7 @@
         <v>0.13472222222222222</v>
       </c>
       <c r="L192" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193" spans="1:12" ht="409.6">
@@ -7883,28 +6925,26 @@
         <v>45007</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
-      <c r="G193" s="6" t="s">
-        <v>347</v>
-      </c>
+      <c r="G193" s="6"/>
       <c r="H193" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I193" s="6" t="s">
-        <v>348</v>
+        <v>197</v>
       </c>
       <c r="J193" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K193" s="8">
         <v>0.56597222222222221</v>
       </c>
       <c r="L193" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194" spans="1:12" ht="316.8">
@@ -7918,14 +6958,12 @@
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
-      <c r="G194" s="4" t="s">
-        <v>349</v>
-      </c>
+      <c r="G194" s="4"/>
       <c r="H194" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I194" s="6" t="s">
-        <v>350</v>
+        <v>198</v>
       </c>
       <c r="J194" s="4" t="s">
         <v>12</v>
@@ -7934,7 +6972,7 @@
         <v>0.20625000000000002</v>
       </c>
       <c r="L194" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="195" spans="1:12" ht="115.2">
@@ -7943,28 +6981,26 @@
         <v>45008</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
-      <c r="G195" s="6" t="s">
-        <v>351</v>
-      </c>
+      <c r="G195" s="6"/>
       <c r="H195" s="6" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="I195" s="6" t="s">
-        <v>352</v>
+        <v>199</v>
       </c>
       <c r="J195" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K195" s="8">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="L195" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196" spans="1:12" ht="28.8">
@@ -7973,28 +7009,26 @@
         <v>45008</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
-      <c r="G196" s="6" t="s">
-        <v>353</v>
-      </c>
+      <c r="G196" s="6"/>
       <c r="H196" s="6" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I196" s="6" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="J196" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K196" s="8">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="L196" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:12" ht="273.60000000000002">
@@ -8003,28 +7037,26 @@
         <v>45008</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
-      <c r="G197" s="6" t="s">
-        <v>354</v>
-      </c>
+      <c r="G197" s="6"/>
       <c r="H197" s="6" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I197" s="6" t="s">
-        <v>355</v>
+        <v>200</v>
       </c>
       <c r="J197" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K197" s="8">
         <v>0.24791666666666667</v>
       </c>
       <c r="L197" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198" spans="1:12" ht="331.2">
@@ -8038,14 +7070,12 @@
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
-      <c r="G198" s="4" t="s">
-        <v>356</v>
-      </c>
+      <c r="G198" s="4"/>
       <c r="H198" s="4" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I198" s="6" t="s">
-        <v>357</v>
+        <v>201</v>
       </c>
       <c r="J198" s="4" t="s">
         <v>12</v>
@@ -8054,7 +7084,7 @@
         <v>0.30069444444444443</v>
       </c>
       <c r="L198" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199" spans="1:12" ht="259.2">
@@ -8063,28 +7093,26 @@
         <v>45008</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
-      <c r="G199" s="4" t="s">
-        <v>358</v>
-      </c>
+      <c r="G199" s="4"/>
       <c r="H199" s="4" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I199" s="6" t="s">
-        <v>359</v>
+        <v>202</v>
       </c>
       <c r="J199" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K199" s="7">
         <v>0.16319444444444445</v>
       </c>
       <c r="L199" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:12" ht="409.6">
@@ -8093,28 +7121,26 @@
         <v>45008</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D200" s="6"/>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
-      <c r="G200" s="4" t="s">
-        <v>360</v>
-      </c>
+      <c r="G200" s="4"/>
       <c r="H200" s="6" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I200" s="24" t="s">
-        <v>361</v>
+        <v>203</v>
       </c>
       <c r="J200" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K200" s="8">
         <v>0.2388888888888889</v>
       </c>
       <c r="L200" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201" spans="1:12" ht="259.2">
@@ -8123,22 +7149,20 @@
         <v>45008</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D201" s="6"/>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
-      <c r="G201" s="6" t="s">
-        <v>354</v>
-      </c>
+      <c r="G201" s="6"/>
       <c r="H201" s="14" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I201" s="6" t="s">
-        <v>362</v>
+        <v>204</v>
       </c>
       <c r="J201" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K201" s="8"/>
       <c r="L201" s="6"/>
@@ -8149,28 +7173,26 @@
         <v>45008</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
-      <c r="G202" s="6" t="s">
-        <v>354</v>
-      </c>
+      <c r="G202" s="6"/>
       <c r="H202" s="21" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I202" s="6" t="s">
-        <v>363</v>
+        <v>205</v>
       </c>
       <c r="J202" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K202" s="7">
         <v>0.11944444444444445</v>
       </c>
       <c r="L202" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203" spans="1:12" ht="28.8">
@@ -8184,14 +7206,12 @@
       <c r="D203" s="6"/>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
-      <c r="G203" s="6" t="s">
-        <v>364</v>
-      </c>
+      <c r="G203" s="6"/>
       <c r="H203" s="14" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I203" s="6" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="J203" s="15" t="s">
         <v>12</v>
@@ -8200,7 +7220,7 @@
         <v>2.2916666666666669E-2</v>
       </c>
       <c r="L203" s="6" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="204" spans="1:12" ht="409.6">
@@ -8209,28 +7229,26 @@
         <v>45008</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
-      <c r="G204" s="6" t="s">
-        <v>365</v>
-      </c>
+      <c r="G204" s="6"/>
       <c r="H204" s="14" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I204" s="6" t="s">
-        <v>366</v>
+        <v>206</v>
       </c>
       <c r="J204" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K204" s="8">
         <v>0.32569444444444445</v>
       </c>
       <c r="L204" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205" spans="1:12" ht="158.4">
@@ -8239,28 +7257,26 @@
         <v>45008</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
-      <c r="G205" s="6" t="s">
-        <v>367</v>
-      </c>
+      <c r="G205" s="6"/>
       <c r="H205" s="21" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I205" s="6" t="s">
-        <v>368</v>
+        <v>207</v>
       </c>
       <c r="J205" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K205" s="7">
         <v>0.1013888888888889</v>
       </c>
       <c r="L205" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206" spans="1:12" ht="144">
@@ -8269,28 +7285,26 @@
         <v>45008</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D206" s="6"/>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
-      <c r="G206" s="6" t="s">
-        <v>369</v>
-      </c>
+      <c r="G206" s="6"/>
       <c r="H206" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I206" s="26" t="s">
-        <v>370</v>
+        <v>208</v>
       </c>
       <c r="J206" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K206" s="8">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="L206" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="207" spans="1:12" ht="409.6">
@@ -8299,22 +7313,20 @@
         <v>45009</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
-      <c r="G207" s="6" t="s">
-        <v>371</v>
-      </c>
+      <c r="G207" s="6"/>
       <c r="H207" s="6" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I207" s="6" t="s">
-        <v>372</v>
+        <v>209</v>
       </c>
       <c r="J207" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K207" s="7">
         <v>0.31875000000000003</v>
@@ -8332,14 +7344,12 @@
       <c r="D208" s="6"/>
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
-      <c r="G208" s="6" t="s">
-        <v>373</v>
-      </c>
+      <c r="G208" s="6"/>
       <c r="H208" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I208" s="6" t="s">
-        <v>374</v>
+        <v>210</v>
       </c>
       <c r="J208" s="6" t="s">
         <v>12</v>
@@ -8355,28 +7365,26 @@
         <v>45009</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D209" s="6"/>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
-      <c r="G209" s="6" t="s">
-        <v>151</v>
-      </c>
+      <c r="G209" s="6"/>
       <c r="H209" s="6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I209" s="6" t="s">
-        <v>375</v>
+        <v>211</v>
       </c>
       <c r="J209" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K209" s="8">
         <v>4.3750000000000004E-2</v>
       </c>
       <c r="L209" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210" spans="1:12" ht="409.6">
@@ -8387,28 +7395,26 @@
         <v>45009</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D210" s="6"/>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
-      <c r="G210" s="6" t="s">
-        <v>376</v>
-      </c>
+      <c r="G210" s="6"/>
       <c r="H210" s="6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I210" s="6" t="s">
-        <v>377</v>
+        <v>212</v>
       </c>
       <c r="J210" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K210" s="8">
         <v>0.31805555555555554</v>
       </c>
       <c r="L210" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="211" spans="1:12" ht="374.4">
@@ -8424,14 +7430,12 @@
       <c r="D211" s="6"/>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
-      <c r="G211" s="6" t="s">
-        <v>378</v>
-      </c>
+      <c r="G211" s="6"/>
       <c r="H211" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I211" s="6" t="s">
-        <v>379</v>
+        <v>213</v>
       </c>
       <c r="J211" s="6" t="s">
         <v>12</v>
@@ -8440,7 +7444,7 @@
         <v>0.17361111111111113</v>
       </c>
       <c r="L211" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="212" spans="1:12" ht="331.2">
@@ -8451,28 +7455,26 @@
         <v>45009</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
-      <c r="G212" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="G212" s="6"/>
       <c r="H212" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I212" s="6" t="s">
-        <v>381</v>
+        <v>214</v>
       </c>
       <c r="J212" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K212" s="7">
         <v>0.2298611111111111</v>
       </c>
       <c r="L212" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213" spans="1:12" ht="273.60000000000002">
@@ -8488,14 +7490,12 @@
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
-      <c r="G213" s="6" t="s">
-        <v>382</v>
-      </c>
+      <c r="G213" s="6"/>
       <c r="H213" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I213" s="6" t="s">
-        <v>383</v>
+        <v>215</v>
       </c>
       <c r="J213" s="4" t="s">
         <v>12</v>
@@ -8504,7 +7504,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="L213" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="214" spans="1:12" ht="403.2">
@@ -8515,28 +7515,26 @@
         <v>45009</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
-      <c r="G214" s="6" t="s">
-        <v>384</v>
-      </c>
+      <c r="G214" s="6"/>
       <c r="H214" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I214" s="6" t="s">
-        <v>385</v>
+        <v>216</v>
       </c>
       <c r="J214" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K214" s="7">
         <v>0.20208333333333331</v>
       </c>
       <c r="L214" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="215" spans="1:12" ht="409.6">
@@ -8552,14 +7550,12 @@
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
-      <c r="G215" s="4" t="s">
-        <v>386</v>
-      </c>
+      <c r="G215" s="4"/>
       <c r="H215" s="4" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I215" s="6" t="s">
-        <v>387</v>
+        <v>217</v>
       </c>
       <c r="J215" s="4" t="s">
         <v>12</v>
@@ -8568,7 +7564,7 @@
         <v>0.3125</v>
       </c>
       <c r="L215" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="216" spans="1:12" ht="201.6">
@@ -8579,28 +7575,26 @@
         <v>45012</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
-      <c r="G216" s="6" t="s">
-        <v>388</v>
-      </c>
+      <c r="G216" s="6"/>
       <c r="H216" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I216" s="6" t="s">
-        <v>389</v>
+        <v>218</v>
       </c>
       <c r="J216" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K216" s="7">
         <v>0.21458333333333335</v>
       </c>
       <c r="L216" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="217" spans="1:12" ht="187.2">
@@ -8611,28 +7605,26 @@
         <v>45012</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D217" s="6"/>
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
-      <c r="G217" s="6" t="s">
-        <v>390</v>
-      </c>
+      <c r="G217" s="6"/>
       <c r="H217" s="6" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="I217" s="6" t="s">
-        <v>391</v>
+        <v>219</v>
       </c>
       <c r="J217" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K217" s="8">
         <v>0.14166666666666666</v>
       </c>
       <c r="L217" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="218" spans="1:12" ht="409.6">
@@ -8643,28 +7635,26 @@
         <v>45012</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D218" s="6"/>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
-      <c r="G218" s="6" t="s">
-        <v>232</v>
-      </c>
+      <c r="G218" s="6"/>
       <c r="H218" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I218" s="6" t="s">
-        <v>392</v>
+        <v>220</v>
       </c>
       <c r="J218" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K218" s="8">
         <v>0.29236111111111113</v>
       </c>
       <c r="L218" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="219" spans="1:12" ht="288">
@@ -8675,28 +7665,26 @@
         <v>45012</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
-      <c r="G219" s="6" t="s">
-        <v>393</v>
-      </c>
+      <c r="G219" s="6"/>
       <c r="H219" s="6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I219" s="6" t="s">
-        <v>394</v>
+        <v>221</v>
       </c>
       <c r="J219" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K219" s="7">
         <v>0.19236111111111112</v>
       </c>
       <c r="L219" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="220" spans="1:12" ht="230.4">
@@ -8707,28 +7695,26 @@
         <v>45012</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D220" s="6"/>
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
-      <c r="G220" s="6" t="s">
-        <v>395</v>
-      </c>
+      <c r="G220" s="6"/>
       <c r="H220" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I220" s="6" t="s">
-        <v>396</v>
+        <v>222</v>
       </c>
       <c r="J220" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K220" s="8">
         <v>6.0416666666666667E-2</v>
       </c>
       <c r="L220" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -8739,28 +7725,26 @@
         <v>45012</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
-      <c r="G221" s="4" t="s">
-        <v>397</v>
-      </c>
+      <c r="G221" s="4"/>
       <c r="H221" s="4" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I221" s="4" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="J221" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K221" s="7">
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="L221" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="222" spans="1:12" ht="216">
@@ -8771,28 +7755,26 @@
         <v>45012</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D222" s="6"/>
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
-      <c r="G222" s="6" t="s">
-        <v>398</v>
-      </c>
+      <c r="G222" s="6"/>
       <c r="H222" s="6" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I222" s="6" t="s">
-        <v>399</v>
+        <v>223</v>
       </c>
       <c r="J222" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K222" s="8">
         <v>0.18888888888888888</v>
       </c>
       <c r="L222" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223" spans="1:12" ht="374.4">
@@ -8803,28 +7785,26 @@
         <v>45012</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D223" s="6"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
-      <c r="G223" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="G223" s="6"/>
       <c r="H223" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I223" s="6" t="s">
-        <v>400</v>
+        <v>224</v>
       </c>
       <c r="J223" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K223" s="8">
         <v>0.1451388888888889</v>
       </c>
       <c r="L223" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -8835,28 +7815,26 @@
         <v>45012</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
-      <c r="G224" s="4" t="s">
-        <v>401</v>
-      </c>
+      <c r="G224" s="4"/>
       <c r="H224" s="4" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I224" s="4" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="J224" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K224" s="7">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="L224" s="4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="225" spans="1:12" ht="259.2">
@@ -8867,28 +7845,26 @@
         <v>45013</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D225" s="6"/>
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
-      <c r="G225" s="6" t="s">
-        <v>402</v>
-      </c>
+      <c r="G225" s="6"/>
       <c r="H225" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I225" s="6" t="s">
-        <v>403</v>
+        <v>225</v>
       </c>
       <c r="J225" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K225" s="8">
         <v>9.6527777777777768E-2</v>
       </c>
       <c r="L225" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -8899,20 +7875,20 @@
         <v>45013</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
       <c r="G226" s="4"/>
       <c r="H226" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I226" s="4" t="s">
-        <v>404</v>
+        <v>226</v>
       </c>
       <c r="J226" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K226" s="4"/>
       <c r="L226" s="4"/>
@@ -8925,28 +7901,26 @@
         <v>45013</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D227" s="6"/>
       <c r="E227" s="6"/>
       <c r="F227" s="6"/>
-      <c r="G227" s="6" t="s">
-        <v>282</v>
-      </c>
+      <c r="G227" s="6"/>
       <c r="H227" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I227" s="6" t="s">
-        <v>405</v>
+        <v>227</v>
       </c>
       <c r="J227" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K227" s="8">
         <v>0.32708333333333334</v>
       </c>
       <c r="L227" s="6" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="228" spans="1:12" ht="409.6">
@@ -8957,28 +7931,26 @@
         <v>45013</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
-      <c r="G228" s="6" t="s">
-        <v>282</v>
-      </c>
+      <c r="G228" s="6"/>
       <c r="H228" s="4" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I228" s="6" t="s">
-        <v>406</v>
+        <v>228</v>
       </c>
       <c r="J228" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K228" s="7">
         <v>0.4368055555555555</v>
       </c>
       <c r="L228" s="4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="229" spans="1:12" ht="216">
@@ -8989,28 +7961,26 @@
         <v>45013</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D229" s="6"/>
       <c r="E229" s="6"/>
       <c r="F229" s="6"/>
-      <c r="G229" s="6" t="s">
-        <v>324</v>
-      </c>
+      <c r="G229" s="6"/>
       <c r="H229" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I229" s="6" t="s">
-        <v>407</v>
+        <v>229</v>
       </c>
       <c r="J229" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K229" s="8">
         <v>0.1277777777777778</v>
       </c>
       <c r="L229" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="230" spans="1:12" ht="409.6">
@@ -9021,28 +7991,26 @@
         <v>45013</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D230" s="6"/>
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
-      <c r="G230" s="6" t="s">
-        <v>324</v>
-      </c>
+      <c r="G230" s="6"/>
       <c r="H230" s="6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I230" s="6" t="s">
-        <v>408</v>
+        <v>230</v>
       </c>
       <c r="J230" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K230" s="8">
         <v>0.22569444444444445</v>
       </c>
       <c r="L230" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="231" spans="1:12" ht="316.8">
@@ -9058,14 +8026,12 @@
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
-      <c r="G231" s="4" t="s">
-        <v>409</v>
-      </c>
+      <c r="G231" s="4"/>
       <c r="H231" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I231" s="6" t="s">
-        <v>410</v>
+        <v>231</v>
       </c>
       <c r="J231" s="4" t="s">
         <v>12</v>
@@ -9074,7 +8040,7 @@
         <v>0.13125000000000001</v>
       </c>
       <c r="L231" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="232" spans="1:12" ht="201.6">
@@ -9085,28 +8051,26 @@
         <v>45013</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D232" s="6"/>
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
-      <c r="G232" s="6" t="s">
-        <v>411</v>
-      </c>
+      <c r="G232" s="6"/>
       <c r="H232" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I232" s="6" t="s">
-        <v>412</v>
+        <v>232</v>
       </c>
       <c r="J232" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K232" s="8">
         <v>9.7222222222222224E-2</v>
       </c>
       <c r="L232" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233" spans="1:12" ht="409.6">
@@ -9117,28 +8081,26 @@
         <v>45013</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D233" s="6"/>
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
-      <c r="G233" s="24" t="s">
-        <v>413</v>
-      </c>
+      <c r="G233" s="24"/>
       <c r="H233" s="6" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I233" s="6" t="s">
-        <v>414</v>
+        <v>233</v>
       </c>
       <c r="J233" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K233" s="8">
         <v>0.28125</v>
       </c>
       <c r="L233" s="6" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="234" spans="1:12" ht="409.6">
@@ -9154,14 +8116,12 @@
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
       <c r="F234" s="21"/>
-      <c r="G234" s="27" t="s">
-        <v>415</v>
-      </c>
+      <c r="G234" s="27"/>
       <c r="H234" s="22" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I234" s="6" t="s">
-        <v>416</v>
+        <v>234</v>
       </c>
       <c r="J234" s="4" t="s">
         <v>12</v>
@@ -9177,28 +8137,26 @@
         <v>45013</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D235" s="6"/>
       <c r="E235" s="6"/>
       <c r="F235" s="14"/>
-      <c r="G235" s="24" t="s">
-        <v>417</v>
-      </c>
+      <c r="G235" s="24"/>
       <c r="H235" s="15" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I235" s="6" t="s">
-        <v>418</v>
+        <v>235</v>
       </c>
       <c r="J235" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K235" s="8">
         <v>9.2361111111111116E-2</v>
       </c>
       <c r="L235" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="236" spans="1:12" ht="216">
@@ -9209,28 +8167,26 @@
         <v>45013</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D236" s="6"/>
       <c r="E236" s="6"/>
       <c r="F236" s="14"/>
-      <c r="G236" s="6" t="s">
-        <v>419</v>
-      </c>
+      <c r="G236" s="6"/>
       <c r="H236" s="15" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>420</v>
+        <v>236</v>
       </c>
       <c r="J236" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K236" s="8">
         <v>0.1423611111111111</v>
       </c>
       <c r="L236" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="237" spans="1:12" ht="187.2">
@@ -9241,28 +8197,26 @@
         <v>45014</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D237" s="6"/>
       <c r="E237" s="6"/>
       <c r="F237" s="14"/>
-      <c r="G237" s="6" t="s">
-        <v>421</v>
-      </c>
+      <c r="G237" s="6"/>
       <c r="H237" s="15" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I237" s="6" t="s">
-        <v>422</v>
+        <v>237</v>
       </c>
       <c r="J237" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K237" s="8">
         <v>7.3611111111111113E-2</v>
       </c>
       <c r="L237" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="238" spans="1:12" ht="409.6">
@@ -9278,14 +8232,12 @@
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
       <c r="F238" s="21"/>
-      <c r="G238" s="6" t="s">
-        <v>423</v>
-      </c>
+      <c r="G238" s="6"/>
       <c r="H238" s="22" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I238" s="6" t="s">
-        <v>424</v>
+        <v>238</v>
       </c>
       <c r="J238" s="4" t="s">
         <v>12</v>
@@ -9294,7 +8246,7 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="L238" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239" spans="1:12" ht="187.2">
@@ -9305,28 +8257,26 @@
         <v>45014</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D239" s="6"/>
       <c r="E239" s="6"/>
       <c r="F239" s="14"/>
-      <c r="G239" s="6" t="s">
-        <v>425</v>
-      </c>
+      <c r="G239" s="6"/>
       <c r="H239" s="15" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I239" s="6" t="s">
-        <v>426</v>
+        <v>239</v>
       </c>
       <c r="J239" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K239" s="8">
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="L239" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="240" spans="1:12" ht="158.4">
@@ -9337,20 +8287,20 @@
         <v>45014</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D240" s="6"/>
       <c r="E240" s="6"/>
       <c r="F240" s="14"/>
       <c r="G240" s="28"/>
       <c r="H240" s="15" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I240" s="6" t="s">
-        <v>427</v>
+        <v>240</v>
       </c>
       <c r="J240" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K240" s="6"/>
       <c r="L240" s="6"/>
@@ -9363,28 +8313,26 @@
         <v>45014</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D241" s="6"/>
       <c r="E241" s="6"/>
       <c r="F241" s="14"/>
-      <c r="G241" s="6" t="s">
-        <v>428</v>
-      </c>
+      <c r="G241" s="6"/>
       <c r="H241" s="15" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>429</v>
+        <v>241</v>
       </c>
       <c r="J241" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K241" s="8">
         <v>0.10972222222222222</v>
       </c>
       <c r="L241" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242" spans="1:12" ht="115.2">
@@ -9395,28 +8343,26 @@
         <v>45014</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D242" s="6"/>
       <c r="E242" s="6"/>
       <c r="F242" s="14"/>
-      <c r="G242" s="6" t="s">
-        <v>430</v>
-      </c>
+      <c r="G242" s="6"/>
       <c r="H242" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I242" s="6" t="s">
-        <v>431</v>
+        <v>242</v>
       </c>
       <c r="J242" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K242" s="8">
         <v>0.10972222222222222</v>
       </c>
       <c r="L242" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -9427,28 +8373,26 @@
         <v>45014</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
       <c r="F243" s="21"/>
-      <c r="G243" s="29" t="s">
-        <v>432</v>
-      </c>
+      <c r="G243" s="29"/>
       <c r="H243" s="22" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I243" s="4" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="J243" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K243" s="7">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="L243" s="4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="244" spans="1:12" ht="374.4">
@@ -9459,28 +8403,26 @@
         <v>45014</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D244" s="6"/>
       <c r="E244" s="6"/>
       <c r="F244" s="14"/>
-      <c r="G244" s="6" t="s">
-        <v>433</v>
-      </c>
+      <c r="G244" s="6"/>
       <c r="H244" s="15" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I244" s="6" t="s">
-        <v>434</v>
+        <v>243</v>
       </c>
       <c r="J244" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K244" s="8">
         <v>0.13333333333333333</v>
       </c>
       <c r="L244" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="245" spans="1:12" ht="409.6">
@@ -9496,14 +8438,12 @@
       <c r="D245" s="6"/>
       <c r="E245" s="6"/>
       <c r="F245" s="14"/>
-      <c r="G245" s="26" t="s">
-        <v>435</v>
-      </c>
+      <c r="G245" s="26"/>
       <c r="H245" s="15" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I245" s="6" t="s">
-        <v>436</v>
+        <v>244</v>
       </c>
       <c r="J245" s="6" t="s">
         <v>12</v>
@@ -9512,7 +8452,7 @@
         <v>0.41805555555555557</v>
       </c>
       <c r="L245" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="246" spans="1:12" ht="409.6">
@@ -9523,28 +8463,26 @@
         <v>45014</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D246" s="6"/>
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
-      <c r="G246" s="26" t="s">
-        <v>437</v>
-      </c>
+      <c r="G246" s="26"/>
       <c r="H246" s="6" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I246" s="6" t="s">
-        <v>438</v>
+        <v>245</v>
       </c>
       <c r="J246" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K246" s="8">
         <v>0.23124999999999998</v>
       </c>
       <c r="L246" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -9555,28 +8493,26 @@
         <v>45015</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
-      <c r="G247" s="4" t="s">
-        <v>439</v>
-      </c>
+      <c r="G247" s="4"/>
       <c r="H247" s="4" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I247" s="4" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="J247" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K247" s="7">
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="L247" s="4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="248" spans="1:12" ht="172.8">
@@ -9587,28 +8523,26 @@
         <v>45015</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D248" s="6"/>
       <c r="E248" s="6"/>
       <c r="F248" s="6"/>
-      <c r="G248" s="6" t="s">
-        <v>440</v>
-      </c>
+      <c r="G248" s="6"/>
       <c r="H248" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I248" s="6" t="s">
-        <v>441</v>
+        <v>246</v>
       </c>
       <c r="J248" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K248" s="8">
         <v>8.4722222222222213E-2</v>
       </c>
       <c r="L248" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249" spans="1:12" ht="230.4">
@@ -9619,31 +8553,29 @@
         <v>45015</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D249" s="6"/>
       <c r="E249" s="6"/>
       <c r="F249" s="6"/>
-      <c r="G249" s="6" t="s">
-        <v>322</v>
-      </c>
+      <c r="G249" s="6"/>
       <c r="H249" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I249" s="6" t="s">
-        <v>442</v>
+        <v>247</v>
       </c>
       <c r="J249" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K249" s="8">
         <v>0.3354166666666667</v>
       </c>
       <c r="L249" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="250" spans="1:12" ht="28.8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12">
       <c r="A250" s="4">
         <v>251</v>
       </c>
@@ -9651,31 +8583,29 @@
         <v>45015</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
-      <c r="G250" s="6" t="s">
-        <v>443</v>
-      </c>
+      <c r="G250" s="6"/>
       <c r="H250" s="4" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I250" s="4" t="s">
-        <v>263</v>
+        <v>151</v>
       </c>
       <c r="J250" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K250" s="7">
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="L250" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="251" spans="1:12" ht="28.8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12">
       <c r="A251" s="4">
         <v>252</v>
       </c>
@@ -9686,23 +8616,21 @@
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
       <c r="F251" s="4"/>
-      <c r="G251" s="6" t="s">
-        <v>444</v>
-      </c>
+      <c r="G251" s="6"/>
       <c r="H251" s="4" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I251" s="4" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="J251" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K251" s="7">
         <v>2.1527777777777781E-2</v>
       </c>
       <c r="L251" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="252" spans="1:12" ht="216">
@@ -9713,28 +8641,26 @@
         <v>45015</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D252" s="6"/>
       <c r="E252" s="6"/>
       <c r="F252" s="6"/>
-      <c r="G252" s="6" t="s">
-        <v>445</v>
-      </c>
+      <c r="G252" s="6"/>
       <c r="H252" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I252" s="6" t="s">
-        <v>446</v>
+        <v>248</v>
       </c>
       <c r="J252" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K252" s="8">
         <v>0.17777777777777778</v>
       </c>
       <c r="L252" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="253" spans="1:12" ht="216">
@@ -9745,28 +8671,26 @@
         <v>45015</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D253" s="6"/>
       <c r="E253" s="6"/>
       <c r="F253" s="6"/>
-      <c r="G253" s="6" t="s">
-        <v>447</v>
-      </c>
+      <c r="G253" s="6"/>
       <c r="H253" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I253" s="6" t="s">
-        <v>448</v>
+        <v>249</v>
       </c>
       <c r="J253" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K253" s="8">
         <v>0.15</v>
       </c>
       <c r="L253" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="254" spans="1:12" ht="409.6">
@@ -9777,28 +8701,26 @@
         <v>45015</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D254" s="6"/>
       <c r="E254" s="6"/>
       <c r="F254" s="6"/>
-      <c r="G254" s="6" t="s">
-        <v>449</v>
-      </c>
+      <c r="G254" s="6"/>
       <c r="H254" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I254" s="6" t="s">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="J254" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K254" s="8">
         <v>0.23541666666666669</v>
       </c>
       <c r="L254" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="255" spans="1:12" ht="216">
@@ -9809,28 +8731,26 @@
         <v>45016</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D255" s="6"/>
       <c r="E255" s="6"/>
       <c r="F255" s="6"/>
-      <c r="G255" s="6" t="s">
-        <v>451</v>
-      </c>
+      <c r="G255" s="6"/>
       <c r="H255" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I255" s="6" t="s">
-        <v>452</v>
+        <v>251</v>
       </c>
       <c r="J255" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K255" s="8">
         <v>0.13402777777777777</v>
       </c>
       <c r="L255" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="256" spans="1:12" ht="331.2">
@@ -9846,14 +8766,12 @@
       <c r="D256" s="6"/>
       <c r="E256" s="6"/>
       <c r="F256" s="6"/>
-      <c r="G256" s="6" t="s">
-        <v>453</v>
-      </c>
+      <c r="G256" s="6"/>
       <c r="H256" s="6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I256" s="6" t="s">
-        <v>454</v>
+        <v>252</v>
       </c>
       <c r="J256" s="6" t="s">
         <v>12</v>
@@ -9862,7 +8780,7 @@
         <v>0.21180555555555555</v>
       </c>
       <c r="L256" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257" spans="1:12" ht="331.2">
@@ -9873,28 +8791,26 @@
         <v>45016</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
       <c r="F257" s="4"/>
-      <c r="G257" s="6" t="s">
-        <v>455</v>
-      </c>
+      <c r="G257" s="6"/>
       <c r="H257" s="4" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I257" s="6" t="s">
-        <v>456</v>
+        <v>253</v>
       </c>
       <c r="J257" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K257" s="7">
         <v>0.32847222222222222</v>
       </c>
       <c r="L257" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="258" spans="1:12" ht="273.60000000000002">
@@ -9905,28 +8821,26 @@
         <v>45016</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D258" s="6"/>
       <c r="E258" s="6"/>
       <c r="F258" s="6"/>
-      <c r="G258" s="6" t="s">
-        <v>457</v>
-      </c>
+      <c r="G258" s="6"/>
       <c r="H258" s="6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I258" s="6" t="s">
-        <v>458</v>
+        <v>254</v>
       </c>
       <c r="J258" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K258" s="8">
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="L258" s="6" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="259" spans="1:12" ht="216">
@@ -9937,28 +8851,26 @@
         <v>45016</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D259" s="6"/>
       <c r="E259" s="6"/>
       <c r="F259" s="6"/>
-      <c r="G259" s="6" t="s">
-        <v>459</v>
-      </c>
+      <c r="G259" s="6"/>
       <c r="H259" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I259" s="6" t="s">
-        <v>460</v>
+        <v>255</v>
       </c>
       <c r="J259" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K259" s="8">
         <v>0.13055555555555556</v>
       </c>
       <c r="L259" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="260" spans="1:12" ht="388.8">
@@ -9969,28 +8881,26 @@
         <v>45016</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D260" s="6"/>
       <c r="E260" s="6"/>
       <c r="F260" s="6"/>
-      <c r="G260" s="6" t="s">
-        <v>457</v>
-      </c>
+      <c r="G260" s="6"/>
       <c r="H260" s="6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I260" s="6" t="s">
-        <v>461</v>
+        <v>256</v>
       </c>
       <c r="J260" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K260" s="8">
         <v>0.52430555555555558</v>
       </c>
       <c r="L260" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/call_log.xlsx
+++ b/call_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://krcmar-my.sharepoint.com/personal/francisco_protectyourboundaries_ca/Documents/Documents/csdashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{195A2F47-6FEF-4072-BF7A-394FA619F365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{762041AE-6E49-4980-BF9F-1E1F3E301825}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{195A2F47-6FEF-4072-BF7A-394FA619F365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACAE092D-F6A6-4EDA-A863-A3E56C366CD1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C605F76E-DC30-49A8-A8A4-2EDF6E134D2C}"/>
   </bookViews>
@@ -817,7 +817,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,22 +848,9 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF242424"/>
-      <name val="-Apple-System"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -876,38 +863,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11.5"/>
-      <color rgb="FF201F1E"/>
-      <name val="Inherit"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Inherit"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Inherit"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -1016,7 +978,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1039,11 +1001,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1054,17 +1014,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1072,15 +1031,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1400,13 +1350,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3A60FE-583D-4435-8016-E6D6AD39F1F9}">
   <dimension ref="A1:L260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1444,7 +1394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="129.6">
+    <row r="2" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1457,7 +1407,9 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="6"/>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
       <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
@@ -1474,7 +1426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="216">
+    <row r="3" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1487,7 +1439,9 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
       <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
@@ -1500,7 +1454,7 @@
       <c r="K3" s="7"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="115.2">
+    <row r="4" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1513,7 +1467,9 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="6"/>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
       <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1530,7 +1486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="144">
+    <row r="5" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1543,7 +1499,9 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="6"/>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
       <c r="H5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1556,7 +1514,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" ht="201.6">
+    <row r="6" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1569,7 +1527,9 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="6"/>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
@@ -1582,7 +1542,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" ht="230.4">
+    <row r="7" spans="1:12" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1595,7 +1555,9 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
       <c r="H7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1612,7 +1574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="244.8">
+    <row r="8" spans="1:12" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1625,7 +1587,9 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
       <c r="H8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1642,7 +1606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="244.8">
+    <row r="9" spans="1:12" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1655,7 +1619,9 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
       <c r="H9" s="6" t="s">
         <v>13</v>
       </c>
@@ -1672,7 +1638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="172.8">
+    <row r="10" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1685,7 +1651,9 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="6"/>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="6" t="s">
         <v>25</v>
@@ -1696,7 +1664,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" ht="158.4">
+    <row r="11" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1707,7 +1675,9 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="6"/>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="6" t="s">
         <v>26</v>
@@ -1718,7 +1688,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" ht="259.2">
+    <row r="12" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1731,7 +1701,9 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="6"/>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
       <c r="H12" s="4" t="s">
         <v>13</v>
       </c>
@@ -1748,7 +1720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="259.2">
+    <row r="13" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1761,7 +1733,9 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="6"/>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
       <c r="H13" s="4" t="s">
         <v>28</v>
       </c>
@@ -1776,7 +1750,7 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" ht="216">
+    <row r="14" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1789,7 +1763,9 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="6"/>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
       <c r="H14" s="4" t="s">
         <v>13</v>
       </c>
@@ -1806,7 +1782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="374.4">
+    <row r="15" spans="1:12" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1819,7 +1795,9 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
       <c r="H15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1832,7 +1810,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" ht="201.6">
+    <row r="16" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1843,7 +1821,9 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
       <c r="H16" s="6" t="s">
         <v>13</v>
       </c>
@@ -1860,7 +1840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="100.8">
+    <row r="17" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
@@ -1873,7 +1853,9 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
       <c r="H17" s="6" t="s">
         <v>13</v>
       </c>
@@ -1890,7 +1872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="115.2">
+    <row r="18" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1901,7 +1883,9 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
       <c r="H18" s="6" t="s">
         <v>13</v>
       </c>
@@ -1914,7 +1898,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="158.4">
+    <row r="19" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1927,7 +1911,9 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="10"/>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6" t="s">
         <v>36</v>
@@ -1938,7 +1924,7 @@
       <c r="K19" s="7"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="201.6">
+    <row r="20" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1951,9 +1937,11 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="10" t="s">
         <v>37</v>
       </c>
       <c r="J20" s="6" t="s">
@@ -1962,7 +1950,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" ht="86.4">
+    <row r="21" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1973,7 +1961,9 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="10"/>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6" t="s">
         <v>38</v>
@@ -1984,7 +1974,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="100.8">
+    <row r="22" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1997,7 +1987,9 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6" t="s">
         <v>39</v>
@@ -2008,7 +2000,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="100.8">
+    <row r="23" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -2019,7 +2011,9 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6" t="s">
         <v>40</v>
@@ -2030,7 +2024,7 @@
       <c r="K23" s="8"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="129.6">
+    <row r="24" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -2043,7 +2037,9 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6" t="s">
         <v>41</v>
@@ -2054,7 +2050,7 @@
       <c r="K24" s="8"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="57.6">
+    <row r="25" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -2067,7 +2063,9 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6" t="s">
         <v>42</v>
@@ -2078,7 +2076,7 @@
       <c r="K25" s="8"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="187.2">
+    <row r="26" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -2091,7 +2089,9 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
       <c r="H26" s="6" t="s">
         <v>43</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="158.4">
+    <row r="27" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -2119,7 +2119,9 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
       <c r="H27" s="6" t="s">
         <v>13</v>
       </c>
@@ -2132,7 +2134,7 @@
       <c r="K27" s="7"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" ht="129.6">
+    <row r="28" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -2145,7 +2147,9 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6" t="s">
         <v>46</v>
@@ -2156,7 +2160,7 @@
       <c r="K28" s="8"/>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="158.4">
+    <row r="29" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -2169,7 +2173,9 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
       <c r="H29" s="6" t="s">
         <v>13</v>
       </c>
@@ -2182,7 +2188,7 @@
       <c r="K29" s="8"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="230.4">
+    <row r="30" spans="1:12" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -2195,7 +2201,9 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="G30" s="6">
+        <v>1</v>
+      </c>
       <c r="H30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2212,7 +2220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="302.39999999999998">
+    <row r="31" spans="1:12" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -2225,7 +2233,9 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
       <c r="H31" s="6" t="s">
         <v>28</v>
       </c>
@@ -2242,7 +2252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="129.6">
+    <row r="32" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -2255,7 +2265,9 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="G32" s="6">
+        <v>1</v>
+      </c>
       <c r="H32" s="6" t="s">
         <v>50</v>
       </c>
@@ -2272,7 +2284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="129.6">
+    <row r="33" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -2285,7 +2297,9 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
       <c r="H33" s="6" t="s">
         <v>13</v>
       </c>
@@ -2302,7 +2316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="115.2">
+    <row r="34" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -2315,7 +2329,9 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="G34" s="6">
+        <v>1</v>
+      </c>
       <c r="H34" s="6" t="s">
         <v>13</v>
       </c>
@@ -2332,7 +2348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="409.6">
+    <row r="35" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -2345,7 +2361,9 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
       <c r="H35" s="6" t="s">
         <v>54</v>
       </c>
@@ -2362,7 +2380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="129.6">
+    <row r="36" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -2375,7 +2393,9 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="G36" s="6">
+        <v>1</v>
+      </c>
       <c r="H36" s="6" t="s">
         <v>13</v>
       </c>
@@ -2392,7 +2412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="409.6">
+    <row r="37" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -2405,7 +2425,9 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="G37" s="6">
+        <v>1</v>
+      </c>
       <c r="H37" s="6" t="s">
         <v>28</v>
       </c>
@@ -2422,7 +2444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="187.2">
+    <row r="38" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -2435,7 +2457,9 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="G38" s="6">
+        <v>1</v>
+      </c>
       <c r="H38" s="6" t="s">
         <v>13</v>
       </c>
@@ -2452,7 +2476,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="345.6">
+    <row r="39" spans="1:12" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -2465,7 +2489,9 @@
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="G39" s="6">
+        <v>1</v>
+      </c>
       <c r="H39" s="6" t="s">
         <v>13</v>
       </c>
@@ -2478,7 +2504,7 @@
       <c r="K39" s="8"/>
       <c r="L39" s="6"/>
     </row>
-    <row r="40" spans="1:12" ht="129.6">
+    <row r="40" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -2491,7 +2517,9 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="G40" s="6">
+        <v>1</v>
+      </c>
       <c r="H40" s="6" t="s">
         <v>13</v>
       </c>
@@ -2506,7 +2534,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="158.4">
+    <row r="41" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -2519,7 +2547,9 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+      <c r="G41" s="6">
+        <v>1</v>
+      </c>
       <c r="H41" s="6" t="s">
         <v>13</v>
       </c>
@@ -2536,7 +2566,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="316.8">
+    <row r="42" spans="1:12" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -2549,7 +2579,9 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="G42" s="6">
+        <v>1</v>
+      </c>
       <c r="H42" s="6" t="s">
         <v>28</v>
       </c>
@@ -2566,7 +2598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="187.2">
+    <row r="43" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -2579,7 +2611,9 @@
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="G43" s="6">
+        <v>1</v>
+      </c>
       <c r="H43" s="6" t="s">
         <v>13</v>
       </c>
@@ -2596,7 +2630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="28.8">
+    <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -2609,7 +2643,9 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+      <c r="G44" s="6">
+        <v>1</v>
+      </c>
       <c r="H44" s="4" t="s">
         <v>65</v>
       </c>
@@ -2626,7 +2662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="144">
+    <row r="45" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -2637,7 +2673,9 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="12"/>
+      <c r="G45" s="6">
+        <v>1</v>
+      </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6" t="s">
         <v>67</v>
@@ -2648,7 +2686,7 @@
       <c r="K45" s="8"/>
       <c r="L45" s="6"/>
     </row>
-    <row r="46" spans="1:12" ht="144">
+    <row r="46" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -2661,7 +2699,9 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="4"/>
+      <c r="G46" s="6">
+        <v>1</v>
+      </c>
       <c r="H46" s="6" t="s">
         <v>13</v>
       </c>
@@ -2678,7 +2718,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="345.6">
+    <row r="47" spans="1:12" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -2689,7 +2729,9 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+      <c r="G47" s="6">
+        <v>1</v>
+      </c>
       <c r="H47" s="4" t="s">
         <v>69</v>
       </c>
@@ -2704,7 +2746,7 @@
       </c>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" ht="172.8">
+    <row r="48" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -2717,7 +2759,9 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+      <c r="G48" s="6">
+        <v>1</v>
+      </c>
       <c r="H48" s="4" t="s">
         <v>13</v>
       </c>
@@ -2734,7 +2778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="409.6">
+    <row r="49" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -2747,7 +2791,9 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+      <c r="G49" s="6">
+        <v>1</v>
+      </c>
       <c r="H49" s="4" t="s">
         <v>28</v>
       </c>
@@ -2764,7 +2810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="201.6">
+    <row r="50" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -2776,8 +2822,10 @@
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="4"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="6">
+        <v>1</v>
+      </c>
       <c r="H50" s="6" t="s">
         <v>54</v>
       </c>
@@ -2794,7 +2842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="28.8">
+    <row r="51" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -2807,7 +2855,9 @@
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+      <c r="G51" s="6">
+        <v>1</v>
+      </c>
       <c r="H51" s="4" t="s">
         <v>65</v>
       </c>
@@ -2824,7 +2874,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="57.6">
+    <row r="52" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -2837,7 +2887,9 @@
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+      <c r="G52" s="6">
+        <v>1</v>
+      </c>
       <c r="H52" s="4" t="s">
         <v>65</v>
       </c>
@@ -2854,7 +2906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="259.2">
+    <row r="53" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -2867,7 +2919,9 @@
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
+      <c r="G53" s="6">
+        <v>1</v>
+      </c>
       <c r="H53" s="4" t="s">
         <v>43</v>
       </c>
@@ -2884,7 +2938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="129.6">
+    <row r="54" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -2897,7 +2951,9 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
+      <c r="G54" s="6">
+        <v>1</v>
+      </c>
       <c r="H54" s="4"/>
       <c r="I54" s="6" t="s">
         <v>76</v>
@@ -2908,7 +2964,7 @@
       <c r="K54" s="7"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -2919,7 +2975,9 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
+      <c r="G55" s="6">
+        <v>1</v>
+      </c>
       <c r="H55" s="4"/>
       <c r="I55" s="6"/>
       <c r="J55" s="4" t="s">
@@ -2928,7 +2986,7 @@
       <c r="K55" s="8"/>
       <c r="L55" s="6"/>
     </row>
-    <row r="56" spans="1:12" ht="201.6">
+    <row r="56" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -2941,7 +2999,9 @@
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
+      <c r="G56" s="6">
+        <v>1</v>
+      </c>
       <c r="H56" s="4" t="s">
         <v>54</v>
       </c>
@@ -2958,7 +3018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="409.6">
+    <row r="57" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -2971,7 +3031,9 @@
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
+      <c r="G57" s="6">
+        <v>1</v>
+      </c>
       <c r="H57" s="4" t="s">
         <v>54</v>
       </c>
@@ -2988,7 +3050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="409.6">
+    <row r="58" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -3000,9 +3062,11 @@
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="15" t="s">
+      <c r="F58" s="12"/>
+      <c r="G58" s="6">
+        <v>1</v>
+      </c>
+      <c r="H58" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I58" s="6" t="s">
@@ -3016,7 +3080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="115.2">
+    <row r="59" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -3028,9 +3092,11 @@
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="15" t="s">
+      <c r="F59" s="12"/>
+      <c r="G59" s="6">
+        <v>1</v>
+      </c>
+      <c r="H59" s="13" t="s">
         <v>65</v>
       </c>
       <c r="I59" s="6" t="s">
@@ -3046,7 +3112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="244.8">
+    <row r="60" spans="1:12" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -3059,7 +3125,9 @@
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
+      <c r="G60" s="6">
+        <v>1</v>
+      </c>
       <c r="H60" s="4" t="s">
         <v>28</v>
       </c>
@@ -3076,7 +3144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="216">
+    <row r="61" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -3089,7 +3157,9 @@
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
+      <c r="G61" s="6">
+        <v>1</v>
+      </c>
       <c r="H61" s="6" t="s">
         <v>28</v>
       </c>
@@ -3106,7 +3176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="409.6">
+    <row r="62" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -3119,7 +3189,9 @@
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="6"/>
+      <c r="G62" s="6">
+        <v>1</v>
+      </c>
       <c r="H62" s="4" t="s">
         <v>13</v>
       </c>
@@ -3136,7 +3208,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="409.6">
+    <row r="63" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -3149,7 +3221,9 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
+      <c r="G63" s="6">
+        <v>1</v>
+      </c>
       <c r="H63" s="6" t="s">
         <v>13</v>
       </c>
@@ -3166,7 +3240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="28.8">
+    <row r="64" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>64</v>
       </c>
@@ -3179,7 +3253,9 @@
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
+      <c r="G64" s="6">
+        <v>1</v>
+      </c>
       <c r="H64" s="6" t="s">
         <v>65</v>
       </c>
@@ -3196,7 +3272,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="316.8">
+    <row r="65" spans="1:12" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="5">
         <v>44988</v>
@@ -3207,7 +3283,9 @@
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
+      <c r="G65" s="6">
+        <v>1</v>
+      </c>
       <c r="H65" s="6" t="s">
         <v>28</v>
       </c>
@@ -3224,7 +3302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="374.4">
+    <row r="66" spans="1:12" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -3237,7 +3315,9 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
+      <c r="G66" s="6">
+        <v>1</v>
+      </c>
       <c r="H66" s="6" t="s">
         <v>28</v>
       </c>
@@ -3254,7 +3334,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="331.2">
+    <row r="67" spans="1:12" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -3267,7 +3347,9 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
+      <c r="G67" s="6">
+        <v>1</v>
+      </c>
       <c r="H67" s="6" t="s">
         <v>69</v>
       </c>
@@ -3284,7 +3366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="216">
+    <row r="68" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -3297,7 +3379,9 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
+      <c r="G68" s="6">
+        <v>1</v>
+      </c>
       <c r="H68" s="6" t="s">
         <v>28</v>
       </c>
@@ -3314,7 +3398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="409.6">
+    <row r="69" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -3327,7 +3411,9 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
+      <c r="G69" s="6">
+        <v>1</v>
+      </c>
       <c r="H69" s="6" t="s">
         <v>28</v>
       </c>
@@ -3344,7 +3430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="409.6">
+    <row r="70" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -3357,7 +3443,9 @@
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
+      <c r="G70" s="6">
+        <v>1</v>
+      </c>
       <c r="H70" s="6" t="s">
         <v>69</v>
       </c>
@@ -3374,7 +3462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="57.6">
+    <row r="71" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -3387,7 +3475,9 @@
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
+      <c r="G71" s="6">
+        <v>1</v>
+      </c>
       <c r="H71" s="6" t="s">
         <v>65</v>
       </c>
@@ -3404,7 +3494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="201.6">
+    <row r="72" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -3417,7 +3507,9 @@
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
+      <c r="G72" s="6">
+        <v>1</v>
+      </c>
       <c r="H72" s="6" t="s">
         <v>69</v>
       </c>
@@ -3434,7 +3526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="244.8">
+    <row r="73" spans="1:12" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -3447,7 +3539,9 @@
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
+      <c r="G73" s="6">
+        <v>1</v>
+      </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6" t="s">
         <v>93</v>
@@ -3460,7 +3554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="409.6">
+    <row r="74" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -3473,7 +3567,9 @@
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
+      <c r="G74" s="6">
+        <v>1</v>
+      </c>
       <c r="H74" s="6"/>
       <c r="I74" s="6" t="s">
         <v>94</v>
@@ -3486,7 +3582,7 @@
       </c>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:12" ht="28.8">
+    <row r="75" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>74</v>
       </c>
@@ -3499,7 +3595,9 @@
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
+      <c r="G75" s="6">
+        <v>1</v>
+      </c>
       <c r="H75" s="6" t="s">
         <v>65</v>
       </c>
@@ -3516,7 +3614,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="172.8">
+    <row r="76" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>75</v>
       </c>
@@ -3529,7 +3627,9 @@
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
+      <c r="G76" s="6">
+        <v>1</v>
+      </c>
       <c r="H76" s="6" t="s">
         <v>54</v>
       </c>
@@ -3546,7 +3646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="259.2">
+    <row r="77" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>76</v>
       </c>
@@ -3559,7 +3659,9 @@
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
+      <c r="G77" s="6">
+        <v>1</v>
+      </c>
       <c r="H77" s="6" t="s">
         <v>43</v>
       </c>
@@ -3576,7 +3678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="57.6">
+    <row r="78" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>77</v>
       </c>
@@ -3589,7 +3691,9 @@
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
+      <c r="G78" s="6">
+        <v>1</v>
+      </c>
       <c r="H78" s="6" t="s">
         <v>65</v>
       </c>
@@ -3606,7 +3710,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="43.2">
+    <row r="79" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>78</v>
       </c>
@@ -3618,8 +3722,10 @@
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="6"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="6">
+        <v>1</v>
+      </c>
       <c r="H79" s="4" t="s">
         <v>97</v>
       </c>
@@ -3636,7 +3742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="115.2">
+    <row r="80" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>79</v>
       </c>
@@ -3649,7 +3755,9 @@
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
+      <c r="G80" s="6">
+        <v>1</v>
+      </c>
       <c r="H80" s="6" t="s">
         <v>28</v>
       </c>
@@ -3666,7 +3774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="409.6">
+    <row r="81" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>80</v>
       </c>
@@ -3679,7 +3787,9 @@
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
-      <c r="G81" s="4"/>
+      <c r="G81" s="6">
+        <v>1</v>
+      </c>
       <c r="H81" s="6" t="s">
         <v>100</v>
       </c>
@@ -3696,7 +3806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="288">
+    <row r="82" spans="1:12" ht="288" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>81</v>
       </c>
@@ -3709,7 +3819,9 @@
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="4"/>
+      <c r="G82" s="6">
+        <v>1</v>
+      </c>
       <c r="H82" s="6" t="s">
         <v>28</v>
       </c>
@@ -3726,7 +3838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="72">
+    <row r="83" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>82</v>
       </c>
@@ -3739,7 +3851,9 @@
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="4"/>
+      <c r="G83" s="6">
+        <v>1</v>
+      </c>
       <c r="H83" s="6" t="s">
         <v>43</v>
       </c>
@@ -3756,7 +3870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="302.39999999999998">
+    <row r="84" spans="1:12" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>83</v>
       </c>
@@ -3769,7 +3883,9 @@
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
+      <c r="G84" s="6">
+        <v>1</v>
+      </c>
       <c r="H84" s="6" t="s">
         <v>43</v>
       </c>
@@ -3786,7 +3902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="201.6">
+    <row r="85" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>84</v>
       </c>
@@ -3799,7 +3915,9 @@
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
+      <c r="G85" s="6">
+        <v>1</v>
+      </c>
       <c r="H85" s="6" t="s">
         <v>43</v>
       </c>
@@ -3816,7 +3934,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="144">
+    <row r="86" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>85</v>
       </c>
@@ -3829,7 +3947,9 @@
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
+      <c r="G86" s="6">
+        <v>1</v>
+      </c>
       <c r="H86" s="4" t="s">
         <v>100</v>
       </c>
@@ -3846,7 +3966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="129.6">
+    <row r="87" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>86</v>
       </c>
@@ -3859,7 +3979,9 @@
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
+      <c r="G87" s="6">
+        <v>1</v>
+      </c>
       <c r="H87" s="4" t="s">
         <v>69</v>
       </c>
@@ -3876,7 +3998,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="158.4">
+    <row r="88" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>87</v>
       </c>
@@ -3889,7 +4011,9 @@
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
-      <c r="G88" s="4"/>
+      <c r="G88" s="6">
+        <v>1</v>
+      </c>
       <c r="H88" s="6" t="s">
         <v>13</v>
       </c>
@@ -3906,7 +4030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="216">
+    <row r="89" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>88</v>
       </c>
@@ -3919,7 +4043,9 @@
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
+      <c r="G89" s="6">
+        <v>1</v>
+      </c>
       <c r="H89" s="4" t="s">
         <v>28</v>
       </c>
@@ -3936,7 +4062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="409.6">
+    <row r="90" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>89</v>
       </c>
@@ -3949,7 +4075,9 @@
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
-      <c r="G90" s="4"/>
+      <c r="G90" s="6">
+        <v>1</v>
+      </c>
       <c r="H90" s="6" t="s">
         <v>100</v>
       </c>
@@ -3966,7 +4094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="409.6">
+    <row r="91" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>90</v>
       </c>
@@ -3979,7 +4107,9 @@
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
+      <c r="G91" s="6">
+        <v>1</v>
+      </c>
       <c r="H91" s="4" t="s">
         <v>28</v>
       </c>
@@ -3996,7 +4126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>91</v>
       </c>
@@ -4009,7 +4139,9 @@
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
+      <c r="G92" s="6">
+        <v>1</v>
+      </c>
       <c r="H92" s="4"/>
       <c r="I92" s="6"/>
       <c r="J92" s="4" t="s">
@@ -4018,7 +4150,7 @@
       <c r="K92" s="7"/>
       <c r="L92" s="4"/>
     </row>
-    <row r="93" spans="1:12" ht="331.2">
+    <row r="93" spans="1:12" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>92</v>
       </c>
@@ -4031,7 +4163,9 @@
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
+      <c r="G93" s="6">
+        <v>1</v>
+      </c>
       <c r="H93" s="4" t="s">
         <v>28</v>
       </c>
@@ -4048,7 +4182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="230.4">
+    <row r="94" spans="1:12" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>93</v>
       </c>
@@ -4061,7 +4195,9 @@
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
+      <c r="G94" s="6">
+        <v>1</v>
+      </c>
       <c r="H94" s="4" t="s">
         <v>28</v>
       </c>
@@ -4076,7 +4212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="409.6">
+    <row r="95" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>94</v>
       </c>
@@ -4089,7 +4225,9 @@
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
+      <c r="G95" s="6">
+        <v>1</v>
+      </c>
       <c r="H95" s="4" t="s">
         <v>54</v>
       </c>
@@ -4106,7 +4244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="144">
+    <row r="96" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>95</v>
       </c>
@@ -4119,7 +4257,9 @@
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
-      <c r="G96" s="4"/>
+      <c r="G96" s="6">
+        <v>1</v>
+      </c>
       <c r="H96" s="6" t="s">
         <v>13</v>
       </c>
@@ -4136,7 +4276,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="374.4">
+    <row r="97" spans="1:12" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>96</v>
       </c>
@@ -4149,7 +4289,9 @@
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
-      <c r="G97" s="4"/>
+      <c r="G97" s="6">
+        <v>1</v>
+      </c>
       <c r="H97" s="6" t="s">
         <v>28</v>
       </c>
@@ -4162,7 +4304,7 @@
       <c r="K97" s="8"/>
       <c r="L97" s="6"/>
     </row>
-    <row r="98" spans="1:12" ht="302.39999999999998">
+    <row r="98" spans="1:12" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>97</v>
       </c>
@@ -4175,7 +4317,9 @@
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
-      <c r="G98" s="4"/>
+      <c r="G98" s="6">
+        <v>1</v>
+      </c>
       <c r="H98" s="6" t="s">
         <v>28</v>
       </c>
@@ -4192,7 +4336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>98</v>
       </c>
@@ -4203,7 +4347,9 @@
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
-      <c r="G99" s="4"/>
+      <c r="G99" s="6">
+        <v>1</v>
+      </c>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6" t="s">
@@ -4212,7 +4358,7 @@
       <c r="K99" s="8"/>
       <c r="L99" s="6"/>
     </row>
-    <row r="100" spans="1:12" ht="187.2">
+    <row r="100" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>99</v>
       </c>
@@ -4225,7 +4371,9 @@
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
-      <c r="G100" s="4"/>
+      <c r="G100" s="6">
+        <v>1</v>
+      </c>
       <c r="H100" s="6" t="s">
         <v>54</v>
       </c>
@@ -4242,7 +4390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="43.2">
+    <row r="101" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>100</v>
       </c>
@@ -4255,7 +4403,9 @@
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
-      <c r="G101" s="4"/>
+      <c r="G101" s="6">
+        <v>1</v>
+      </c>
       <c r="H101" s="6" t="s">
         <v>65</v>
       </c>
@@ -4272,7 +4422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="100.8">
+    <row r="102" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>101</v>
       </c>
@@ -4285,7 +4435,9 @@
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
-      <c r="G102" s="4"/>
+      <c r="G102" s="6">
+        <v>1</v>
+      </c>
       <c r="H102" s="6" t="s">
         <v>54</v>
       </c>
@@ -4302,7 +4454,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="409.6">
+    <row r="103" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>102</v>
       </c>
@@ -4315,11 +4467,13 @@
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
-      <c r="G103" s="4"/>
+      <c r="G103" s="6">
+        <v>1</v>
+      </c>
       <c r="H103" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I103" s="17" t="s">
+      <c r="I103" s="15" t="s">
         <v>121</v>
       </c>
       <c r="J103" s="6" t="s">
@@ -4332,7 +4486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="43.2">
+    <row r="104" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>103</v>
       </c>
@@ -4345,7 +4499,9 @@
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
+      <c r="G104" s="6">
+        <v>1</v>
+      </c>
       <c r="H104" s="6" t="s">
         <v>65</v>
       </c>
@@ -4362,7 +4518,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="409.6">
+    <row r="105" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>104</v>
       </c>
@@ -4375,7 +4531,9 @@
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
+      <c r="G105" s="6">
+        <v>1</v>
+      </c>
       <c r="H105" s="6" t="s">
         <v>13</v>
       </c>
@@ -4392,7 +4550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="409.6">
+    <row r="106" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>105</v>
       </c>
@@ -4405,11 +4563,13 @@
       <c r="D106" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="14" t="s">
         <v>124</v>
       </c>
       <c r="F106" s="4"/>
-      <c r="G106" s="6"/>
+      <c r="G106" s="6">
+        <v>1</v>
+      </c>
       <c r="H106" s="6" t="s">
         <v>13</v>
       </c>
@@ -4424,7 +4584,7 @@
       </c>
       <c r="L106" s="4"/>
     </row>
-    <row r="107" spans="1:12" ht="409.6">
+    <row r="107" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>106</v>
       </c>
@@ -4437,7 +4597,9 @@
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="G107" s="6"/>
+      <c r="G107" s="6">
+        <v>1</v>
+      </c>
       <c r="H107" s="4" t="s">
         <v>13</v>
       </c>
@@ -4450,11 +4612,11 @@
       <c r="K107" s="7"/>
       <c r="L107" s="4"/>
     </row>
-    <row r="108" spans="1:12" ht="43.2">
+    <row r="108" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>107</v>
       </c>
-      <c r="B108" s="18">
+      <c r="B108" s="16">
         <v>44994</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -4463,7 +4625,9 @@
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="6"/>
+      <c r="G108" s="6">
+        <v>1</v>
+      </c>
       <c r="H108" s="4" t="s">
         <v>65</v>
       </c>
@@ -4480,11 +4644,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="43.2">
+    <row r="109" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>108</v>
       </c>
-      <c r="B109" s="18">
+      <c r="B109" s="16">
         <v>44994</v>
       </c>
       <c r="C109" s="4" t="s">
@@ -4493,7 +4657,9 @@
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
-      <c r="G109" s="6"/>
+      <c r="G109" s="6">
+        <v>1</v>
+      </c>
       <c r="H109" s="6" t="s">
         <v>65</v>
       </c>
@@ -4510,11 +4676,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="244.8">
+    <row r="110" spans="1:12" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>109</v>
       </c>
-      <c r="B110" s="18">
+      <c r="B110" s="16">
         <v>44994</v>
       </c>
       <c r="C110" s="4" t="s">
@@ -4523,7 +4689,9 @@
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="6"/>
+      <c r="G110" s="6">
+        <v>1</v>
+      </c>
       <c r="H110" s="4" t="s">
         <v>13</v>
       </c>
@@ -4540,11 +4708,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="409.6">
+    <row r="111" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>110</v>
       </c>
-      <c r="B111" s="18">
+      <c r="B111" s="16">
         <v>44994</v>
       </c>
       <c r="C111" s="4" t="s">
@@ -4553,7 +4721,9 @@
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
-      <c r="G111" s="6"/>
+      <c r="G111" s="6">
+        <v>1</v>
+      </c>
       <c r="H111" s="4" t="s">
         <v>69</v>
       </c>
@@ -4570,11 +4740,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="216">
+    <row r="112" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>111</v>
       </c>
-      <c r="B112" s="18">
+      <c r="B112" s="16">
         <v>44994</v>
       </c>
       <c r="C112" s="4" t="s">
@@ -4583,7 +4753,9 @@
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
-      <c r="G112" s="6"/>
+      <c r="G112" s="6">
+        <v>1</v>
+      </c>
       <c r="H112" s="4" t="s">
         <v>13</v>
       </c>
@@ -4600,11 +4772,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="43.2">
+    <row r="113" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>112</v>
       </c>
-      <c r="B113" s="18">
+      <c r="B113" s="16">
         <v>44994</v>
       </c>
       <c r="C113" s="4" t="s">
@@ -4613,7 +4785,9 @@
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="6"/>
+      <c r="G113" s="6">
+        <v>1</v>
+      </c>
       <c r="H113" s="4" t="s">
         <v>65</v>
       </c>
@@ -4630,11 +4804,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="403.2">
+    <row r="114" spans="1:12" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>113</v>
       </c>
-      <c r="B114" s="18">
+      <c r="B114" s="16">
         <v>44994</v>
       </c>
       <c r="C114" s="4" t="s">
@@ -4643,7 +4817,9 @@
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
-      <c r="G114" s="6"/>
+      <c r="G114" s="6">
+        <v>1</v>
+      </c>
       <c r="H114" s="4" t="s">
         <v>43</v>
       </c>
@@ -4660,11 +4836,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="360">
+    <row r="115" spans="1:12" ht="360" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>114</v>
       </c>
-      <c r="B115" s="18">
+      <c r="B115" s="16">
         <v>44994</v>
       </c>
       <c r="C115" s="6" t="s">
@@ -4673,7 +4849,9 @@
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
+      <c r="G115" s="6">
+        <v>1</v>
+      </c>
       <c r="H115" s="4" t="s">
         <v>43</v>
       </c>
@@ -4690,11 +4868,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="43.2">
+    <row r="116" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>115</v>
       </c>
-      <c r="B116" s="18">
+      <c r="B116" s="16">
         <v>44995</v>
       </c>
       <c r="C116" s="4" t="s">
@@ -4703,7 +4881,9 @@
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
-      <c r="G116" s="6"/>
+      <c r="G116" s="6">
+        <v>1</v>
+      </c>
       <c r="H116" s="4" t="s">
         <v>65</v>
       </c>
@@ -4716,11 +4896,11 @@
       <c r="K116" s="7"/>
       <c r="L116" s="4"/>
     </row>
-    <row r="117" spans="1:12" ht="43.2">
+    <row r="117" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>116</v>
       </c>
-      <c r="B117" s="18">
+      <c r="B117" s="16">
         <v>44995</v>
       </c>
       <c r="C117" s="6" t="s">
@@ -4729,7 +4909,9 @@
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
+      <c r="G117" s="6">
+        <v>1</v>
+      </c>
       <c r="H117" s="6" t="s">
         <v>65</v>
       </c>
@@ -4746,18 +4928,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="43.2">
+    <row r="118" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>117</v>
       </c>
-      <c r="B118" s="18">
+      <c r="B118" s="16">
         <v>44995</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
+      <c r="G118" s="6">
+        <v>1</v>
+      </c>
       <c r="H118" s="6" t="s">
         <v>65</v>
       </c>
@@ -4770,11 +4954,11 @@
       <c r="K118" s="8"/>
       <c r="L118" s="6"/>
     </row>
-    <row r="119" spans="1:12" ht="201.6">
+    <row r="119" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>118</v>
       </c>
-      <c r="B119" s="18">
+      <c r="B119" s="16">
         <v>44998</v>
       </c>
       <c r="C119" s="6" t="s">
@@ -4783,7 +4967,9 @@
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
+      <c r="G119" s="6">
+        <v>1</v>
+      </c>
       <c r="H119" s="6" t="s">
         <v>13</v>
       </c>
@@ -4800,11 +4986,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="28.8">
+    <row r="120" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
         <v>119</v>
       </c>
-      <c r="B120" s="18">
+      <c r="B120" s="16">
         <v>44998</v>
       </c>
       <c r="C120" s="6" t="s">
@@ -4813,7 +4999,9 @@
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
+      <c r="G120" s="6">
+        <v>1</v>
+      </c>
       <c r="H120" s="6" t="s">
         <v>65</v>
       </c>
@@ -4826,11 +5014,11 @@
       <c r="K120" s="8"/>
       <c r="L120" s="4"/>
     </row>
-    <row r="121" spans="1:12" ht="187.2">
+    <row r="121" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <v>120</v>
       </c>
-      <c r="B121" s="18">
+      <c r="B121" s="16">
         <v>44998</v>
       </c>
       <c r="C121" s="6" t="s">
@@ -4839,7 +5027,9 @@
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
+      <c r="G121" s="6">
+        <v>1</v>
+      </c>
       <c r="H121" s="6" t="s">
         <v>28</v>
       </c>
@@ -4856,11 +5046,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="409.6">
+    <row r="122" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
         <v>121</v>
       </c>
-      <c r="B122" s="18">
+      <c r="B122" s="16">
         <v>44998</v>
       </c>
       <c r="C122" s="6" t="s">
@@ -4869,7 +5059,9 @@
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
+      <c r="G122" s="6">
+        <v>1</v>
+      </c>
       <c r="H122" s="6" t="s">
         <v>13</v>
       </c>
@@ -4886,11 +5078,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="43.2">
+    <row r="123" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>122</v>
       </c>
-      <c r="B123" s="18">
+      <c r="B123" s="16">
         <v>44998</v>
       </c>
       <c r="C123" s="6" t="s">
@@ -4899,7 +5091,9 @@
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
+      <c r="G123" s="6">
+        <v>1</v>
+      </c>
       <c r="H123" s="6" t="s">
         <v>65</v>
       </c>
@@ -4916,20 +5110,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="187.2">
+    <row r="124" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>123</v>
       </c>
-      <c r="B124" s="18">
+      <c r="B124" s="16">
         <v>44998</v>
       </c>
-      <c r="C124" s="19" t="s">
+      <c r="C124" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
+      <c r="G124" s="6">
+        <v>1</v>
+      </c>
       <c r="H124" s="6" t="s">
         <v>54</v>
       </c>
@@ -4946,20 +5142,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="409.6">
+    <row r="125" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
         <v>124</v>
       </c>
-      <c r="B125" s="18">
+      <c r="B125" s="16">
         <v>44998</v>
       </c>
-      <c r="C125" s="19" t="s">
+      <c r="C125" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
+      <c r="G125" s="6">
+        <v>1</v>
+      </c>
       <c r="H125" s="6" t="s">
         <v>28</v>
       </c>
@@ -4969,27 +5167,29 @@
       <c r="J125" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K125" s="20">
+      <c r="K125" s="18">
         <v>0.43263888888888885</v>
       </c>
       <c r="L125" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="409.6">
+    <row r="126" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
         <v>125</v>
       </c>
-      <c r="B126" s="18">
+      <c r="B126" s="16">
         <v>44998</v>
       </c>
-      <c r="C126" s="19" t="s">
+      <c r="C126" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
+      <c r="G126" s="6">
+        <v>1</v>
+      </c>
       <c r="H126" s="6" t="s">
         <v>28</v>
       </c>
@@ -5006,20 +5206,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="409.6">
+    <row r="127" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
         <v>126</v>
       </c>
-      <c r="B127" s="18">
+      <c r="B127" s="16">
         <v>44999</v>
       </c>
-      <c r="C127" s="19" t="s">
+      <c r="C127" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
+      <c r="G127" s="6">
+        <v>1</v>
+      </c>
       <c r="H127" s="6" t="s">
         <v>28</v>
       </c>
@@ -5036,11 +5238,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="28.8">
+    <row r="128" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
         <v>127</v>
       </c>
-      <c r="B128" s="18">
+      <c r="B128" s="16">
         <v>44999</v>
       </c>
       <c r="C128" s="6" t="s">
@@ -5049,7 +5251,9 @@
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
+      <c r="G128" s="6">
+        <v>1</v>
+      </c>
       <c r="H128" s="6" t="s">
         <v>65</v>
       </c>
@@ -5062,11 +5266,11 @@
       <c r="K128" s="8"/>
       <c r="L128" s="4"/>
     </row>
-    <row r="129" spans="1:12" ht="216">
+    <row r="129" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
         <v>128</v>
       </c>
-      <c r="B129" s="18">
+      <c r="B129" s="16">
         <v>44999</v>
       </c>
       <c r="C129" s="6" t="s">
@@ -5074,9 +5278,11 @@
       </c>
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
-      <c r="F129" s="14"/>
-      <c r="G129" s="6"/>
-      <c r="H129" s="15" t="s">
+      <c r="F129" s="12"/>
+      <c r="G129" s="6">
+        <v>1</v>
+      </c>
+      <c r="H129" s="13" t="s">
         <v>28</v>
       </c>
       <c r="I129" s="6" t="s">
@@ -5092,11 +5298,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="28.8">
+    <row r="130" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="6">
         <v>129</v>
       </c>
-      <c r="B130" s="18">
+      <c r="B130" s="16">
         <v>44999</v>
       </c>
       <c r="C130" s="4" t="s">
@@ -5104,9 +5310,11 @@
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
-      <c r="F130" s="21"/>
-      <c r="G130" s="6"/>
-      <c r="H130" s="22" t="s">
+      <c r="F130" s="19"/>
+      <c r="G130" s="6">
+        <v>1</v>
+      </c>
+      <c r="H130" s="20" t="s">
         <v>65</v>
       </c>
       <c r="I130" s="6" t="s">
@@ -5122,11 +5330,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="28.8">
+    <row r="131" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="6">
         <v>130</v>
       </c>
-      <c r="B131" s="18">
+      <c r="B131" s="16">
         <v>44999</v>
       </c>
       <c r="C131" s="4" t="s">
@@ -5134,9 +5342,11 @@
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
-      <c r="F131" s="21"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="22" t="s">
+      <c r="F131" s="19"/>
+      <c r="G131" s="6">
+        <v>1</v>
+      </c>
+      <c r="H131" s="20" t="s">
         <v>65</v>
       </c>
       <c r="I131" s="6" t="s">
@@ -5152,11 +5362,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="43.2">
+    <row r="132" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A132" s="6">
         <v>131</v>
       </c>
-      <c r="B132" s="18">
+      <c r="B132" s="16">
         <v>44999</v>
       </c>
       <c r="C132" s="4" t="s">
@@ -5165,7 +5375,9 @@
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
-      <c r="G132" s="6"/>
+      <c r="G132" s="6">
+        <v>1</v>
+      </c>
       <c r="H132" s="4" t="s">
         <v>65</v>
       </c>
@@ -5182,11 +5394,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="172.8">
+    <row r="133" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A133" s="6">
         <v>132</v>
       </c>
-      <c r="B133" s="18">
+      <c r="B133" s="16">
         <v>44999</v>
       </c>
       <c r="C133" s="4" t="s">
@@ -5195,7 +5407,9 @@
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
-      <c r="G133" s="23"/>
+      <c r="G133" s="6">
+        <v>1</v>
+      </c>
       <c r="H133" s="4" t="s">
         <v>100</v>
       </c>
@@ -5212,11 +5426,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="115.2">
+    <row r="134" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
         <v>133</v>
       </c>
-      <c r="B134" s="18">
+      <c r="B134" s="16">
         <v>44999</v>
       </c>
       <c r="C134" s="4" t="s">
@@ -5225,7 +5439,9 @@
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
-      <c r="G134" s="23"/>
+      <c r="G134" s="6">
+        <v>1</v>
+      </c>
       <c r="H134" s="4" t="s">
         <v>97</v>
       </c>
@@ -5242,11 +5458,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="409.6">
+    <row r="135" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
         <v>134</v>
       </c>
-      <c r="B135" s="18">
+      <c r="B135" s="16">
         <v>45000</v>
       </c>
       <c r="C135" s="4" t="s">
@@ -5255,7 +5471,9 @@
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
-      <c r="G135" s="23"/>
+      <c r="G135" s="6">
+        <v>1</v>
+      </c>
       <c r="H135" s="4" t="s">
         <v>28</v>
       </c>
@@ -5272,11 +5490,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="409.6">
+    <row r="136" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
         <v>135</v>
       </c>
-      <c r="B136" s="18">
+      <c r="B136" s="16">
         <v>45000</v>
       </c>
       <c r="C136" s="4" t="s">
@@ -5285,7 +5503,9 @@
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
-      <c r="G136" s="23"/>
+      <c r="G136" s="6">
+        <v>1</v>
+      </c>
       <c r="H136" s="4" t="s">
         <v>54</v>
       </c>
@@ -5302,11 +5522,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
         <v>136</v>
       </c>
-      <c r="B137" s="18">
+      <c r="B137" s="16">
         <v>45000</v>
       </c>
       <c r="C137" s="4" t="s">
@@ -5315,7 +5535,9 @@
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
-      <c r="G137" s="23"/>
+      <c r="G137" s="6">
+        <v>1</v>
+      </c>
       <c r="H137" s="4" t="s">
         <v>65</v>
       </c>
@@ -5332,11 +5554,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="360">
+    <row r="138" spans="1:12" ht="360" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>137</v>
       </c>
-      <c r="B138" s="18">
+      <c r="B138" s="16">
         <v>45000</v>
       </c>
       <c r="C138" s="6" t="s">
@@ -5345,7 +5567,9 @@
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
-      <c r="G138" s="23"/>
+      <c r="G138" s="6">
+        <v>1</v>
+      </c>
       <c r="H138" s="6" t="s">
         <v>69</v>
       </c>
@@ -5362,11 +5586,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="144">
+    <row r="139" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
         <v>138</v>
       </c>
-      <c r="B139" s="18">
+      <c r="B139" s="16">
         <v>45000</v>
       </c>
       <c r="C139" s="6" t="s">
@@ -5375,7 +5599,9 @@
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
+      <c r="G139" s="6">
+        <v>1</v>
+      </c>
       <c r="H139" s="6" t="s">
         <v>28</v>
       </c>
@@ -5392,11 +5618,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="216">
+    <row r="140" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
         <v>139</v>
       </c>
-      <c r="B140" s="18">
+      <c r="B140" s="16">
         <v>45000</v>
       </c>
       <c r="C140" s="6" t="s">
@@ -5405,7 +5631,9 @@
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
-      <c r="G140" s="6"/>
+      <c r="G140" s="6">
+        <v>1</v>
+      </c>
       <c r="H140" s="6" t="s">
         <v>28</v>
       </c>
@@ -5422,11 +5650,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="409.6">
+    <row r="141" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
         <v>140</v>
       </c>
-      <c r="B141" s="18">
+      <c r="B141" s="16">
         <v>45000</v>
       </c>
       <c r="C141" s="6" t="s">
@@ -5435,7 +5663,9 @@
       <c r="D141" s="6"/>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
+      <c r="G141" s="6">
+        <v>1</v>
+      </c>
       <c r="H141" s="6" t="s">
         <v>54</v>
       </c>
@@ -5450,11 +5680,11 @@
       </c>
       <c r="L141" s="4"/>
     </row>
-    <row r="142" spans="1:12" ht="158.4">
+    <row r="142" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
         <v>141</v>
       </c>
-      <c r="B142" s="18">
+      <c r="B142" s="16">
         <v>45000</v>
       </c>
       <c r="C142" s="6" t="s">
@@ -5463,7 +5693,9 @@
       <c r="D142" s="6"/>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
+      <c r="G142" s="6">
+        <v>1</v>
+      </c>
       <c r="H142" s="6"/>
       <c r="I142" s="6" t="s">
         <v>150</v>
@@ -5474,11 +5706,11 @@
       <c r="K142" s="8"/>
       <c r="L142" s="6"/>
     </row>
-    <row r="143" spans="1:12" ht="57.6">
+    <row r="143" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
         <v>142</v>
       </c>
-      <c r="B143" s="18">
+      <c r="B143" s="16">
         <v>45000</v>
       </c>
       <c r="C143" s="6" t="s">
@@ -5487,7 +5719,9 @@
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
+      <c r="G143" s="6">
+        <v>1</v>
+      </c>
       <c r="H143" s="6" t="s">
         <v>65</v>
       </c>
@@ -5504,11 +5738,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="360">
+    <row r="144" spans="1:12" ht="360" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
         <v>143</v>
       </c>
-      <c r="B144" s="18">
+      <c r="B144" s="16">
         <v>45001</v>
       </c>
       <c r="C144" s="6" t="s">
@@ -5517,7 +5751,9 @@
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
-      <c r="G144" s="6"/>
+      <c r="G144" s="6">
+        <v>1</v>
+      </c>
       <c r="H144" s="6" t="s">
         <v>28</v>
       </c>
@@ -5534,11 +5770,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="409.6">
+    <row r="145" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A145" s="6">
         <v>144</v>
       </c>
-      <c r="B145" s="18">
+      <c r="B145" s="16">
         <v>45001</v>
       </c>
       <c r="C145" s="6" t="s">
@@ -5547,7 +5783,9 @@
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
-      <c r="G145" s="6"/>
+      <c r="G145" s="6">
+        <v>1</v>
+      </c>
       <c r="H145" s="6" t="s">
         <v>54</v>
       </c>
@@ -5564,11 +5802,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="288">
+    <row r="146" spans="1:12" ht="288" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
         <v>145</v>
       </c>
-      <c r="B146" s="18">
+      <c r="B146" s="16">
         <v>45001</v>
       </c>
       <c r="C146" s="6" t="s">
@@ -5577,7 +5815,9 @@
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
-      <c r="G146" s="6"/>
+      <c r="G146" s="6">
+        <v>1</v>
+      </c>
       <c r="H146" s="6" t="s">
         <v>43</v>
       </c>
@@ -5594,11 +5834,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="172.8">
+    <row r="147" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A147" s="6">
         <v>146</v>
       </c>
-      <c r="B147" s="18">
+      <c r="B147" s="16">
         <v>45002</v>
       </c>
       <c r="C147" s="4" t="s">
@@ -5609,7 +5849,9 @@
         <v>155</v>
       </c>
       <c r="F147" s="4"/>
-      <c r="G147" s="6"/>
+      <c r="G147" s="6">
+        <v>1</v>
+      </c>
       <c r="H147" s="4" t="s">
         <v>54</v>
       </c>
@@ -5622,11 +5864,11 @@
       <c r="K147" s="7"/>
       <c r="L147" s="4"/>
     </row>
-    <row r="148" spans="1:12" ht="409.6">
+    <row r="148" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
         <v>147</v>
       </c>
-      <c r="B148" s="18">
+      <c r="B148" s="16">
         <v>45002</v>
       </c>
       <c r="C148" s="6" t="s">
@@ -5635,7 +5877,9 @@
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
-      <c r="G148" s="6"/>
+      <c r="G148" s="6">
+        <v>1</v>
+      </c>
       <c r="H148" s="6" t="s">
         <v>28</v>
       </c>
@@ -5652,11 +5896,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="28.8">
+    <row r="149" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
         <v>148</v>
       </c>
-      <c r="B149" s="18">
+      <c r="B149" s="16">
         <v>45002</v>
       </c>
       <c r="C149" s="6" t="s">
@@ -5665,7 +5909,9 @@
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
-      <c r="G149" s="6"/>
+      <c r="G149" s="6">
+        <v>1</v>
+      </c>
       <c r="H149" s="6" t="s">
         <v>65</v>
       </c>
@@ -5682,11 +5928,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="144">
+    <row r="150" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A150" s="6">
         <v>149</v>
       </c>
-      <c r="B150" s="18">
+      <c r="B150" s="16">
         <v>45002</v>
       </c>
       <c r="C150" s="6" t="s">
@@ -5695,6 +5941,9 @@
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
+      <c r="G150" s="6">
+        <v>1</v>
+      </c>
       <c r="H150" s="6" t="s">
         <v>13</v>
       </c>
@@ -5711,11 +5960,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="28.8">
+    <row r="151" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
         <v>150</v>
       </c>
-      <c r="B151" s="18">
+      <c r="B151" s="16">
         <v>45002</v>
       </c>
       <c r="C151" s="6" t="s">
@@ -5724,6 +5973,9 @@
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
+      <c r="G151" s="6">
+        <v>1</v>
+      </c>
       <c r="H151" s="6" t="s">
         <v>65</v>
       </c>
@@ -5740,11 +5992,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="374.4">
+    <row r="152" spans="1:12" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A152" s="6">
         <v>151</v>
       </c>
-      <c r="B152" s="18">
+      <c r="B152" s="16">
         <v>45002</v>
       </c>
       <c r="C152" s="4" t="s">
@@ -5753,6 +6005,9 @@
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
+      <c r="G152" s="6">
+        <v>1</v>
+      </c>
       <c r="H152" s="4" t="s">
         <v>43</v>
       </c>
@@ -5769,11 +6024,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="100.8">
+    <row r="153" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A153" s="6">
         <v>152</v>
       </c>
-      <c r="B153" s="18">
+      <c r="B153" s="16">
         <v>45002</v>
       </c>
       <c r="C153" s="4" t="s">
@@ -5782,7 +6037,9 @@
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
+      <c r="G153" s="6">
+        <v>1</v>
+      </c>
       <c r="H153" s="4" t="s">
         <v>69</v>
       </c>
@@ -5799,11 +6056,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="409.6">
+    <row r="154" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A154" s="6">
         <v>153</v>
       </c>
-      <c r="B154" s="18">
+      <c r="B154" s="16">
         <v>45002</v>
       </c>
       <c r="C154" s="6" t="s">
@@ -5812,7 +6069,9 @@
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
-      <c r="G154" s="4"/>
+      <c r="G154" s="6">
+        <v>1</v>
+      </c>
       <c r="H154" s="6" t="s">
         <v>69</v>
       </c>
@@ -5829,11 +6088,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="115.2">
+    <row r="155" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A155" s="6">
         <v>154</v>
       </c>
-      <c r="B155" s="18">
+      <c r="B155" s="16">
         <v>45005</v>
       </c>
       <c r="C155" s="4" t="s">
@@ -5842,7 +6101,9 @@
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
+      <c r="G155" s="6">
+        <v>1</v>
+      </c>
       <c r="H155" s="4" t="s">
         <v>50</v>
       </c>
@@ -5859,11 +6120,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="216">
+    <row r="156" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A156" s="6">
         <v>155</v>
       </c>
-      <c r="B156" s="18">
+      <c r="B156" s="16">
         <v>45005</v>
       </c>
       <c r="C156" s="4" t="s">
@@ -5872,7 +6133,9 @@
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
+      <c r="G156" s="6">
+        <v>1</v>
+      </c>
       <c r="H156" s="4" t="s">
         <v>13</v>
       </c>
@@ -5889,11 +6152,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="409.6">
+    <row r="157" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A157" s="6">
         <v>156</v>
       </c>
-      <c r="B157" s="18">
+      <c r="B157" s="16">
         <v>45005</v>
       </c>
       <c r="C157" s="6" t="s">
@@ -5902,7 +6165,9 @@
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
-      <c r="G157" s="4"/>
+      <c r="G157" s="6">
+        <v>1</v>
+      </c>
       <c r="H157" s="6" t="s">
         <v>28</v>
       </c>
@@ -5919,11 +6184,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="409.6">
+    <row r="158" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A158" s="6">
         <v>157</v>
       </c>
-      <c r="B158" s="18">
+      <c r="B158" s="16">
         <v>45005</v>
       </c>
       <c r="C158" s="6" t="s">
@@ -5932,7 +6197,9 @@
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
-      <c r="G158" s="4"/>
+      <c r="G158" s="6">
+        <v>1</v>
+      </c>
       <c r="H158" s="6" t="s">
         <v>28</v>
       </c>
@@ -5945,11 +6212,11 @@
       <c r="K158" s="8"/>
       <c r="L158" s="4"/>
     </row>
-    <row r="159" spans="1:12" ht="28.8">
+    <row r="159" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="6">
         <v>158</v>
       </c>
-      <c r="B159" s="18">
+      <c r="B159" s="16">
         <v>45005</v>
       </c>
       <c r="C159" s="6" t="s">
@@ -5958,7 +6225,9 @@
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
-      <c r="G159" s="4"/>
+      <c r="G159" s="6">
+        <v>1</v>
+      </c>
       <c r="H159" s="6" t="s">
         <v>65</v>
       </c>
@@ -5975,11 +6244,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="409.6">
+    <row r="160" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A160" s="6">
         <v>159</v>
       </c>
-      <c r="B160" s="18">
+      <c r="B160" s="16">
         <v>45005</v>
       </c>
       <c r="C160" s="6" t="s">
@@ -5988,7 +6257,9 @@
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
-      <c r="G160" s="6"/>
+      <c r="G160" s="6">
+        <v>1</v>
+      </c>
       <c r="H160" s="6" t="s">
         <v>54</v>
       </c>
@@ -6005,11 +6276,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="273.60000000000002">
+    <row r="161" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A161" s="6">
         <v>160</v>
       </c>
-      <c r="B161" s="18">
+      <c r="B161" s="16">
         <v>45005</v>
       </c>
       <c r="C161" s="6" t="s">
@@ -6018,7 +6289,9 @@
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
-      <c r="G161" s="6"/>
+      <c r="G161" s="6">
+        <v>1</v>
+      </c>
       <c r="H161" s="6" t="s">
         <v>50</v>
       </c>
@@ -6035,18 +6308,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="6">
         <v>161</v>
       </c>
-      <c r="B162" s="18">
+      <c r="B162" s="16">
         <v>45005</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
-      <c r="G162" s="6"/>
+      <c r="G162" s="6">
+        <v>1</v>
+      </c>
       <c r="H162" s="6"/>
       <c r="I162" s="6"/>
       <c r="J162" s="6" t="s">
@@ -6055,11 +6330,11 @@
       <c r="K162" s="8"/>
       <c r="L162" s="4"/>
     </row>
-    <row r="163" spans="1:12" ht="244.8">
+    <row r="163" spans="1:12" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A163" s="6">
         <v>162</v>
       </c>
-      <c r="B163" s="18">
+      <c r="B163" s="16">
         <v>45006</v>
       </c>
       <c r="C163" s="6" t="s">
@@ -6068,7 +6343,9 @@
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
-      <c r="G163" s="6"/>
+      <c r="G163" s="6">
+        <v>1</v>
+      </c>
       <c r="H163" s="6" t="s">
         <v>13</v>
       </c>
@@ -6085,11 +6362,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="409.6">
+    <row r="164" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A164" s="6">
         <v>163</v>
       </c>
-      <c r="B164" s="18">
+      <c r="B164" s="16">
         <v>45006</v>
       </c>
       <c r="C164" s="6" t="s">
@@ -6098,7 +6375,9 @@
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
-      <c r="G164" s="6"/>
+      <c r="G164" s="6">
+        <v>1</v>
+      </c>
       <c r="H164" s="6" t="s">
         <v>54</v>
       </c>
@@ -6115,11 +6394,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="288">
+    <row r="165" spans="1:12" ht="288" x14ac:dyDescent="0.3">
       <c r="A165" s="6">
         <v>164</v>
       </c>
-      <c r="B165" s="18">
+      <c r="B165" s="16">
         <v>45006</v>
       </c>
       <c r="C165" s="6" t="s">
@@ -6128,7 +6407,9 @@
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
-      <c r="G165" s="6"/>
+      <c r="G165" s="6">
+        <v>1</v>
+      </c>
       <c r="H165" s="6" t="s">
         <v>28</v>
       </c>
@@ -6145,11 +6426,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="187.2">
+    <row r="166" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A166" s="6">
         <v>165</v>
       </c>
-      <c r="B166" s="18">
+      <c r="B166" s="16">
         <v>45006</v>
       </c>
       <c r="C166" s="6" t="s">
@@ -6158,7 +6439,9 @@
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
-      <c r="G166" s="6"/>
+      <c r="G166" s="6">
+        <v>1</v>
+      </c>
       <c r="H166" s="6" t="s">
         <v>43</v>
       </c>
@@ -6175,11 +6458,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="409.6">
+    <row r="167" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A167" s="6">
         <v>166</v>
       </c>
-      <c r="B167" s="18">
+      <c r="B167" s="16">
         <v>45006</v>
       </c>
       <c r="C167" s="6" t="s">
@@ -6188,7 +6471,9 @@
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
-      <c r="G167" s="6"/>
+      <c r="G167" s="6">
+        <v>1</v>
+      </c>
       <c r="H167" s="6" t="s">
         <v>13</v>
       </c>
@@ -6205,11 +6490,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="288">
+    <row r="168" spans="1:12" ht="288" x14ac:dyDescent="0.3">
       <c r="A168" s="6">
         <v>167</v>
       </c>
-      <c r="B168" s="18">
+      <c r="B168" s="16">
         <v>45006</v>
       </c>
       <c r="C168" s="6" t="s">
@@ -6218,7 +6503,9 @@
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
-      <c r="G168" s="6"/>
+      <c r="G168" s="6">
+        <v>1</v>
+      </c>
       <c r="H168" s="6" t="s">
         <v>54</v>
       </c>
@@ -6235,11 +6522,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="409.6">
+    <row r="169" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A169" s="6">
         <v>168</v>
       </c>
-      <c r="B169" s="18">
+      <c r="B169" s="16">
         <v>45006</v>
       </c>
       <c r="C169" s="4" t="s">
@@ -6248,7 +6535,9 @@
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
-      <c r="G169" s="6"/>
+      <c r="G169" s="6">
+        <v>1</v>
+      </c>
       <c r="H169" s="4" t="s">
         <v>28</v>
       </c>
@@ -6263,11 +6552,11 @@
       </c>
       <c r="L169" s="4"/>
     </row>
-    <row r="170" spans="1:12" ht="28.8">
+    <row r="170" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="6">
         <v>169</v>
       </c>
-      <c r="B170" s="18">
+      <c r="B170" s="16">
         <v>45006</v>
       </c>
       <c r="C170" s="6" t="s">
@@ -6276,7 +6565,9 @@
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
-      <c r="G170" s="6"/>
+      <c r="G170" s="6">
+        <v>1</v>
+      </c>
       <c r="H170" s="6" t="s">
         <v>65</v>
       </c>
@@ -6293,11 +6584,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="409.6">
+    <row r="171" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A171" s="6">
         <v>170</v>
       </c>
-      <c r="B171" s="18">
+      <c r="B171" s="16">
         <v>45006</v>
       </c>
       <c r="C171" s="6"/>
@@ -6306,7 +6597,9 @@
       </c>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
-      <c r="G171" s="6"/>
+      <c r="G171" s="6">
+        <v>1</v>
+      </c>
       <c r="H171" s="6" t="s">
         <v>54</v>
       </c>
@@ -6319,11 +6612,11 @@
       <c r="K171" s="8"/>
       <c r="L171" s="6"/>
     </row>
-    <row r="172" spans="1:12" ht="316.8">
+    <row r="172" spans="1:12" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A172" s="6">
         <v>171</v>
       </c>
-      <c r="B172" s="18">
+      <c r="B172" s="16">
         <v>45006</v>
       </c>
       <c r="C172" s="6" t="s">
@@ -6332,7 +6625,9 @@
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
-      <c r="G172" s="6"/>
+      <c r="G172" s="6">
+        <v>1</v>
+      </c>
       <c r="H172" s="6" t="s">
         <v>54</v>
       </c>
@@ -6349,11 +6644,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="374.4">
+    <row r="173" spans="1:12" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A173" s="6">
         <v>172</v>
       </c>
-      <c r="B173" s="18">
+      <c r="B173" s="16">
         <v>45006</v>
       </c>
       <c r="C173" s="6" t="s">
@@ -6362,7 +6657,9 @@
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
-      <c r="G173" s="6"/>
+      <c r="G173" s="6">
+        <v>1</v>
+      </c>
       <c r="H173" s="6" t="s">
         <v>43</v>
       </c>
@@ -6377,11 +6674,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="259.2">
+    <row r="174" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A174" s="6">
         <v>173</v>
       </c>
-      <c r="B174" s="18">
+      <c r="B174" s="16">
         <v>45006</v>
       </c>
       <c r="C174" s="6" t="s">
@@ -6390,7 +6687,9 @@
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
-      <c r="G174" s="6"/>
+      <c r="G174" s="6">
+        <v>1</v>
+      </c>
       <c r="H174" s="6" t="s">
         <v>54</v>
       </c>
@@ -6407,11 +6706,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="409.6">
+    <row r="175" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A175" s="6">
         <v>174</v>
       </c>
-      <c r="B175" s="18">
+      <c r="B175" s="16">
         <v>45006</v>
       </c>
       <c r="C175" s="6" t="s">
@@ -6420,7 +6719,9 @@
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
-      <c r="G175" s="6"/>
+      <c r="G175" s="6">
+        <v>1</v>
+      </c>
       <c r="H175" s="6" t="s">
         <v>54</v>
       </c>
@@ -6437,11 +6738,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="158.4">
+    <row r="176" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A176" s="6">
         <v>175</v>
       </c>
-      <c r="B176" s="18">
+      <c r="B176" s="16">
         <v>45006</v>
       </c>
       <c r="C176" s="6" t="s">
@@ -6450,7 +6751,9 @@
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
-      <c r="G176" s="6"/>
+      <c r="G176" s="6">
+        <v>1</v>
+      </c>
       <c r="H176" s="6" t="s">
         <v>28</v>
       </c>
@@ -6463,11 +6766,11 @@
       <c r="K176" s="8"/>
       <c r="L176" s="6"/>
     </row>
-    <row r="177" spans="1:12" ht="331.2">
+    <row r="177" spans="1:12" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A177" s="6">
         <v>176</v>
       </c>
-      <c r="B177" s="18">
+      <c r="B177" s="16">
         <v>45006</v>
       </c>
       <c r="C177" s="6" t="s">
@@ -6476,7 +6779,9 @@
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
-      <c r="G177" s="6"/>
+      <c r="G177" s="6">
+        <v>1</v>
+      </c>
       <c r="H177" s="6" t="s">
         <v>28</v>
       </c>
@@ -6491,39 +6796,41 @@
       </c>
       <c r="L177" s="4"/>
     </row>
-    <row r="178" spans="1:12" ht="409.6">
-      <c r="A178" s="24">
+    <row r="178" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A178" s="21">
         <v>177</v>
       </c>
-      <c r="B178" s="18">
+      <c r="B178" s="16">
         <v>45006</v>
       </c>
-      <c r="C178" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D178" s="24"/>
-      <c r="E178" s="24"/>
-      <c r="F178" s="24"/>
-      <c r="G178" s="6"/>
-      <c r="H178" s="24" t="s">
+      <c r="C178" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D178" s="21"/>
+      <c r="E178" s="21"/>
+      <c r="F178" s="21"/>
+      <c r="G178" s="6">
+        <v>1</v>
+      </c>
+      <c r="H178" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I178" s="24" t="s">
+      <c r="I178" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="J178" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="K178" s="25">
+      <c r="J178" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K178" s="22">
         <v>0.20208333333333331</v>
       </c>
-      <c r="L178" s="24"/>
-    </row>
-    <row r="179" spans="1:12" ht="216">
+      <c r="L178" s="21"/>
+    </row>
+    <row r="179" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A179" s="6">
         <v>178</v>
       </c>
-      <c r="B179" s="18">
+      <c r="B179" s="16">
         <v>45006</v>
       </c>
       <c r="C179" s="6" t="s">
@@ -6532,7 +6839,9 @@
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
-      <c r="G179" s="6"/>
+      <c r="G179" s="6">
+        <v>1</v>
+      </c>
       <c r="H179" s="6" t="s">
         <v>28</v>
       </c>
@@ -6549,11 +6858,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="409.6">
+    <row r="180" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A180" s="6">
         <v>179</v>
       </c>
-      <c r="B180" s="18">
+      <c r="B180" s="16">
         <v>45006</v>
       </c>
       <c r="C180" s="4" t="s">
@@ -6562,7 +6871,9 @@
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
-      <c r="G180" s="4"/>
+      <c r="G180" s="6">
+        <v>1</v>
+      </c>
       <c r="H180" s="4" t="s">
         <v>28</v>
       </c>
@@ -6577,11 +6888,11 @@
       </c>
       <c r="L180" s="4"/>
     </row>
-    <row r="181" spans="1:12" ht="216">
+    <row r="181" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A181" s="6">
         <v>180</v>
       </c>
-      <c r="B181" s="18">
+      <c r="B181" s="16">
         <v>45007</v>
       </c>
       <c r="C181" s="6" t="s">
@@ -6590,7 +6901,9 @@
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
-      <c r="G181" s="6"/>
+      <c r="G181" s="6">
+        <v>1</v>
+      </c>
       <c r="H181" s="6" t="s">
         <v>28</v>
       </c>
@@ -6607,11 +6920,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="409.6">
+    <row r="182" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A182" s="6">
         <v>181</v>
       </c>
-      <c r="B182" s="18">
+      <c r="B182" s="16">
         <v>45007</v>
       </c>
       <c r="C182" s="4" t="s">
@@ -6620,7 +6933,9 @@
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
-      <c r="G182" s="4"/>
+      <c r="G182" s="6">
+        <v>1</v>
+      </c>
       <c r="H182" s="4" t="s">
         <v>54</v>
       </c>
@@ -6637,18 +6952,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="6">
         <v>182</v>
       </c>
-      <c r="B183" s="18">
+      <c r="B183" s="16">
         <v>45007</v>
       </c>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
-      <c r="G183" s="6"/>
+      <c r="G183" s="6">
+        <v>1</v>
+      </c>
       <c r="H183" s="6"/>
       <c r="I183" s="6"/>
       <c r="J183" s="6" t="s">
@@ -6657,11 +6974,11 @@
       <c r="K183" s="8"/>
       <c r="L183" s="6"/>
     </row>
-    <row r="184" spans="1:12" ht="259.2">
+    <row r="184" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>183</v>
       </c>
-      <c r="B184" s="18">
+      <c r="B184" s="16">
         <v>45007</v>
       </c>
       <c r="C184" s="4" t="s">
@@ -6670,7 +6987,9 @@
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
-      <c r="G184" s="4"/>
+      <c r="G184" s="6">
+        <v>1</v>
+      </c>
       <c r="H184" s="4" t="s">
         <v>13</v>
       </c>
@@ -6687,11 +7006,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="409.6">
+    <row r="185" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>184</v>
       </c>
-      <c r="B185" s="18">
+      <c r="B185" s="16">
         <v>45007</v>
       </c>
       <c r="C185" s="4" t="s">
@@ -6700,7 +7019,9 @@
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
-      <c r="G185" s="4"/>
+      <c r="G185" s="6">
+        <v>1</v>
+      </c>
       <c r="H185" s="4" t="s">
         <v>43</v>
       </c>
@@ -6717,18 +7038,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="288">
+    <row r="186" spans="1:12" ht="288" x14ac:dyDescent="0.3">
       <c r="A186" s="6">
         <v>185</v>
       </c>
-      <c r="B186" s="18">
+      <c r="B186" s="16">
         <v>45007</v>
       </c>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
-      <c r="G186" s="4"/>
+      <c r="G186" s="6">
+        <v>1</v>
+      </c>
       <c r="H186" s="6" t="s">
         <v>28</v>
       </c>
@@ -6745,11 +7068,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="331.2">
+    <row r="187" spans="1:12" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>186</v>
       </c>
-      <c r="B187" s="18">
+      <c r="B187" s="16">
         <v>45007</v>
       </c>
       <c r="C187" s="4" t="s">
@@ -6758,7 +7081,9 @@
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
-      <c r="G187" s="4"/>
+      <c r="G187" s="6">
+        <v>1</v>
+      </c>
       <c r="H187" s="4" t="s">
         <v>28</v>
       </c>
@@ -6775,11 +7100,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="403.2">
+    <row r="188" spans="1:12" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <v>187</v>
       </c>
-      <c r="B188" s="18">
+      <c r="B188" s="16">
         <v>45007</v>
       </c>
       <c r="C188" s="4" t="s">
@@ -6788,7 +7113,9 @@
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
-      <c r="G188" s="4"/>
+      <c r="G188" s="6">
+        <v>1</v>
+      </c>
       <c r="H188" s="4" t="s">
         <v>43</v>
       </c>
@@ -6805,11 +7132,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="144">
+    <row r="189" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>188</v>
       </c>
-      <c r="B189" s="18">
+      <c r="B189" s="16">
         <v>45007</v>
       </c>
       <c r="C189" s="4" t="s">
@@ -6818,7 +7145,9 @@
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
-      <c r="G189" s="4"/>
+      <c r="G189" s="6">
+        <v>1</v>
+      </c>
       <c r="H189" s="4" t="s">
         <v>13</v>
       </c>
@@ -6835,11 +7164,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="409.6">
+    <row r="190" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>189</v>
       </c>
-      <c r="B190" s="18">
+      <c r="B190" s="16">
         <v>45007</v>
       </c>
       <c r="C190" s="4" t="s">
@@ -6848,7 +7177,9 @@
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
-      <c r="G190" s="4"/>
+      <c r="G190" s="6">
+        <v>1</v>
+      </c>
       <c r="H190" s="4" t="s">
         <v>43</v>
       </c>
@@ -6865,11 +7196,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="409.6">
+    <row r="191" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A191" s="6">
         <v>190</v>
       </c>
-      <c r="B191" s="18">
+      <c r="B191" s="16">
         <v>45007</v>
       </c>
       <c r="C191" s="6" t="s">
@@ -6878,7 +7209,9 @@
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
-      <c r="G191" s="4"/>
+      <c r="G191" s="6">
+        <v>1</v>
+      </c>
       <c r="H191" s="6" t="s">
         <v>43</v>
       </c>
@@ -6891,9 +7224,9 @@
       <c r="K191" s="8"/>
       <c r="L191" s="6"/>
     </row>
-    <row r="192" spans="1:12" ht="409.6">
+    <row r="192" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A192" s="4"/>
-      <c r="B192" s="18">
+      <c r="B192" s="16">
         <v>45007</v>
       </c>
       <c r="C192" s="4" t="s">
@@ -6902,7 +7235,9 @@
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
-      <c r="G192" s="6"/>
+      <c r="G192" s="6">
+        <v>1</v>
+      </c>
       <c r="H192" s="6" t="s">
         <v>69</v>
       </c>
@@ -6919,9 +7254,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="409.6">
+    <row r="193" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A193" s="6"/>
-      <c r="B193" s="18">
+      <c r="B193" s="16">
         <v>45007</v>
       </c>
       <c r="C193" s="6" t="s">
@@ -6930,7 +7265,9 @@
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
-      <c r="G193" s="6"/>
+      <c r="G193" s="6">
+        <v>1</v>
+      </c>
       <c r="H193" s="6" t="s">
         <v>28</v>
       </c>
@@ -6947,9 +7284,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="316.8">
+    <row r="194" spans="1:12" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A194" s="4"/>
-      <c r="B194" s="18">
+      <c r="B194" s="16">
         <v>45008</v>
       </c>
       <c r="C194" s="4" t="s">
@@ -6958,7 +7295,9 @@
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
-      <c r="G194" s="4"/>
+      <c r="G194" s="6">
+        <v>1</v>
+      </c>
       <c r="H194" s="4" t="s">
         <v>28</v>
       </c>
@@ -6975,9 +7314,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="115.2">
+    <row r="195" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A195" s="6"/>
-      <c r="B195" s="18">
+      <c r="B195" s="16">
         <v>45008</v>
       </c>
       <c r="C195" s="6" t="s">
@@ -6986,7 +7325,9 @@
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
-      <c r="G195" s="6"/>
+      <c r="G195" s="6">
+        <v>1</v>
+      </c>
       <c r="H195" s="6" t="s">
         <v>50</v>
       </c>
@@ -7003,9 +7344,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="28.8">
+    <row r="196" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="6"/>
-      <c r="B196" s="18">
+      <c r="B196" s="16">
         <v>45008</v>
       </c>
       <c r="C196" s="6" t="s">
@@ -7014,7 +7355,9 @@
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
-      <c r="G196" s="6"/>
+      <c r="G196" s="6">
+        <v>1</v>
+      </c>
       <c r="H196" s="6" t="s">
         <v>65</v>
       </c>
@@ -7031,9 +7374,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="273.60000000000002">
+    <row r="197" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A197" s="6"/>
-      <c r="B197" s="18">
+      <c r="B197" s="16">
         <v>45008</v>
       </c>
       <c r="C197" s="6" t="s">
@@ -7042,7 +7385,9 @@
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
-      <c r="G197" s="6"/>
+      <c r="G197" s="6">
+        <v>1</v>
+      </c>
       <c r="H197" s="6" t="s">
         <v>54</v>
       </c>
@@ -7059,9 +7404,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="331.2">
+    <row r="198" spans="1:12" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A198" s="4"/>
-      <c r="B198" s="18">
+      <c r="B198" s="16">
         <v>45008</v>
       </c>
       <c r="C198" s="4" t="s">
@@ -7070,7 +7415,9 @@
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
-      <c r="G198" s="4"/>
+      <c r="G198" s="6">
+        <v>1</v>
+      </c>
       <c r="H198" s="4" t="s">
         <v>54</v>
       </c>
@@ -7087,9 +7434,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="259.2">
+    <row r="199" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A199" s="4"/>
-      <c r="B199" s="18">
+      <c r="B199" s="16">
         <v>45008</v>
       </c>
       <c r="C199" s="4" t="s">
@@ -7098,7 +7445,9 @@
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
-      <c r="G199" s="4"/>
+      <c r="G199" s="6">
+        <v>1</v>
+      </c>
       <c r="H199" s="4" t="s">
         <v>54</v>
       </c>
@@ -7115,9 +7464,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="409.6">
+    <row r="200" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A200" s="6"/>
-      <c r="B200" s="18">
+      <c r="B200" s="16">
         <v>45008</v>
       </c>
       <c r="C200" s="6" t="s">
@@ -7126,11 +7475,13 @@
       <c r="D200" s="6"/>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
-      <c r="G200" s="4"/>
+      <c r="G200" s="6">
+        <v>1</v>
+      </c>
       <c r="H200" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I200" s="24" t="s">
+      <c r="I200" s="21" t="s">
         <v>203</v>
       </c>
       <c r="J200" s="6" t="s">
@@ -7143,9 +7494,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="259.2">
+    <row r="201" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A201" s="6"/>
-      <c r="B201" s="18">
+      <c r="B201" s="16">
         <v>45008</v>
       </c>
       <c r="C201" s="6" t="s">
@@ -7154,22 +7505,24 @@
       <c r="D201" s="6"/>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
-      <c r="G201" s="6"/>
-      <c r="H201" s="14" t="s">
+      <c r="G201" s="6">
+        <v>1</v>
+      </c>
+      <c r="H201" s="12" t="s">
         <v>54</v>
       </c>
       <c r="I201" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="J201" s="15" t="s">
+      <c r="J201" s="13" t="s">
         <v>21</v>
       </c>
       <c r="K201" s="8"/>
       <c r="L201" s="6"/>
     </row>
-    <row r="202" spans="1:12" ht="244.8">
+    <row r="202" spans="1:12" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A202" s="4"/>
-      <c r="B202" s="18">
+      <c r="B202" s="16">
         <v>45008</v>
       </c>
       <c r="C202" s="4" t="s">
@@ -7178,14 +7531,16 @@
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
-      <c r="G202" s="6"/>
-      <c r="H202" s="21" t="s">
+      <c r="G202" s="6">
+        <v>1</v>
+      </c>
+      <c r="H202" s="19" t="s">
         <v>54</v>
       </c>
       <c r="I202" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="J202" s="22" t="s">
+      <c r="J202" s="20" t="s">
         <v>17</v>
       </c>
       <c r="K202" s="7">
@@ -7195,9 +7550,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="28.8">
+    <row r="203" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="6"/>
-      <c r="B203" s="18">
+      <c r="B203" s="16">
         <v>45008</v>
       </c>
       <c r="C203" s="6" t="s">
@@ -7206,14 +7561,16 @@
       <c r="D203" s="6"/>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
-      <c r="G203" s="6"/>
-      <c r="H203" s="14" t="s">
+      <c r="G203" s="6">
+        <v>1</v>
+      </c>
+      <c r="H203" s="12" t="s">
         <v>65</v>
       </c>
       <c r="I203" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J203" s="15" t="s">
+      <c r="J203" s="13" t="s">
         <v>12</v>
       </c>
       <c r="K203" s="8">
@@ -7223,9 +7580,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="409.6">
+    <row r="204" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A204" s="6"/>
-      <c r="B204" s="18">
+      <c r="B204" s="16">
         <v>45008</v>
       </c>
       <c r="C204" s="6" t="s">
@@ -7234,14 +7591,16 @@
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
-      <c r="G204" s="6"/>
-      <c r="H204" s="14" t="s">
+      <c r="G204" s="6">
+        <v>1</v>
+      </c>
+      <c r="H204" s="12" t="s">
         <v>54</v>
       </c>
       <c r="I204" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="J204" s="15" t="s">
+      <c r="J204" s="13" t="s">
         <v>21</v>
       </c>
       <c r="K204" s="8">
@@ -7251,9 +7610,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="158.4">
+    <row r="205" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A205" s="4"/>
-      <c r="B205" s="18">
+      <c r="B205" s="16">
         <v>45008</v>
       </c>
       <c r="C205" s="4" t="s">
@@ -7262,14 +7621,16 @@
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
-      <c r="G205" s="6"/>
-      <c r="H205" s="21" t="s">
+      <c r="G205" s="6">
+        <v>1</v>
+      </c>
+      <c r="H205" s="19" t="s">
         <v>43</v>
       </c>
       <c r="I205" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="J205" s="22" t="s">
+      <c r="J205" s="20" t="s">
         <v>17</v>
       </c>
       <c r="K205" s="7">
@@ -7279,9 +7640,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="144">
+    <row r="206" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A206" s="6"/>
-      <c r="B206" s="18">
+      <c r="B206" s="16">
         <v>45008</v>
       </c>
       <c r="C206" s="6" t="s">
@@ -7290,11 +7651,13 @@
       <c r="D206" s="6"/>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
-      <c r="G206" s="6"/>
+      <c r="G206" s="6">
+        <v>1</v>
+      </c>
       <c r="H206" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I206" s="26" t="s">
+      <c r="I206" s="23" t="s">
         <v>208</v>
       </c>
       <c r="J206" s="6" t="s">
@@ -7307,9 +7670,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="409.6">
+    <row r="207" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A207" s="4"/>
-      <c r="B207" s="18">
+      <c r="B207" s="16">
         <v>45009</v>
       </c>
       <c r="C207" s="4" t="s">
@@ -7318,7 +7681,9 @@
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
-      <c r="G207" s="6"/>
+      <c r="G207" s="6">
+        <v>1</v>
+      </c>
       <c r="H207" s="6" t="s">
         <v>54</v>
       </c>
@@ -7333,9 +7698,9 @@
       </c>
       <c r="L207" s="4"/>
     </row>
-    <row r="208" spans="1:12" ht="172.8">
+    <row r="208" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A208" s="6"/>
-      <c r="B208" s="18">
+      <c r="B208" s="16">
         <v>45009</v>
       </c>
       <c r="C208" s="6" t="s">
@@ -7344,7 +7709,9 @@
       <c r="D208" s="6"/>
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
-      <c r="G208" s="6"/>
+      <c r="G208" s="6">
+        <v>1</v>
+      </c>
       <c r="H208" s="6" t="s">
         <v>13</v>
       </c>
@@ -7357,11 +7724,11 @@
       <c r="K208" s="8"/>
       <c r="L208" s="6"/>
     </row>
-    <row r="209" spans="1:12" ht="216">
+    <row r="209" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A209" s="6">
         <v>210</v>
       </c>
-      <c r="B209" s="18">
+      <c r="B209" s="16">
         <v>45009</v>
       </c>
       <c r="C209" s="6" t="s">
@@ -7370,7 +7737,9 @@
       <c r="D209" s="6"/>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
-      <c r="G209" s="6"/>
+      <c r="G209" s="6">
+        <v>1</v>
+      </c>
       <c r="H209" s="6" t="s">
         <v>43</v>
       </c>
@@ -7387,11 +7756,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="409.6">
+    <row r="210" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A210" s="6">
         <v>211</v>
       </c>
-      <c r="B210" s="18">
+      <c r="B210" s="16">
         <v>45009</v>
       </c>
       <c r="C210" s="6" t="s">
@@ -7400,7 +7769,9 @@
       <c r="D210" s="6"/>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
-      <c r="G210" s="6"/>
+      <c r="G210" s="6">
+        <v>1</v>
+      </c>
       <c r="H210" s="6" t="s">
         <v>43</v>
       </c>
@@ -7417,11 +7788,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="374.4">
+    <row r="211" spans="1:12" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A211" s="6">
         <v>212</v>
       </c>
-      <c r="B211" s="18">
+      <c r="B211" s="16">
         <v>45009</v>
       </c>
       <c r="C211" s="6" t="s">
@@ -7430,7 +7801,9 @@
       <c r="D211" s="6"/>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
-      <c r="G211" s="6"/>
+      <c r="G211" s="6">
+        <v>1</v>
+      </c>
       <c r="H211" s="6" t="s">
         <v>28</v>
       </c>
@@ -7447,11 +7820,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="331.2">
+    <row r="212" spans="1:12" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A212" s="6">
         <v>213</v>
       </c>
-      <c r="B212" s="18">
+      <c r="B212" s="16">
         <v>45009</v>
       </c>
       <c r="C212" s="4" t="s">
@@ -7460,7 +7833,9 @@
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
-      <c r="G212" s="6"/>
+      <c r="G212" s="6">
+        <v>1</v>
+      </c>
       <c r="H212" s="6" t="s">
         <v>13</v>
       </c>
@@ -7477,11 +7852,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="273.60000000000002">
+    <row r="213" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
         <v>214</v>
       </c>
-      <c r="B213" s="18">
+      <c r="B213" s="16">
         <v>45009</v>
       </c>
       <c r="C213" s="4" t="s">
@@ -7490,7 +7865,9 @@
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
-      <c r="G213" s="6"/>
+      <c r="G213" s="6">
+        <v>1</v>
+      </c>
       <c r="H213" s="4" t="s">
         <v>13</v>
       </c>
@@ -7507,11 +7884,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="403.2">
+    <row r="214" spans="1:12" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A214" s="4">
         <v>215</v>
       </c>
-      <c r="B214" s="18">
+      <c r="B214" s="16">
         <v>45009</v>
       </c>
       <c r="C214" s="4" t="s">
@@ -7520,7 +7897,9 @@
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
-      <c r="G214" s="6"/>
+      <c r="G214" s="6">
+        <v>1</v>
+      </c>
       <c r="H214" s="4" t="s">
         <v>28</v>
       </c>
@@ -7537,11 +7916,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="409.6">
+    <row r="215" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
         <v>216</v>
       </c>
-      <c r="B215" s="18">
+      <c r="B215" s="16">
         <v>45009</v>
       </c>
       <c r="C215" s="4" t="s">
@@ -7550,7 +7929,9 @@
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
-      <c r="G215" s="4"/>
+      <c r="G215" s="6">
+        <v>1</v>
+      </c>
       <c r="H215" s="4" t="s">
         <v>54</v>
       </c>
@@ -7567,11 +7948,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="201.6">
+    <row r="216" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A216" s="4">
         <v>217</v>
       </c>
-      <c r="B216" s="18">
+      <c r="B216" s="16">
         <v>45012</v>
       </c>
       <c r="C216" s="4" t="s">
@@ -7580,7 +7961,9 @@
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
-      <c r="G216" s="6"/>
+      <c r="G216" s="6">
+        <v>1</v>
+      </c>
       <c r="H216" s="6" t="s">
         <v>28</v>
       </c>
@@ -7597,11 +7980,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="187.2">
+    <row r="217" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A217" s="6">
         <v>218</v>
       </c>
-      <c r="B217" s="18">
+      <c r="B217" s="16">
         <v>45012</v>
       </c>
       <c r="C217" s="6" t="s">
@@ -7610,7 +7993,9 @@
       <c r="D217" s="6"/>
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
-      <c r="G217" s="6"/>
+      <c r="G217" s="6">
+        <v>1</v>
+      </c>
       <c r="H217" s="6" t="s">
         <v>69</v>
       </c>
@@ -7627,11 +8012,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="409.6">
+    <row r="218" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A218" s="6">
         <v>219</v>
       </c>
-      <c r="B218" s="18">
+      <c r="B218" s="16">
         <v>45012</v>
       </c>
       <c r="C218" s="6" t="s">
@@ -7640,7 +8025,9 @@
       <c r="D218" s="6"/>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
-      <c r="G218" s="6"/>
+      <c r="G218" s="6">
+        <v>1</v>
+      </c>
       <c r="H218" s="6" t="s">
         <v>28</v>
       </c>
@@ -7657,11 +8044,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="288">
+    <row r="219" spans="1:12" ht="288" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
         <v>220</v>
       </c>
-      <c r="B219" s="18">
+      <c r="B219" s="16">
         <v>45012</v>
       </c>
       <c r="C219" s="4" t="s">
@@ -7670,7 +8057,9 @@
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
-      <c r="G219" s="6"/>
+      <c r="G219" s="6">
+        <v>1</v>
+      </c>
       <c r="H219" s="6" t="s">
         <v>43</v>
       </c>
@@ -7687,11 +8076,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="230.4">
+    <row r="220" spans="1:12" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A220" s="6">
         <v>221</v>
       </c>
-      <c r="B220" s="18">
+      <c r="B220" s="16">
         <v>45012</v>
       </c>
       <c r="C220" s="6" t="s">
@@ -7700,7 +8089,9 @@
       <c r="D220" s="6"/>
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
-      <c r="G220" s="6"/>
+      <c r="G220" s="6">
+        <v>1</v>
+      </c>
       <c r="H220" s="6" t="s">
         <v>13</v>
       </c>
@@ -7717,11 +8108,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:12">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
         <v>222</v>
       </c>
-      <c r="B221" s="18">
+      <c r="B221" s="16">
         <v>45012</v>
       </c>
       <c r="C221" s="4" t="s">
@@ -7730,7 +8121,9 @@
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
-      <c r="G221" s="4"/>
+      <c r="G221" s="6">
+        <v>1</v>
+      </c>
       <c r="H221" s="4" t="s">
         <v>65</v>
       </c>
@@ -7747,11 +8140,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="216">
+    <row r="222" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A222" s="6">
         <v>223</v>
       </c>
-      <c r="B222" s="18">
+      <c r="B222" s="16">
         <v>45012</v>
       </c>
       <c r="C222" s="6" t="s">
@@ -7760,7 +8153,9 @@
       <c r="D222" s="6"/>
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
-      <c r="G222" s="6"/>
+      <c r="G222" s="6">
+        <v>1</v>
+      </c>
       <c r="H222" s="6" t="s">
         <v>54</v>
       </c>
@@ -7777,11 +8172,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="374.4">
+    <row r="223" spans="1:12" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
         <v>224</v>
       </c>
-      <c r="B223" s="18">
+      <c r="B223" s="16">
         <v>45012</v>
       </c>
       <c r="C223" s="6" t="s">
@@ -7790,7 +8185,9 @@
       <c r="D223" s="6"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
-      <c r="G223" s="6"/>
+      <c r="G223" s="6">
+        <v>1</v>
+      </c>
       <c r="H223" s="6" t="s">
         <v>28</v>
       </c>
@@ -7807,11 +8204,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:12">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
         <v>225</v>
       </c>
-      <c r="B224" s="18">
+      <c r="B224" s="16">
         <v>45012</v>
       </c>
       <c r="C224" s="4" t="s">
@@ -7820,7 +8217,9 @@
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
-      <c r="G224" s="4"/>
+      <c r="G224" s="6">
+        <v>1</v>
+      </c>
       <c r="H224" s="4" t="s">
         <v>65</v>
       </c>
@@ -7837,11 +8236,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="225" spans="1:12" ht="259.2">
+    <row r="225" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A225" s="6">
         <v>226</v>
       </c>
-      <c r="B225" s="18">
+      <c r="B225" s="16">
         <v>45013</v>
       </c>
       <c r="C225" s="6" t="s">
@@ -7850,7 +8249,9 @@
       <c r="D225" s="6"/>
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
-      <c r="G225" s="6"/>
+      <c r="G225" s="6">
+        <v>1</v>
+      </c>
       <c r="H225" s="6" t="s">
         <v>13</v>
       </c>
@@ -7867,11 +8268,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:12">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
         <v>227</v>
       </c>
-      <c r="B226" s="18">
+      <c r="B226" s="16">
         <v>45013</v>
       </c>
       <c r="C226" s="4" t="s">
@@ -7880,7 +8281,9 @@
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
-      <c r="G226" s="4"/>
+      <c r="G226" s="6">
+        <v>1</v>
+      </c>
       <c r="H226" s="4" t="s">
         <v>28</v>
       </c>
@@ -7893,11 +8296,11 @@
       <c r="K226" s="4"/>
       <c r="L226" s="4"/>
     </row>
-    <row r="227" spans="1:12" ht="288">
+    <row r="227" spans="1:12" ht="288" x14ac:dyDescent="0.3">
       <c r="A227" s="4">
         <v>228</v>
       </c>
-      <c r="B227" s="18">
+      <c r="B227" s="16">
         <v>45013</v>
       </c>
       <c r="C227" s="6" t="s">
@@ -7906,7 +8309,9 @@
       <c r="D227" s="6"/>
       <c r="E227" s="6"/>
       <c r="F227" s="6"/>
-      <c r="G227" s="6"/>
+      <c r="G227" s="6">
+        <v>1</v>
+      </c>
       <c r="H227" s="6" t="s">
         <v>28</v>
       </c>
@@ -7923,11 +8328,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="228" spans="1:12" ht="409.6">
+    <row r="228" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A228" s="4">
         <v>229</v>
       </c>
-      <c r="B228" s="18">
+      <c r="B228" s="16">
         <v>45013</v>
       </c>
       <c r="C228" s="4" t="s">
@@ -7936,7 +8341,9 @@
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
-      <c r="G228" s="6"/>
+      <c r="G228" s="6">
+        <v>1</v>
+      </c>
       <c r="H228" s="4" t="s">
         <v>43</v>
       </c>
@@ -7953,11 +8360,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="216">
+    <row r="229" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A229" s="6">
         <v>230</v>
       </c>
-      <c r="B229" s="18">
+      <c r="B229" s="16">
         <v>45013</v>
       </c>
       <c r="C229" s="6" t="s">
@@ -7966,7 +8373,9 @@
       <c r="D229" s="6"/>
       <c r="E229" s="6"/>
       <c r="F229" s="6"/>
-      <c r="G229" s="6"/>
+      <c r="G229" s="6">
+        <v>1</v>
+      </c>
       <c r="H229" s="6" t="s">
         <v>28</v>
       </c>
@@ -7983,11 +8392,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:12" ht="409.6">
+    <row r="230" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
         <v>231</v>
       </c>
-      <c r="B230" s="18">
+      <c r="B230" s="16">
         <v>45013</v>
       </c>
       <c r="C230" s="6" t="s">
@@ -7996,7 +8405,9 @@
       <c r="D230" s="6"/>
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
-      <c r="G230" s="6"/>
+      <c r="G230" s="6">
+        <v>1</v>
+      </c>
       <c r="H230" s="6" t="s">
         <v>43</v>
       </c>
@@ -8013,11 +8424,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:12" ht="316.8">
+    <row r="231" spans="1:12" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
         <v>232</v>
       </c>
-      <c r="B231" s="18">
+      <c r="B231" s="16">
         <v>45013</v>
       </c>
       <c r="C231" s="4" t="s">
@@ -8026,7 +8437,9 @@
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
-      <c r="G231" s="4"/>
+      <c r="G231" s="6">
+        <v>1</v>
+      </c>
       <c r="H231" s="4" t="s">
         <v>28</v>
       </c>
@@ -8043,11 +8456,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:12" ht="201.6">
+    <row r="232" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A232" s="6">
         <v>233</v>
       </c>
-      <c r="B232" s="18">
+      <c r="B232" s="16">
         <v>45013</v>
       </c>
       <c r="C232" s="6" t="s">
@@ -8056,7 +8469,9 @@
       <c r="D232" s="6"/>
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
-      <c r="G232" s="6"/>
+      <c r="G232" s="6">
+        <v>1</v>
+      </c>
       <c r="H232" s="6" t="s">
         <v>13</v>
       </c>
@@ -8073,11 +8488,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="409.6">
+    <row r="233" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A233" s="6">
         <v>234</v>
       </c>
-      <c r="B233" s="18">
+      <c r="B233" s="16">
         <v>45013</v>
       </c>
       <c r="C233" s="6" t="s">
@@ -8086,7 +8501,9 @@
       <c r="D233" s="6"/>
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
-      <c r="G233" s="24"/>
+      <c r="G233" s="6">
+        <v>1</v>
+      </c>
       <c r="H233" s="6" t="s">
         <v>54</v>
       </c>
@@ -8103,11 +8520,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="234" spans="1:12" ht="409.6">
+    <row r="234" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>235</v>
       </c>
-      <c r="B234" s="18">
+      <c r="B234" s="16">
         <v>45013</v>
       </c>
       <c r="C234" s="4" t="s">
@@ -8115,9 +8532,11 @@
       </c>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
-      <c r="F234" s="21"/>
-      <c r="G234" s="27"/>
-      <c r="H234" s="22" t="s">
+      <c r="F234" s="19"/>
+      <c r="G234" s="6">
+        <v>1</v>
+      </c>
+      <c r="H234" s="20" t="s">
         <v>43</v>
       </c>
       <c r="I234" s="6" t="s">
@@ -8129,11 +8548,11 @@
       <c r="K234" s="4"/>
       <c r="L234" s="4"/>
     </row>
-    <row r="235" spans="1:12" ht="216">
+    <row r="235" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A235" s="6">
         <v>236</v>
       </c>
-      <c r="B235" s="18">
+      <c r="B235" s="16">
         <v>45013</v>
       </c>
       <c r="C235" s="6" t="s">
@@ -8141,9 +8560,11 @@
       </c>
       <c r="D235" s="6"/>
       <c r="E235" s="6"/>
-      <c r="F235" s="14"/>
-      <c r="G235" s="24"/>
-      <c r="H235" s="15" t="s">
+      <c r="F235" s="12"/>
+      <c r="G235" s="6">
+        <v>1</v>
+      </c>
+      <c r="H235" s="13" t="s">
         <v>28</v>
       </c>
       <c r="I235" s="6" t="s">
@@ -8159,11 +8580,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:12" ht="216">
+    <row r="236" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A236" s="6">
         <v>237</v>
       </c>
-      <c r="B236" s="18">
+      <c r="B236" s="16">
         <v>45013</v>
       </c>
       <c r="C236" s="6" t="s">
@@ -8171,9 +8592,11 @@
       </c>
       <c r="D236" s="6"/>
       <c r="E236" s="6"/>
-      <c r="F236" s="14"/>
-      <c r="G236" s="6"/>
-      <c r="H236" s="15" t="s">
+      <c r="F236" s="12"/>
+      <c r="G236" s="6">
+        <v>1</v>
+      </c>
+      <c r="H236" s="13" t="s">
         <v>28</v>
       </c>
       <c r="I236" s="6" t="s">
@@ -8189,11 +8612,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="187.2">
+    <row r="237" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A237" s="6">
         <v>238</v>
       </c>
-      <c r="B237" s="18">
+      <c r="B237" s="16">
         <v>45014</v>
       </c>
       <c r="C237" s="6" t="s">
@@ -8201,9 +8624,11 @@
       </c>
       <c r="D237" s="6"/>
       <c r="E237" s="6"/>
-      <c r="F237" s="14"/>
-      <c r="G237" s="6"/>
-      <c r="H237" s="15" t="s">
+      <c r="F237" s="12"/>
+      <c r="G237" s="6">
+        <v>1</v>
+      </c>
+      <c r="H237" s="13" t="s">
         <v>28</v>
       </c>
       <c r="I237" s="6" t="s">
@@ -8219,11 +8644,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:12" ht="409.6">
+    <row r="238" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
         <v>239</v>
       </c>
-      <c r="B238" s="18">
+      <c r="B238" s="16">
         <v>45014</v>
       </c>
       <c r="C238" s="4" t="s">
@@ -8231,9 +8656,11 @@
       </c>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
-      <c r="F238" s="21"/>
-      <c r="G238" s="6"/>
-      <c r="H238" s="22" t="s">
+      <c r="F238" s="19"/>
+      <c r="G238" s="6">
+        <v>1</v>
+      </c>
+      <c r="H238" s="20" t="s">
         <v>54</v>
       </c>
       <c r="I238" s="6" t="s">
@@ -8249,11 +8676,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:12" ht="187.2">
+    <row r="239" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A239" s="6">
         <v>240</v>
       </c>
-      <c r="B239" s="18">
+      <c r="B239" s="16">
         <v>45014</v>
       </c>
       <c r="C239" s="6" t="s">
@@ -8261,9 +8688,11 @@
       </c>
       <c r="D239" s="6"/>
       <c r="E239" s="6"/>
-      <c r="F239" s="14"/>
-      <c r="G239" s="6"/>
-      <c r="H239" s="15" t="s">
+      <c r="F239" s="12"/>
+      <c r="G239" s="6">
+        <v>1</v>
+      </c>
+      <c r="H239" s="13" t="s">
         <v>54</v>
       </c>
       <c r="I239" s="6" t="s">
@@ -8279,11 +8708,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:12" ht="158.4">
+    <row r="240" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A240" s="6">
         <v>241</v>
       </c>
-      <c r="B240" s="18">
+      <c r="B240" s="16">
         <v>45014</v>
       </c>
       <c r="C240" s="6" t="s">
@@ -8291,9 +8720,11 @@
       </c>
       <c r="D240" s="6"/>
       <c r="E240" s="6"/>
-      <c r="F240" s="14"/>
-      <c r="G240" s="28"/>
-      <c r="H240" s="15" t="s">
+      <c r="F240" s="12"/>
+      <c r="G240" s="6">
+        <v>1</v>
+      </c>
+      <c r="H240" s="13" t="s">
         <v>28</v>
       </c>
       <c r="I240" s="6" t="s">
@@ -8305,11 +8736,11 @@
       <c r="K240" s="6"/>
       <c r="L240" s="6"/>
     </row>
-    <row r="241" spans="1:12" ht="244.8">
+    <row r="241" spans="1:12" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A241" s="6">
         <v>242</v>
       </c>
-      <c r="B241" s="18">
+      <c r="B241" s="16">
         <v>45014</v>
       </c>
       <c r="C241" s="6" t="s">
@@ -8317,9 +8748,11 @@
       </c>
       <c r="D241" s="6"/>
       <c r="E241" s="6"/>
-      <c r="F241" s="14"/>
-      <c r="G241" s="6"/>
-      <c r="H241" s="15" t="s">
+      <c r="F241" s="12"/>
+      <c r="G241" s="6">
+        <v>1</v>
+      </c>
+      <c r="H241" s="13" t="s">
         <v>54</v>
       </c>
       <c r="I241" s="6" t="s">
@@ -8335,11 +8768,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:12" ht="115.2">
+    <row r="242" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A242" s="6">
         <v>243</v>
       </c>
-      <c r="B242" s="18">
+      <c r="B242" s="16">
         <v>45014</v>
       </c>
       <c r="C242" s="6" t="s">
@@ -8347,9 +8780,11 @@
       </c>
       <c r="D242" s="6"/>
       <c r="E242" s="6"/>
-      <c r="F242" s="14"/>
-      <c r="G242" s="6"/>
-      <c r="H242" s="15" t="s">
+      <c r="F242" s="12"/>
+      <c r="G242" s="6">
+        <v>1</v>
+      </c>
+      <c r="H242" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I242" s="6" t="s">
@@ -8365,11 +8800,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:12">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
         <v>244</v>
       </c>
-      <c r="B243" s="18">
+      <c r="B243" s="16">
         <v>45014</v>
       </c>
       <c r="C243" s="4" t="s">
@@ -8377,9 +8812,11 @@
       </c>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
-      <c r="F243" s="21"/>
-      <c r="G243" s="29"/>
-      <c r="H243" s="22" t="s">
+      <c r="F243" s="19"/>
+      <c r="G243" s="6">
+        <v>1</v>
+      </c>
+      <c r="H243" s="20" t="s">
         <v>65</v>
       </c>
       <c r="I243" s="4" t="s">
@@ -8395,11 +8832,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="244" spans="1:12" ht="374.4">
+    <row r="244" spans="1:12" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A244" s="6">
         <v>245</v>
       </c>
-      <c r="B244" s="18">
+      <c r="B244" s="16">
         <v>45014</v>
       </c>
       <c r="C244" s="6" t="s">
@@ -8407,9 +8844,11 @@
       </c>
       <c r="D244" s="6"/>
       <c r="E244" s="6"/>
-      <c r="F244" s="14"/>
-      <c r="G244" s="6"/>
-      <c r="H244" s="15" t="s">
+      <c r="F244" s="12"/>
+      <c r="G244" s="6">
+        <v>1</v>
+      </c>
+      <c r="H244" s="13" t="s">
         <v>28</v>
       </c>
       <c r="I244" s="6" t="s">
@@ -8425,11 +8864,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:12" ht="409.6">
+    <row r="245" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A245" s="6">
         <v>246</v>
       </c>
-      <c r="B245" s="18">
+      <c r="B245" s="16">
         <v>45014</v>
       </c>
       <c r="C245" s="6" t="s">
@@ -8437,9 +8876,11 @@
       </c>
       <c r="D245" s="6"/>
       <c r="E245" s="6"/>
-      <c r="F245" s="14"/>
-      <c r="G245" s="26"/>
-      <c r="H245" s="15" t="s">
+      <c r="F245" s="12"/>
+      <c r="G245" s="6">
+        <v>1</v>
+      </c>
+      <c r="H245" s="13" t="s">
         <v>28</v>
       </c>
       <c r="I245" s="6" t="s">
@@ -8455,11 +8896,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:12" ht="409.6">
+    <row r="246" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A246" s="6">
         <v>247</v>
       </c>
-      <c r="B246" s="18">
+      <c r="B246" s="16">
         <v>45014</v>
       </c>
       <c r="C246" s="6" t="s">
@@ -8468,7 +8909,9 @@
       <c r="D246" s="6"/>
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
-      <c r="G246" s="26"/>
+      <c r="G246" s="6">
+        <v>1</v>
+      </c>
       <c r="H246" s="6" t="s">
         <v>54</v>
       </c>
@@ -8485,11 +8928,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:12">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" s="6">
         <v>248</v>
       </c>
-      <c r="B247" s="18">
+      <c r="B247" s="16">
         <v>45015</v>
       </c>
       <c r="C247" s="4" t="s">
@@ -8498,7 +8941,9 @@
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
-      <c r="G247" s="4"/>
+      <c r="G247" s="6">
+        <v>1</v>
+      </c>
       <c r="H247" s="4" t="s">
         <v>65</v>
       </c>
@@ -8515,11 +8960,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="248" spans="1:12" ht="172.8">
+    <row r="248" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A248" s="6">
         <v>249</v>
       </c>
-      <c r="B248" s="18">
+      <c r="B248" s="16">
         <v>45015</v>
       </c>
       <c r="C248" s="6" t="s">
@@ -8528,7 +8973,9 @@
       <c r="D248" s="6"/>
       <c r="E248" s="6"/>
       <c r="F248" s="6"/>
-      <c r="G248" s="6"/>
+      <c r="G248" s="6">
+        <v>1</v>
+      </c>
       <c r="H248" s="6" t="s">
         <v>13</v>
       </c>
@@ -8545,11 +8992,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:12" ht="230.4">
+    <row r="249" spans="1:12" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A249" s="6">
         <v>250</v>
       </c>
-      <c r="B249" s="18">
+      <c r="B249" s="16">
         <v>45015</v>
       </c>
       <c r="C249" s="6" t="s">
@@ -8558,7 +9005,9 @@
       <c r="D249" s="6"/>
       <c r="E249" s="6"/>
       <c r="F249" s="6"/>
-      <c r="G249" s="6"/>
+      <c r="G249" s="6">
+        <v>1</v>
+      </c>
       <c r="H249" s="6" t="s">
         <v>28</v>
       </c>
@@ -8575,11 +9024,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:12">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
         <v>251</v>
       </c>
-      <c r="B250" s="18">
+      <c r="B250" s="16">
         <v>45015</v>
       </c>
       <c r="C250" s="4" t="s">
@@ -8588,7 +9037,9 @@
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
-      <c r="G250" s="6"/>
+      <c r="G250" s="6">
+        <v>1</v>
+      </c>
       <c r="H250" s="4" t="s">
         <v>65</v>
       </c>
@@ -8605,18 +9056,20 @@
         <v>59</v>
       </c>
     </row>
-    <row r="251" spans="1:12">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
         <v>252</v>
       </c>
-      <c r="B251" s="18">
+      <c r="B251" s="16">
         <v>45015</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
       <c r="F251" s="4"/>
-      <c r="G251" s="6"/>
+      <c r="G251" s="6">
+        <v>1</v>
+      </c>
       <c r="H251" s="4" t="s">
         <v>65</v>
       </c>
@@ -8633,11 +9086,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:12" ht="216">
+    <row r="252" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A252" s="6">
         <v>253</v>
       </c>
-      <c r="B252" s="18">
+      <c r="B252" s="16">
         <v>45015</v>
       </c>
       <c r="C252" s="6" t="s">
@@ -8646,7 +9099,9 @@
       <c r="D252" s="6"/>
       <c r="E252" s="6"/>
       <c r="F252" s="6"/>
-      <c r="G252" s="6"/>
+      <c r="G252" s="6">
+        <v>1</v>
+      </c>
       <c r="H252" s="6" t="s">
         <v>28</v>
       </c>
@@ -8663,11 +9118,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:12" ht="216">
+    <row r="253" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A253" s="6">
         <v>254</v>
       </c>
-      <c r="B253" s="18">
+      <c r="B253" s="16">
         <v>45015</v>
       </c>
       <c r="C253" s="6" t="s">
@@ -8676,7 +9131,9 @@
       <c r="D253" s="6"/>
       <c r="E253" s="6"/>
       <c r="F253" s="6"/>
-      <c r="G253" s="6"/>
+      <c r="G253" s="6">
+        <v>1</v>
+      </c>
       <c r="H253" s="6" t="s">
         <v>28</v>
       </c>
@@ -8693,11 +9150,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:12" ht="409.6">
+    <row r="254" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A254" s="6">
         <v>255</v>
       </c>
-      <c r="B254" s="18">
+      <c r="B254" s="16">
         <v>45015</v>
       </c>
       <c r="C254" s="6" t="s">
@@ -8706,7 +9163,9 @@
       <c r="D254" s="6"/>
       <c r="E254" s="6"/>
       <c r="F254" s="6"/>
-      <c r="G254" s="6"/>
+      <c r="G254" s="6">
+        <v>1</v>
+      </c>
       <c r="H254" s="6" t="s">
         <v>28</v>
       </c>
@@ -8723,11 +9182,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:12" ht="216">
+    <row r="255" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A255" s="6">
         <v>256</v>
       </c>
-      <c r="B255" s="18">
+      <c r="B255" s="16">
         <v>45016</v>
       </c>
       <c r="C255" s="6" t="s">
@@ -8736,7 +9195,9 @@
       <c r="D255" s="6"/>
       <c r="E255" s="6"/>
       <c r="F255" s="6"/>
-      <c r="G255" s="6"/>
+      <c r="G255" s="6">
+        <v>1</v>
+      </c>
       <c r="H255" s="6" t="s">
         <v>28</v>
       </c>
@@ -8753,11 +9214,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:12" ht="331.2">
+    <row r="256" spans="1:12" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A256" s="6">
         <v>257</v>
       </c>
-      <c r="B256" s="18">
+      <c r="B256" s="16">
         <v>45016</v>
       </c>
       <c r="C256" s="6" t="s">
@@ -8766,7 +9227,9 @@
       <c r="D256" s="6"/>
       <c r="E256" s="6"/>
       <c r="F256" s="6"/>
-      <c r="G256" s="6"/>
+      <c r="G256" s="6">
+        <v>1</v>
+      </c>
       <c r="H256" s="6" t="s">
         <v>43</v>
       </c>
@@ -8783,11 +9246,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:12" ht="331.2">
+    <row r="257" spans="1:12" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A257" s="4">
         <v>258</v>
       </c>
-      <c r="B257" s="18">
+      <c r="B257" s="16">
         <v>45016</v>
       </c>
       <c r="C257" s="4" t="s">
@@ -8796,7 +9259,9 @@
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
       <c r="F257" s="4"/>
-      <c r="G257" s="6"/>
+      <c r="G257" s="6">
+        <v>1</v>
+      </c>
       <c r="H257" s="4" t="s">
         <v>54</v>
       </c>
@@ -8813,11 +9278,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:12" ht="273.60000000000002">
+    <row r="258" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A258" s="6">
         <v>259</v>
       </c>
-      <c r="B258" s="18">
+      <c r="B258" s="16">
         <v>45016</v>
       </c>
       <c r="C258" s="6" t="s">
@@ -8826,7 +9291,9 @@
       <c r="D258" s="6"/>
       <c r="E258" s="6"/>
       <c r="F258" s="6"/>
-      <c r="G258" s="6"/>
+      <c r="G258" s="6">
+        <v>1</v>
+      </c>
       <c r="H258" s="6" t="s">
         <v>43</v>
       </c>
@@ -8843,11 +9310,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="259" spans="1:12" ht="216">
+    <row r="259" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A259" s="6">
         <v>260</v>
       </c>
-      <c r="B259" s="18">
+      <c r="B259" s="16">
         <v>45016</v>
       </c>
       <c r="C259" s="6" t="s">
@@ -8856,7 +9323,9 @@
       <c r="D259" s="6"/>
       <c r="E259" s="6"/>
       <c r="F259" s="6"/>
-      <c r="G259" s="6"/>
+      <c r="G259" s="6">
+        <v>1</v>
+      </c>
       <c r="H259" s="6" t="s">
         <v>28</v>
       </c>
@@ -8873,11 +9342,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:12" ht="388.8">
+    <row r="260" spans="1:12" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A260" s="6">
         <v>261</v>
       </c>
-      <c r="B260" s="18">
+      <c r="B260" s="16">
         <v>45016</v>
       </c>
       <c r="C260" s="6" t="s">
@@ -8886,7 +9355,9 @@
       <c r="D260" s="6"/>
       <c r="E260" s="6"/>
       <c r="F260" s="6"/>
-      <c r="G260" s="6"/>
+      <c r="G260" s="6">
+        <v>1</v>
+      </c>
       <c r="H260" s="6" t="s">
         <v>43</v>
       </c>

--- a/call_log.xlsx
+++ b/call_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://krcmar-my.sharepoint.com/personal/francisco_protectyourboundaries_ca/Documents/Documents/csdashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{195A2F47-6FEF-4072-BF7A-394FA619F365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACAE092D-F6A6-4EDA-A863-A3E56C366CD1}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{195A2F47-6FEF-4072-BF7A-394FA619F365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D51D199A-9750-4668-A516-16C37B15E71E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C605F76E-DC30-49A8-A8A4-2EDF6E134D2C}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>Background Info</t>
   </si>
   <si>
-    <t>Operator</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -811,6 +808,9 @@
   </si>
   <si>
     <t>Maria. Survey 28 Gilbert Avenue toronto. 000005500 she got the wrong survey I ask her to please reply to the e-mail she git the order from so we can have the info and we can confirm why we a sending her the right plan</t>
+  </si>
+  <si>
+    <t>Operator</t>
   </si>
 </sst>
 </file>
@@ -1350,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3A60FE-583D-4435-8016-E6D6AD39F1F9}">
   <dimension ref="A1:L260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1385,13 +1385,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
@@ -1402,7 +1402,7 @@
         <v>44929</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1411,19 +1411,19 @@
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="J2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="7">
         <v>0.15625</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="216" x14ac:dyDescent="0.3">
@@ -1434,7 +1434,7 @@
         <v>44929</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1443,13 +1443,13 @@
         <v>1</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6"/>
@@ -1462,7 +1462,7 @@
         <v>44929</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1471,19 +1471,19 @@
         <v>1</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="7">
         <v>0.20902777777777778</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="144" x14ac:dyDescent="0.3">
@@ -1494,7 +1494,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1503,13 +1503,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="6"/>
@@ -1522,7 +1522,7 @@
         <v>44929</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1531,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="6"/>
@@ -1550,7 +1550,7 @@
         <v>44929</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1559,19 +1559,19 @@
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" s="8">
         <v>4.2361111111111106E-2</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="244.8" x14ac:dyDescent="0.3">
@@ -1582,7 +1582,7 @@
         <v>44929</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1591,19 +1591,19 @@
         <v>1</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="8">
         <v>4.0972222222222222E-2</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="244.8" x14ac:dyDescent="0.3">
@@ -1614,7 +1614,7 @@
         <v>44929</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1623,19 +1623,19 @@
         <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9" s="8">
         <v>0.2298611111111111</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
@@ -1646,7 +1646,7 @@
         <v>44929</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1656,10 +1656,10 @@
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="6"/>
@@ -1680,10 +1680,10 @@
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="6"/>
@@ -1696,7 +1696,7 @@
         <v>44929</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1705,19 +1705,19 @@
         <v>1</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7">
         <v>0.30902777777777779</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
@@ -1728,7 +1728,7 @@
         <v>44929</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1737,13 +1737,13 @@
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="J13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7">
         <v>0.19583333333333333</v>
@@ -1758,7 +1758,7 @@
         <v>44929</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1767,19 +1767,19 @@
         <v>1</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K14" s="7">
         <v>0.11666666666666665</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="374.4" x14ac:dyDescent="0.3">
@@ -1790,7 +1790,7 @@
         <v>44929</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1799,13 +1799,13 @@
         <v>1</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="7"/>
@@ -1825,30 +1825,30 @@
         <v>1</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K16" s="8">
         <v>9.8611111111111108E-2</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="5">
         <v>44929</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1857,19 +1857,19 @@
         <v>1</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="8">
         <v>0.3444444444444445</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
@@ -1887,13 +1887,13 @@
         <v>1</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="4"/>
@@ -1906,7 +1906,7 @@
         <v>44929</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -1916,10 +1916,10 @@
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="4"/>
@@ -1932,7 +1932,7 @@
         <v>44929</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -1942,10 +1942,10 @@
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="6"/>
@@ -1966,10 +1966,10 @@
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K21" s="8"/>
       <c r="L21" s="4"/>
@@ -1982,7 +1982,7 @@
         <v>44929</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1992,10 +1992,10 @@
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="6"/>
@@ -2016,10 +2016,10 @@
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="6"/>
@@ -2032,7 +2032,7 @@
         <v>44929</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -2042,10 +2042,10 @@
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="6"/>
@@ -2058,7 +2058,7 @@
         <v>44929</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -2068,10 +2068,10 @@
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K25" s="8"/>
       <c r="L25" s="4"/>
@@ -2084,7 +2084,7 @@
         <v>44929</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -2093,19 +2093,19 @@
         <v>1</v>
       </c>
       <c r="H26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="J26" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K26" s="8">
         <v>0.22361111111111109</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
@@ -2123,13 +2123,13 @@
         <v>1</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="4"/>
@@ -2142,7 +2142,7 @@
         <v>44929</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -2152,10 +2152,10 @@
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K28" s="8"/>
       <c r="L28" s="6"/>
@@ -2168,7 +2168,7 @@
         <v>44929</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -2177,13 +2177,13 @@
         <v>1</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K29" s="8"/>
       <c r="L29" s="4"/>
@@ -2196,7 +2196,7 @@
         <v>44929</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -2205,19 +2205,19 @@
         <v>1</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K30" s="8">
         <v>7.6388888888888895E-2</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -2228,7 +2228,7 @@
         <v>44929</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -2237,19 +2237,19 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K31" s="8">
         <v>0.17569444444444446</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
@@ -2260,7 +2260,7 @@
         <v>44929</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -2269,19 +2269,19 @@
         <v>1</v>
       </c>
       <c r="H32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I32" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="J32" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K32" s="8">
         <v>0.11041666666666666</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
@@ -2292,7 +2292,7 @@
         <v>44929</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -2301,19 +2301,19 @@
         <v>1</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K33" s="8">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
@@ -2324,7 +2324,7 @@
         <v>44929</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -2333,19 +2333,19 @@
         <v>1</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K34" s="8">
         <v>7.9861111111111105E-2</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -2356,7 +2356,7 @@
         <v>44929</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -2365,19 +2365,19 @@
         <v>1</v>
       </c>
       <c r="H35" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I35" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I35" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="J35" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K35" s="7">
         <v>0.35138888888888892</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
@@ -2388,7 +2388,7 @@
         <v>44929</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -2397,19 +2397,19 @@
         <v>1</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K36" s="8">
         <v>7.4305555555555555E-2</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -2420,7 +2420,7 @@
         <v>44929</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -2429,19 +2429,19 @@
         <v>1</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K37" s="8">
         <v>0.23194444444444443</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
@@ -2452,7 +2452,7 @@
         <v>44929</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -2461,19 +2461,19 @@
         <v>1</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K38" s="8">
         <v>0.30138888888888887</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="345.6" x14ac:dyDescent="0.3">
@@ -2484,7 +2484,7 @@
         <v>44929</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -2493,13 +2493,13 @@
         <v>1</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K39" s="8"/>
       <c r="L39" s="6"/>
@@ -2512,7 +2512,7 @@
         <v>44929</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -2521,17 +2521,17 @@
         <v>1</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K40" s="8"/>
       <c r="L40" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
@@ -2542,7 +2542,7 @@
         <v>44929</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -2551,19 +2551,19 @@
         <v>1</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K41" s="8">
         <v>0.1173611111111111</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="316.8" x14ac:dyDescent="0.3">
@@ -2574,7 +2574,7 @@
         <v>44929</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -2583,19 +2583,19 @@
         <v>1</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K42" s="8">
         <v>5.0694444444444452E-2</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
@@ -2606,7 +2606,7 @@
         <v>44929</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -2615,19 +2615,19 @@
         <v>1</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K43" s="8">
         <v>0.12291666666666667</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -2638,7 +2638,7 @@
         <v>44929</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -2647,19 +2647,19 @@
         <v>1</v>
       </c>
       <c r="H44" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I44" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I44" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="J44" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K44" s="7">
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="144" x14ac:dyDescent="0.3">
@@ -2678,10 +2678,10 @@
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K45" s="8"/>
       <c r="L45" s="6"/>
@@ -2694,7 +2694,7 @@
         <v>44929</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -2703,19 +2703,19 @@
         <v>1</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K46" s="7">
         <v>0.16458333333333333</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="345.6" x14ac:dyDescent="0.3">
@@ -2733,13 +2733,13 @@
         <v>1</v>
       </c>
       <c r="H47" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I47" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="J47" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K47" s="7">
         <v>0.18819444444444444</v>
@@ -2754,7 +2754,7 @@
         <v>44929</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -2763,19 +2763,19 @@
         <v>1</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K48" s="7">
         <v>0.19652777777777777</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -2786,7 +2786,7 @@
         <v>44960</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -2795,19 +2795,19 @@
         <v>1</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K49" s="7">
         <v>0.5395833333333333</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
@@ -2818,7 +2818,7 @@
         <v>44960</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -2827,19 +2827,19 @@
         <v>1</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K50" s="8">
         <v>0.10972222222222222</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -2850,7 +2850,7 @@
         <v>44960</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -2859,19 +2859,19 @@
         <v>1</v>
       </c>
       <c r="H51" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I51" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I51" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="J51" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K51" s="8">
         <v>2.013888888888889E-2</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
@@ -2882,7 +2882,7 @@
         <v>44960</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -2891,19 +2891,19 @@
         <v>1</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K52" s="7">
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
@@ -2914,7 +2914,7 @@
         <v>44960</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -2923,19 +2923,19 @@
         <v>1</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K53" s="7">
         <v>0.17916666666666667</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
@@ -2946,7 +2946,7 @@
         <v>44960</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -2956,10 +2956,10 @@
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K54" s="7"/>
       <c r="L54" s="4"/>
@@ -2981,7 +2981,7 @@
       <c r="H55" s="4"/>
       <c r="I55" s="6"/>
       <c r="J55" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K55" s="8"/>
       <c r="L55" s="6"/>
@@ -2994,7 +2994,7 @@
         <v>44988</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -3003,19 +3003,19 @@
         <v>1</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K56" s="8">
         <v>0.20972222222222223</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -3026,7 +3026,7 @@
         <v>44988</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -3035,19 +3035,19 @@
         <v>1</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K57" s="8">
         <v>0.20902777777777778</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -3058,7 +3058,7 @@
         <v>44988</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
@@ -3067,17 +3067,17 @@
         <v>1</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K58" s="8"/>
       <c r="L58" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
@@ -3088,7 +3088,7 @@
         <v>44988</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -3097,19 +3097,19 @@
         <v>1</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K59" s="8">
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="244.8" x14ac:dyDescent="0.3">
@@ -3120,7 +3120,7 @@
         <v>44988</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -3129,19 +3129,19 @@
         <v>1</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K60" s="8">
         <v>0.20277777777777781</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="216" x14ac:dyDescent="0.3">
@@ -3152,7 +3152,7 @@
         <v>44988</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -3161,19 +3161,19 @@
         <v>1</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K61" s="8">
         <v>0.11666666666666665</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -3184,7 +3184,7 @@
         <v>44988</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -3193,19 +3193,19 @@
         <v>1</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K62" s="7">
         <v>5.8333333333333327E-2</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -3216,7 +3216,7 @@
         <v>44988</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
@@ -3225,19 +3225,19 @@
         <v>1</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K63" s="8">
         <v>0.12361111111111112</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -3248,7 +3248,7 @@
         <v>44988</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
@@ -3257,19 +3257,19 @@
         <v>1</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K64" s="8">
         <v>2.7083333333333334E-2</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="316.8" x14ac:dyDescent="0.3">
@@ -3278,7 +3278,7 @@
         <v>44988</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -3287,19 +3287,19 @@
         <v>1</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K65" s="8">
         <v>0.23750000000000002</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="374.4" x14ac:dyDescent="0.3">
@@ -3310,7 +3310,7 @@
         <v>44988</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
@@ -3319,19 +3319,19 @@
         <v>1</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K66" s="8">
         <v>0.39652777777777781</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="331.2" x14ac:dyDescent="0.3">
@@ -3342,7 +3342,7 @@
         <v>44988</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -3351,19 +3351,19 @@
         <v>1</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K67" s="8">
         <v>0.10486111111111111</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="216" x14ac:dyDescent="0.3">
@@ -3374,7 +3374,7 @@
         <v>44991</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -3383,19 +3383,19 @@
         <v>1</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K68" s="8">
         <v>0.32708333333333334</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -3406,7 +3406,7 @@
         <v>44991</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -3415,19 +3415,19 @@
         <v>1</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K69" s="8">
         <v>0.24374999999999999</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -3438,7 +3438,7 @@
         <v>44991</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -3447,19 +3447,19 @@
         <v>1</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K70" s="8">
         <v>0.33055555555555555</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
@@ -3470,7 +3470,7 @@
         <v>44991</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
@@ -3479,19 +3479,19 @@
         <v>1</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K71" s="8">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
@@ -3502,7 +3502,7 @@
         <v>44991</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
@@ -3511,19 +3511,19 @@
         <v>1</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K72" s="7">
         <v>0.10208333333333335</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="244.8" x14ac:dyDescent="0.3">
@@ -3534,7 +3534,7 @@
         <v>44991</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -3544,14 +3544,14 @@
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K73" s="7"/>
       <c r="L73" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -3562,7 +3562,7 @@
         <v>44991</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
@@ -3572,10 +3572,10 @@
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K74" s="4">
         <v>1.0270833333333333</v>
@@ -3590,7 +3590,7 @@
         <v>44991</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -3599,19 +3599,19 @@
         <v>1</v>
       </c>
       <c r="H75" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I75" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I75" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="J75" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K75" s="7">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
@@ -3622,7 +3622,7 @@
         <v>44991</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -3631,19 +3631,19 @@
         <v>1</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K76" s="7">
         <v>6.3888888888888884E-2</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
@@ -3654,7 +3654,7 @@
         <v>44991</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -3663,19 +3663,19 @@
         <v>1</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K77" s="7">
         <v>0.25138888888888888</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
@@ -3686,7 +3686,7 @@
         <v>44991</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
@@ -3695,19 +3695,19 @@
         <v>1</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K78" s="8">
         <v>2.2916666666666669E-2</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -3718,7 +3718,7 @@
         <v>44991</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -3727,19 +3727,19 @@
         <v>1</v>
       </c>
       <c r="H79" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I79" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I79" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="J79" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K79" s="7">
         <v>4.6527777777777779E-2</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
@@ -3750,7 +3750,7 @@
         <v>44991</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -3759,19 +3759,19 @@
         <v>1</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K80" s="7">
         <v>7.9861111111111105E-2</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -3782,7 +3782,7 @@
         <v>44991</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
@@ -3791,19 +3791,19 @@
         <v>1</v>
       </c>
       <c r="H81" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I81" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I81" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="J81" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K81" s="8">
         <v>0.22708333333333333</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="288" x14ac:dyDescent="0.3">
@@ -3814,7 +3814,7 @@
         <v>44991</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -3823,19 +3823,19 @@
         <v>1</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K82" s="8">
         <v>0.18472222222222223</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="72" x14ac:dyDescent="0.3">
@@ -3846,7 +3846,7 @@
         <v>44991</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
@@ -3855,19 +3855,19 @@
         <v>1</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K83" s="7">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -3878,7 +3878,7 @@
         <v>44991</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
@@ -3887,19 +3887,19 @@
         <v>1</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K84" s="7">
         <v>6.7361111111111108E-2</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
@@ -3910,7 +3910,7 @@
         <v>44991</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -3919,19 +3919,19 @@
         <v>1</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K85" s="7">
         <v>0.1013888888888889</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="144" x14ac:dyDescent="0.3">
@@ -3942,7 +3942,7 @@
         <v>44991</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -3951,19 +3951,19 @@
         <v>1</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K86" s="7">
         <v>0.23402777777777781</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
@@ -3974,7 +3974,7 @@
         <v>44991</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -3983,19 +3983,19 @@
         <v>1</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K87" s="8">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
@@ -4006,7 +4006,7 @@
         <v>44991</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
@@ -4015,19 +4015,19 @@
         <v>1</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K88" s="8">
         <v>2.9861111111111113E-2</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="216" x14ac:dyDescent="0.3">
@@ -4038,7 +4038,7 @@
         <v>44992</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -4047,19 +4047,19 @@
         <v>1</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K89" s="7">
         <v>0.11666666666666665</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -4070,7 +4070,7 @@
         <v>44992</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -4079,19 +4079,19 @@
         <v>1</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K90" s="8">
         <v>0.5</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -4102,7 +4102,7 @@
         <v>44992</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -4111,19 +4111,19 @@
         <v>1</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K91" s="7">
         <v>0.3444444444444445</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -4134,7 +4134,7 @@
         <v>44992</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -4145,7 +4145,7 @@
       <c r="H92" s="4"/>
       <c r="I92" s="6"/>
       <c r="J92" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K92" s="7"/>
       <c r="L92" s="4"/>
@@ -4158,7 +4158,7 @@
         <v>44992</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -4167,19 +4167,19 @@
         <v>1</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K93" s="7">
         <v>0.15625</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="230.4" x14ac:dyDescent="0.3">
@@ -4190,7 +4190,7 @@
         <v>44992</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -4199,17 +4199,17 @@
         <v>1</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K94" s="7"/>
       <c r="L94" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -4220,7 +4220,7 @@
         <v>44992</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -4229,19 +4229,19 @@
         <v>1</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K95" s="7">
         <v>0.23541666666666669</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="144" x14ac:dyDescent="0.3">
@@ -4252,7 +4252,7 @@
         <v>44992</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
@@ -4261,19 +4261,19 @@
         <v>1</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K96" s="8">
         <v>0.14305555555555557</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="374.4" x14ac:dyDescent="0.3">
@@ -4284,7 +4284,7 @@
         <v>44992</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
@@ -4293,13 +4293,13 @@
         <v>1</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K97" s="8"/>
       <c r="L97" s="6"/>
@@ -4312,7 +4312,7 @@
         <v>44993</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
@@ -4321,19 +4321,19 @@
         <v>1</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K98" s="8">
         <v>8.7500000000000008E-2</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -4353,7 +4353,7 @@
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K99" s="8"/>
       <c r="L99" s="6"/>
@@ -4366,7 +4366,7 @@
         <v>44993</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
@@ -4375,19 +4375,19 @@
         <v>1</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K100" s="8">
         <v>0.3611111111111111</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -4398,7 +4398,7 @@
         <v>44993</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
@@ -4407,19 +4407,19 @@
         <v>1</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K101" s="8">
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
@@ -4430,7 +4430,7 @@
         <v>44993</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
@@ -4439,19 +4439,19 @@
         <v>1</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K102" s="8">
         <v>1.5277777777777777E-2</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -4462,7 +4462,7 @@
         <v>44993</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
@@ -4471,19 +4471,19 @@
         <v>1</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I103" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K103" s="8">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -4494,7 +4494,7 @@
         <v>44993</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
@@ -4503,19 +4503,19 @@
         <v>1</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K104" s="8">
         <v>9.0277777777777787E-3</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -4526,7 +4526,7 @@
         <v>44993</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -4535,19 +4535,19 @@
         <v>1</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K105" s="8">
         <v>5.9027777777777783E-2</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -4558,26 +4558,26 @@
         <v>44993</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D106" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E106" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="E106" s="14" t="s">
-        <v>124</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="6">
         <v>1</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K106" s="7">
         <v>0.83333333333333337</v>
@@ -4592,7 +4592,7 @@
         <v>44993</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -4601,13 +4601,13 @@
         <v>1</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K107" s="7"/>
       <c r="L107" s="4"/>
@@ -4620,7 +4620,7 @@
         <v>44994</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -4629,19 +4629,19 @@
         <v>1</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K108" s="7">
         <v>1.3194444444444444E-2</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -4652,7 +4652,7 @@
         <v>44994</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -4661,19 +4661,19 @@
         <v>1</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K109" s="7">
         <v>1.4583333333333332E-2</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="244.8" x14ac:dyDescent="0.3">
@@ -4684,7 +4684,7 @@
         <v>44994</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -4693,19 +4693,19 @@
         <v>1</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K110" s="7">
         <v>9.2361111111111116E-2</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -4716,7 +4716,7 @@
         <v>44994</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -4725,19 +4725,19 @@
         <v>1</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K111" s="7">
         <v>0.14930555555555555</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="216" x14ac:dyDescent="0.3">
@@ -4748,7 +4748,7 @@
         <v>44994</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -4757,19 +4757,19 @@
         <v>1</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K112" s="8">
         <v>6.0416666666666667E-2</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -4780,7 +4780,7 @@
         <v>44994</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -4789,19 +4789,19 @@
         <v>1</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K113" s="8">
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="403.2" x14ac:dyDescent="0.3">
@@ -4812,7 +4812,7 @@
         <v>44994</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -4821,19 +4821,19 @@
         <v>1</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K114" s="7">
         <v>5.7638888888888885E-2</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="360" x14ac:dyDescent="0.3">
@@ -4844,7 +4844,7 @@
         <v>44994</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
@@ -4853,19 +4853,19 @@
         <v>1</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K115" s="8">
         <v>0.14861111111111111</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -4876,7 +4876,7 @@
         <v>44995</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -4885,13 +4885,13 @@
         <v>1</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K116" s="7"/>
       <c r="L116" s="4"/>
@@ -4904,7 +4904,7 @@
         <v>44995</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
@@ -4913,19 +4913,19 @@
         <v>1</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K117" s="8">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="L117" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -4943,13 +4943,13 @@
         <v>1</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K118" s="8"/>
       <c r="L118" s="6"/>
@@ -4962,7 +4962,7 @@
         <v>44998</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
@@ -4971,19 +4971,19 @@
         <v>1</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K119" s="8">
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="L119" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -4994,7 +4994,7 @@
         <v>44998</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
@@ -5003,13 +5003,13 @@
         <v>1</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K120" s="8"/>
       <c r="L120" s="4"/>
@@ -5022,7 +5022,7 @@
         <v>44998</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
@@ -5031,19 +5031,19 @@
         <v>1</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K121" s="8">
         <v>0.14166666666666666</v>
       </c>
       <c r="L121" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -5054,7 +5054,7 @@
         <v>44998</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
@@ -5063,19 +5063,19 @@
         <v>1</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K122" s="8">
         <v>0.26944444444444443</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -5086,7 +5086,7 @@
         <v>44998</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
@@ -5095,19 +5095,19 @@
         <v>1</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K123" s="8">
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="L123" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
@@ -5118,7 +5118,7 @@
         <v>44998</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
@@ -5127,19 +5127,19 @@
         <v>1</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K124" s="7">
         <v>0.29375000000000001</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -5150,7 +5150,7 @@
         <v>44998</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
@@ -5159,19 +5159,19 @@
         <v>1</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K125" s="18">
         <v>0.43263888888888885</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -5182,7 +5182,7 @@
         <v>44998</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
@@ -5191,19 +5191,19 @@
         <v>1</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K126" s="8">
         <v>0.16041666666666668</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -5214,7 +5214,7 @@
         <v>44999</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
@@ -5223,19 +5223,19 @@
         <v>1</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K127" s="8">
         <v>0.24722222222222223</v>
       </c>
       <c r="L127" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -5246,7 +5246,7 @@
         <v>44999</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
@@ -5255,13 +5255,13 @@
         <v>1</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K128" s="8"/>
       <c r="L128" s="4"/>
@@ -5274,7 +5274,7 @@
         <v>44999</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
@@ -5283,19 +5283,19 @@
         <v>1</v>
       </c>
       <c r="H129" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K129" s="8">
         <v>6.3194444444444442E-2</v>
       </c>
       <c r="L129" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -5306,7 +5306,7 @@
         <v>44999</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -5315,19 +5315,19 @@
         <v>1</v>
       </c>
       <c r="H130" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K130" s="7">
         <v>1.5277777777777777E-2</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -5338,7 +5338,7 @@
         <v>44999</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -5347,19 +5347,19 @@
         <v>1</v>
       </c>
       <c r="H131" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K131" s="7">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -5370,7 +5370,7 @@
         <v>44999</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -5379,19 +5379,19 @@
         <v>1</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K132" s="7">
         <v>2.013888888888889E-2</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
@@ -5402,7 +5402,7 @@
         <v>44999</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -5411,19 +5411,19 @@
         <v>1</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K133" s="7">
         <v>0.24861111111111112</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
@@ -5434,7 +5434,7 @@
         <v>44999</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -5443,19 +5443,19 @@
         <v>1</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K134" s="7">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="L134" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -5466,7 +5466,7 @@
         <v>45000</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -5475,19 +5475,19 @@
         <v>1</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K135" s="7">
         <v>0.41805555555555557</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -5498,7 +5498,7 @@
         <v>45000</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -5507,19 +5507,19 @@
         <v>1</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K136" s="7">
         <v>0.21875</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -5530,7 +5530,7 @@
         <v>45000</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -5539,19 +5539,19 @@
         <v>1</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K137" s="7">
         <v>1.9444444444444445E-2</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="360" x14ac:dyDescent="0.3">
@@ -5562,7 +5562,7 @@
         <v>45000</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
@@ -5571,19 +5571,19 @@
         <v>1</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K138" s="8">
         <v>0.13402777777777777</v>
       </c>
       <c r="L138" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="144" x14ac:dyDescent="0.3">
@@ -5594,7 +5594,7 @@
         <v>45000</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
@@ -5603,19 +5603,19 @@
         <v>1</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K139" s="8">
         <v>0.1076388888888889</v>
       </c>
       <c r="L139" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="216" x14ac:dyDescent="0.3">
@@ -5626,7 +5626,7 @@
         <v>45000</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
@@ -5635,19 +5635,19 @@
         <v>1</v>
       </c>
       <c r="H140" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K140" s="8">
         <v>0.13819444444444443</v>
       </c>
       <c r="L140" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -5658,7 +5658,7 @@
         <v>45000</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D141" s="6"/>
       <c r="E141" s="6"/>
@@ -5667,13 +5667,13 @@
         <v>1</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K141" s="8">
         <v>0.15277777777777776</v>
@@ -5688,7 +5688,7 @@
         <v>45000</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D142" s="6"/>
       <c r="E142" s="6"/>
@@ -5698,10 +5698,10 @@
       </c>
       <c r="H142" s="6"/>
       <c r="I142" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K142" s="8"/>
       <c r="L142" s="6"/>
@@ -5714,7 +5714,7 @@
         <v>45000</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
@@ -5723,19 +5723,19 @@
         <v>1</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K143" s="8">
         <v>1.4583333333333332E-2</v>
       </c>
       <c r="L143" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="360" x14ac:dyDescent="0.3">
@@ -5746,7 +5746,7 @@
         <v>45001</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
@@ -5755,19 +5755,19 @@
         <v>1</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K144" s="8">
         <v>0.22222222222222221</v>
       </c>
       <c r="L144" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -5778,7 +5778,7 @@
         <v>45001</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
@@ -5787,19 +5787,19 @@
         <v>1</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K145" s="8">
         <v>0.25972222222222224</v>
       </c>
       <c r="L145" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="288" x14ac:dyDescent="0.3">
@@ -5810,7 +5810,7 @@
         <v>45001</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
@@ -5819,19 +5819,19 @@
         <v>1</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J146" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K146" s="8">
         <v>3.9583333333333331E-2</v>
       </c>
       <c r="L146" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
@@ -5842,24 +5842,24 @@
         <v>45002</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F147" s="4"/>
       <c r="G147" s="6">
         <v>1</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K147" s="7"/>
       <c r="L147" s="4"/>
@@ -5872,7 +5872,7 @@
         <v>45002</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
@@ -5881,19 +5881,19 @@
         <v>1</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J148" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K148" s="8">
         <v>0.55138888888888882</v>
       </c>
       <c r="L148" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -5904,7 +5904,7 @@
         <v>45002</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
@@ -5913,19 +5913,19 @@
         <v>1</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K149" s="8">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="L149" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="144" x14ac:dyDescent="0.3">
@@ -5936,7 +5936,7 @@
         <v>45002</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
@@ -5945,19 +5945,19 @@
         <v>1</v>
       </c>
       <c r="H150" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K150" s="8">
         <v>2.9861111111111113E-2</v>
       </c>
       <c r="L150" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -5968,7 +5968,7 @@
         <v>45002</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
@@ -5977,19 +5977,19 @@
         <v>1</v>
       </c>
       <c r="H151" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J151" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K151" s="8">
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="374.4" x14ac:dyDescent="0.3">
@@ -6000,7 +6000,7 @@
         <v>45002</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -6009,19 +6009,19 @@
         <v>1</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K152" s="7">
         <v>0.43611111111111112</v>
       </c>
       <c r="L152" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
@@ -6032,7 +6032,7 @@
         <v>45002</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -6041,19 +6041,19 @@
         <v>1</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K153" s="7">
         <v>1.3194444444444444E-2</v>
       </c>
       <c r="L153" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -6064,7 +6064,7 @@
         <v>45002</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
@@ -6073,19 +6073,19 @@
         <v>1</v>
       </c>
       <c r="H154" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I154" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J154" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K154" s="8">
         <v>0.13055555555555556</v>
       </c>
       <c r="L154" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
@@ -6096,7 +6096,7 @@
         <v>45005</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -6105,19 +6105,19 @@
         <v>1</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K155" s="7">
         <v>0.17569444444444446</v>
       </c>
       <c r="L155" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="216" x14ac:dyDescent="0.3">
@@ -6128,7 +6128,7 @@
         <v>45005</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
@@ -6137,19 +6137,19 @@
         <v>1</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K156" s="7">
         <v>4.027777777777778E-2</v>
       </c>
       <c r="L156" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -6160,7 +6160,7 @@
         <v>45005</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
@@ -6169,19 +6169,19 @@
         <v>1</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I157" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J157" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K157" s="8">
         <v>0.28611111111111115</v>
       </c>
       <c r="L157" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -6192,7 +6192,7 @@
         <v>45005</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
@@ -6201,13 +6201,13 @@
         <v>1</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I158" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J158" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K158" s="8"/>
       <c r="L158" s="4"/>
@@ -6220,7 +6220,7 @@
         <v>45005</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
@@ -6229,19 +6229,19 @@
         <v>1</v>
       </c>
       <c r="H159" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I159" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J159" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K159" s="8">
         <v>1.5277777777777777E-2</v>
       </c>
       <c r="L159" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -6252,7 +6252,7 @@
         <v>45005</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
@@ -6261,19 +6261,19 @@
         <v>1</v>
       </c>
       <c r="H160" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I160" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J160" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K160" s="8">
         <v>0.33402777777777781</v>
       </c>
       <c r="L160" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -6284,7 +6284,7 @@
         <v>45005</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
@@ -6293,19 +6293,19 @@
         <v>1</v>
       </c>
       <c r="H161" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I161" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J161" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K161" s="8">
         <v>0.27083333333333331</v>
       </c>
       <c r="L161" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -6325,7 +6325,7 @@
       <c r="H162" s="6"/>
       <c r="I162" s="6"/>
       <c r="J162" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K162" s="8"/>
       <c r="L162" s="4"/>
@@ -6338,7 +6338,7 @@
         <v>45006</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
@@ -6347,19 +6347,19 @@
         <v>1</v>
       </c>
       <c r="H163" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I163" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K163" s="8">
         <v>0.1013888888888889</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -6370,7 +6370,7 @@
         <v>45006</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
@@ -6379,19 +6379,19 @@
         <v>1</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I164" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J164" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K164" s="8">
         <v>0.2590277777777778</v>
       </c>
       <c r="L164" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="288" x14ac:dyDescent="0.3">
@@ -6402,7 +6402,7 @@
         <v>45006</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
@@ -6411,19 +6411,19 @@
         <v>1</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I165" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J165" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K165" s="8">
         <v>0.25347222222222221</v>
       </c>
       <c r="L165" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
@@ -6434,7 +6434,7 @@
         <v>45006</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
@@ -6443,19 +6443,19 @@
         <v>1</v>
       </c>
       <c r="H166" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J166" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K166" s="8">
         <v>0.1076388888888889</v>
       </c>
       <c r="L166" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -6466,7 +6466,7 @@
         <v>45006</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
@@ -6475,19 +6475,19 @@
         <v>1</v>
       </c>
       <c r="H167" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K167" s="8">
         <v>0.23819444444444446</v>
       </c>
       <c r="L167" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="288" x14ac:dyDescent="0.3">
@@ -6498,7 +6498,7 @@
         <v>45006</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
@@ -6507,19 +6507,19 @@
         <v>1</v>
       </c>
       <c r="H168" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K168" s="7">
         <v>0.16180555555555556</v>
       </c>
       <c r="L168" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -6530,7 +6530,7 @@
         <v>45006</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
@@ -6539,13 +6539,13 @@
         <v>1</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I169" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K169" s="7">
         <v>0.15625</v>
@@ -6560,7 +6560,7 @@
         <v>45006</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
@@ -6569,19 +6569,19 @@
         <v>1</v>
       </c>
       <c r="H170" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K170" s="8">
         <v>2.361111111111111E-2</v>
       </c>
       <c r="L170" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
@@ -6601,13 +6601,13 @@
         <v>1</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I171" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J171" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K171" s="8"/>
       <c r="L171" s="6"/>
@@ -6620,7 +6620,7 @@
         <v>45006</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
@@ -6629,19 +6629,19 @@
         <v>1</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J172" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K172" s="8">
         <v>6.458333333333334E-2</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="374.4" x14ac:dyDescent="0.3">
@@ -6652,7 +6652,7 @@
         <v>45006</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
@@ -6661,17 +6661,17 @@
         <v>1</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J173" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K173" s="8"/>
       <c r="L173" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
@@ -6682,7 +6682,7 @@
         <v>45006</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
@@ -6691,19 +6691,19 @@
         <v>1</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J174" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K174" s="8">
         <v>0.10486111111111111</v>
       </c>
       <c r="L174" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -6714,7 +6714,7 @@
         <v>45006</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
@@ -6723,19 +6723,19 @@
         <v>1</v>
       </c>
       <c r="H175" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I175" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J175" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K175" s="8">
         <v>0.28750000000000003</v>
       </c>
       <c r="L175" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
@@ -6746,7 +6746,7 @@
         <v>45006</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
@@ -6755,13 +6755,13 @@
         <v>1</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I176" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J176" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K176" s="8"/>
       <c r="L176" s="6"/>
@@ -6774,7 +6774,7 @@
         <v>45006</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
@@ -6783,13 +6783,13 @@
         <v>1</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J177" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K177" s="8">
         <v>0.10694444444444444</v>
@@ -6804,7 +6804,7 @@
         <v>45006</v>
       </c>
       <c r="C178" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D178" s="21"/>
       <c r="E178" s="21"/>
@@ -6813,13 +6813,13 @@
         <v>1</v>
       </c>
       <c r="H178" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I178" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J178" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K178" s="22">
         <v>0.20208333333333331</v>
@@ -6834,7 +6834,7 @@
         <v>45006</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
@@ -6843,19 +6843,19 @@
         <v>1</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I179" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J179" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K179" s="8">
         <v>0.13402777777777777</v>
       </c>
       <c r="L179" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -6866,7 +6866,7 @@
         <v>45006</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
@@ -6875,13 +6875,13 @@
         <v>1</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I180" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K180" s="7">
         <v>0.42777777777777781</v>
@@ -6896,7 +6896,7 @@
         <v>45007</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
@@ -6905,19 +6905,19 @@
         <v>1</v>
       </c>
       <c r="H181" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I181" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J181" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K181" s="8">
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="L181" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -6928,7 +6928,7 @@
         <v>45007</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
@@ -6937,19 +6937,19 @@
         <v>1</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I182" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K182" s="7">
         <v>0.30763888888888891</v>
       </c>
       <c r="L182" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
@@ -6969,7 +6969,7 @@
       <c r="H183" s="6"/>
       <c r="I183" s="6"/>
       <c r="J183" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K183" s="8"/>
       <c r="L183" s="6"/>
@@ -6982,7 +6982,7 @@
         <v>45007</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
@@ -6991,19 +6991,19 @@
         <v>1</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I184" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K184" s="7">
         <v>0.21388888888888891</v>
       </c>
       <c r="L184" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -7014,7 +7014,7 @@
         <v>45007</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
@@ -7023,19 +7023,19 @@
         <v>1</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I185" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J185" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K185" s="7">
         <v>0.19236111111111112</v>
       </c>
       <c r="L185" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="288" x14ac:dyDescent="0.3">
@@ -7053,19 +7053,19 @@
         <v>1</v>
       </c>
       <c r="H186" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I186" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J186" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K186" s="8">
         <v>0.24027777777777778</v>
       </c>
       <c r="L186" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="331.2" x14ac:dyDescent="0.3">
@@ -7076,7 +7076,7 @@
         <v>45007</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
@@ -7085,19 +7085,19 @@
         <v>1</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I187" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J187" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K187" s="7">
         <v>0.23611111111111113</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="403.2" x14ac:dyDescent="0.3">
@@ -7108,7 +7108,7 @@
         <v>45007</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
@@ -7117,19 +7117,19 @@
         <v>1</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I188" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J188" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K188" s="7">
         <v>0.15902777777777777</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="144" x14ac:dyDescent="0.3">
@@ -7140,7 +7140,7 @@
         <v>45007</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
@@ -7149,19 +7149,19 @@
         <v>1</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I189" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K189" s="7">
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="L189" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -7172,7 +7172,7 @@
         <v>45007</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
@@ -7181,19 +7181,19 @@
         <v>1</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I190" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K190" s="7">
         <v>0.29097222222222224</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -7204,7 +7204,7 @@
         <v>45007</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
@@ -7213,13 +7213,13 @@
         <v>1</v>
       </c>
       <c r="H191" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I191" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J191" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K191" s="8"/>
       <c r="L191" s="6"/>
@@ -7230,7 +7230,7 @@
         <v>45007</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
@@ -7239,19 +7239,19 @@
         <v>1</v>
       </c>
       <c r="H192" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I192" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K192" s="7">
         <v>0.13472222222222222</v>
       </c>
       <c r="L192" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="193" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -7260,7 +7260,7 @@
         <v>45007</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
@@ -7269,19 +7269,19 @@
         <v>1</v>
       </c>
       <c r="H193" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I193" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J193" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K193" s="8">
         <v>0.56597222222222221</v>
       </c>
       <c r="L193" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194" spans="1:12" ht="316.8" x14ac:dyDescent="0.3">
@@ -7290,7 +7290,7 @@
         <v>45008</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
@@ -7299,19 +7299,19 @@
         <v>1</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I194" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K194" s="7">
         <v>0.20625000000000002</v>
       </c>
       <c r="L194" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
@@ -7320,7 +7320,7 @@
         <v>45008</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
@@ -7329,19 +7329,19 @@
         <v>1</v>
       </c>
       <c r="H195" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I195" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J195" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K195" s="8">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="L195" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -7350,7 +7350,7 @@
         <v>45008</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
@@ -7359,19 +7359,19 @@
         <v>1</v>
       </c>
       <c r="H196" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I196" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J196" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K196" s="8">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="L196" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -7380,7 +7380,7 @@
         <v>45008</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
@@ -7389,19 +7389,19 @@
         <v>1</v>
       </c>
       <c r="H197" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I197" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J197" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K197" s="8">
         <v>0.24791666666666667</v>
       </c>
       <c r="L197" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198" spans="1:12" ht="331.2" x14ac:dyDescent="0.3">
@@ -7410,7 +7410,7 @@
         <v>45008</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
@@ -7419,19 +7419,19 @@
         <v>1</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I198" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J198" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K198" s="7">
         <v>0.30069444444444443</v>
       </c>
       <c r="L198" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
@@ -7440,7 +7440,7 @@
         <v>45008</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
@@ -7449,19 +7449,19 @@
         <v>1</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I199" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J199" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K199" s="7">
         <v>0.16319444444444445</v>
       </c>
       <c r="L199" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -7470,7 +7470,7 @@
         <v>45008</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D200" s="6"/>
       <c r="E200" s="6"/>
@@ -7479,19 +7479,19 @@
         <v>1</v>
       </c>
       <c r="H200" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I200" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J200" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K200" s="8">
         <v>0.2388888888888889</v>
       </c>
       <c r="L200" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="201" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
@@ -7500,7 +7500,7 @@
         <v>45008</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D201" s="6"/>
       <c r="E201" s="6"/>
@@ -7509,13 +7509,13 @@
         <v>1</v>
       </c>
       <c r="H201" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I201" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J201" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K201" s="8"/>
       <c r="L201" s="6"/>
@@ -7526,7 +7526,7 @@
         <v>45008</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
@@ -7535,19 +7535,19 @@
         <v>1</v>
       </c>
       <c r="H202" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I202" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J202" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K202" s="7">
         <v>0.11944444444444445</v>
       </c>
       <c r="L202" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -7556,7 +7556,7 @@
         <v>45008</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D203" s="6"/>
       <c r="E203" s="6"/>
@@ -7565,19 +7565,19 @@
         <v>1</v>
       </c>
       <c r="H203" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I203" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J203" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K203" s="8">
         <v>2.2916666666666669E-2</v>
       </c>
       <c r="L203" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="204" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -7586,7 +7586,7 @@
         <v>45008</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
@@ -7595,19 +7595,19 @@
         <v>1</v>
       </c>
       <c r="H204" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I204" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J204" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K204" s="8">
         <v>0.32569444444444445</v>
       </c>
       <c r="L204" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="205" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
@@ -7616,7 +7616,7 @@
         <v>45008</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
@@ -7625,19 +7625,19 @@
         <v>1</v>
       </c>
       <c r="H205" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I205" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J205" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K205" s="7">
         <v>0.1013888888888889</v>
       </c>
       <c r="L205" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="206" spans="1:12" ht="144" x14ac:dyDescent="0.3">
@@ -7646,7 +7646,7 @@
         <v>45008</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D206" s="6"/>
       <c r="E206" s="6"/>
@@ -7655,19 +7655,19 @@
         <v>1</v>
       </c>
       <c r="H206" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I206" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J206" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K206" s="8">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="L206" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="207" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -7676,7 +7676,7 @@
         <v>45009</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
@@ -7685,13 +7685,13 @@
         <v>1</v>
       </c>
       <c r="H207" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I207" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J207" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K207" s="7">
         <v>0.31875000000000003</v>
@@ -7704,7 +7704,7 @@
         <v>45009</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D208" s="6"/>
       <c r="E208" s="6"/>
@@ -7713,13 +7713,13 @@
         <v>1</v>
       </c>
       <c r="H208" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I208" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J208" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K208" s="8"/>
       <c r="L208" s="6"/>
@@ -7732,7 +7732,7 @@
         <v>45009</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D209" s="6"/>
       <c r="E209" s="6"/>
@@ -7741,19 +7741,19 @@
         <v>1</v>
       </c>
       <c r="H209" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I209" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J209" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K209" s="8">
         <v>4.3750000000000004E-2</v>
       </c>
       <c r="L209" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="210" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -7764,7 +7764,7 @@
         <v>45009</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D210" s="6"/>
       <c r="E210" s="6"/>
@@ -7773,19 +7773,19 @@
         <v>1</v>
       </c>
       <c r="H210" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I210" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J210" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K210" s="8">
         <v>0.31805555555555554</v>
       </c>
       <c r="L210" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211" spans="1:12" ht="374.4" x14ac:dyDescent="0.3">
@@ -7796,7 +7796,7 @@
         <v>45009</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D211" s="6"/>
       <c r="E211" s="6"/>
@@ -7805,19 +7805,19 @@
         <v>1</v>
       </c>
       <c r="H211" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I211" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J211" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K211" s="8">
         <v>0.17361111111111113</v>
       </c>
       <c r="L211" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212" spans="1:12" ht="331.2" x14ac:dyDescent="0.3">
@@ -7828,7 +7828,7 @@
         <v>45009</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
@@ -7837,19 +7837,19 @@
         <v>1</v>
       </c>
       <c r="H212" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I212" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J212" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K212" s="7">
         <v>0.2298611111111111</v>
       </c>
       <c r="L212" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -7860,7 +7860,7 @@
         <v>45009</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
@@ -7869,19 +7869,19 @@
         <v>1</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I213" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J213" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K213" s="7">
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="L213" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="214" spans="1:12" ht="403.2" x14ac:dyDescent="0.3">
@@ -7892,7 +7892,7 @@
         <v>45009</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
@@ -7901,19 +7901,19 @@
         <v>1</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I214" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J214" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K214" s="7">
         <v>0.20208333333333331</v>
       </c>
       <c r="L214" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="215" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -7924,7 +7924,7 @@
         <v>45009</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
@@ -7933,19 +7933,19 @@
         <v>1</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I215" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J215" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K215" s="7">
         <v>0.3125</v>
       </c>
       <c r="L215" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
@@ -7956,7 +7956,7 @@
         <v>45012</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
@@ -7965,19 +7965,19 @@
         <v>1</v>
       </c>
       <c r="H216" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I216" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J216" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K216" s="7">
         <v>0.21458333333333335</v>
       </c>
       <c r="L216" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="217" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
@@ -7988,7 +7988,7 @@
         <v>45012</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D217" s="6"/>
       <c r="E217" s="6"/>
@@ -7997,19 +7997,19 @@
         <v>1</v>
       </c>
       <c r="H217" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I217" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J217" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K217" s="8">
         <v>0.14166666666666666</v>
       </c>
       <c r="L217" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="218" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -8020,7 +8020,7 @@
         <v>45012</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D218" s="6"/>
       <c r="E218" s="6"/>
@@ -8029,19 +8029,19 @@
         <v>1</v>
       </c>
       <c r="H218" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I218" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J218" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K218" s="8">
         <v>0.29236111111111113</v>
       </c>
       <c r="L218" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="219" spans="1:12" ht="288" x14ac:dyDescent="0.3">
@@ -8052,7 +8052,7 @@
         <v>45012</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -8061,19 +8061,19 @@
         <v>1</v>
       </c>
       <c r="H219" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I219" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J219" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K219" s="7">
         <v>0.19236111111111112</v>
       </c>
       <c r="L219" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220" spans="1:12" ht="230.4" x14ac:dyDescent="0.3">
@@ -8084,7 +8084,7 @@
         <v>45012</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D220" s="6"/>
       <c r="E220" s="6"/>
@@ -8093,19 +8093,19 @@
         <v>1</v>
       </c>
       <c r="H220" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I220" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J220" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K220" s="8">
         <v>6.0416666666666667E-2</v>
       </c>
       <c r="L220" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.3">
@@ -8116,7 +8116,7 @@
         <v>45012</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
@@ -8125,19 +8125,19 @@
         <v>1</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I221" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J221" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K221" s="7">
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="L221" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="222" spans="1:12" ht="216" x14ac:dyDescent="0.3">
@@ -8148,7 +8148,7 @@
         <v>45012</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D222" s="6"/>
       <c r="E222" s="6"/>
@@ -8157,19 +8157,19 @@
         <v>1</v>
       </c>
       <c r="H222" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I222" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J222" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K222" s="8">
         <v>0.18888888888888888</v>
       </c>
       <c r="L222" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223" spans="1:12" ht="374.4" x14ac:dyDescent="0.3">
@@ -8180,7 +8180,7 @@
         <v>45012</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D223" s="6"/>
       <c r="E223" s="6"/>
@@ -8189,19 +8189,19 @@
         <v>1</v>
       </c>
       <c r="H223" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I223" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J223" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K223" s="8">
         <v>0.1451388888888889</v>
       </c>
       <c r="L223" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.3">
@@ -8212,7 +8212,7 @@
         <v>45012</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
@@ -8221,19 +8221,19 @@
         <v>1</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I224" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J224" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K224" s="7">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="L224" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="225" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
@@ -8244,7 +8244,7 @@
         <v>45013</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D225" s="6"/>
       <c r="E225" s="6"/>
@@ -8253,19 +8253,19 @@
         <v>1</v>
       </c>
       <c r="H225" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I225" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J225" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K225" s="8">
         <v>9.6527777777777768E-2</v>
       </c>
       <c r="L225" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.3">
@@ -8276,7 +8276,7 @@
         <v>45013</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
@@ -8285,13 +8285,13 @@
         <v>1</v>
       </c>
       <c r="H226" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I226" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J226" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K226" s="4"/>
       <c r="L226" s="4"/>
@@ -8304,7 +8304,7 @@
         <v>45013</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D227" s="6"/>
       <c r="E227" s="6"/>
@@ -8313,19 +8313,19 @@
         <v>1</v>
       </c>
       <c r="H227" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I227" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J227" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K227" s="8">
         <v>0.32708333333333334</v>
       </c>
       <c r="L227" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="228" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -8336,7 +8336,7 @@
         <v>45013</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
@@ -8345,19 +8345,19 @@
         <v>1</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I228" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J228" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K228" s="7">
         <v>0.4368055555555555</v>
       </c>
       <c r="L228" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="229" spans="1:12" ht="216" x14ac:dyDescent="0.3">
@@ -8368,7 +8368,7 @@
         <v>45013</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D229" s="6"/>
       <c r="E229" s="6"/>
@@ -8377,19 +8377,19 @@
         <v>1</v>
       </c>
       <c r="H229" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I229" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J229" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K229" s="8">
         <v>0.1277777777777778</v>
       </c>
       <c r="L229" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="230" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -8400,7 +8400,7 @@
         <v>45013</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D230" s="6"/>
       <c r="E230" s="6"/>
@@ -8409,19 +8409,19 @@
         <v>1</v>
       </c>
       <c r="H230" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I230" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J230" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K230" s="8">
         <v>0.22569444444444445</v>
       </c>
       <c r="L230" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="231" spans="1:12" ht="316.8" x14ac:dyDescent="0.3">
@@ -8432,7 +8432,7 @@
         <v>45013</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -8441,19 +8441,19 @@
         <v>1</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I231" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J231" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K231" s="7">
         <v>0.13125000000000001</v>
       </c>
       <c r="L231" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
@@ -8464,7 +8464,7 @@
         <v>45013</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D232" s="6"/>
       <c r="E232" s="6"/>
@@ -8473,19 +8473,19 @@
         <v>1</v>
       </c>
       <c r="H232" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I232" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J232" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K232" s="8">
         <v>9.7222222222222224E-2</v>
       </c>
       <c r="L232" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="233" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -8496,7 +8496,7 @@
         <v>45013</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D233" s="6"/>
       <c r="E233" s="6"/>
@@ -8505,19 +8505,19 @@
         <v>1</v>
       </c>
       <c r="H233" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I233" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J233" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K233" s="8">
         <v>0.28125</v>
       </c>
       <c r="L233" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="234" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -8528,7 +8528,7 @@
         <v>45013</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
@@ -8537,13 +8537,13 @@
         <v>1</v>
       </c>
       <c r="H234" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I234" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J234" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K234" s="4"/>
       <c r="L234" s="4"/>
@@ -8556,7 +8556,7 @@
         <v>45013</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D235" s="6"/>
       <c r="E235" s="6"/>
@@ -8565,19 +8565,19 @@
         <v>1</v>
       </c>
       <c r="H235" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I235" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J235" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K235" s="8">
         <v>9.2361111111111116E-2</v>
       </c>
       <c r="L235" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="236" spans="1:12" ht="216" x14ac:dyDescent="0.3">
@@ -8588,7 +8588,7 @@
         <v>45013</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D236" s="6"/>
       <c r="E236" s="6"/>
@@ -8597,19 +8597,19 @@
         <v>1</v>
       </c>
       <c r="H236" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J236" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K236" s="8">
         <v>0.1423611111111111</v>
       </c>
       <c r="L236" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="237" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
@@ -8620,7 +8620,7 @@
         <v>45014</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D237" s="6"/>
       <c r="E237" s="6"/>
@@ -8629,19 +8629,19 @@
         <v>1</v>
       </c>
       <c r="H237" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I237" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J237" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K237" s="8">
         <v>7.3611111111111113E-2</v>
       </c>
       <c r="L237" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="238" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -8652,7 +8652,7 @@
         <v>45014</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
@@ -8661,19 +8661,19 @@
         <v>1</v>
       </c>
       <c r="H238" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I238" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J238" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K238" s="7">
         <v>0.76388888888888884</v>
       </c>
       <c r="L238" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="239" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
@@ -8684,7 +8684,7 @@
         <v>45014</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D239" s="6"/>
       <c r="E239" s="6"/>
@@ -8693,19 +8693,19 @@
         <v>1</v>
       </c>
       <c r="H239" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I239" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J239" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K239" s="8">
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="L239" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="240" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
@@ -8716,7 +8716,7 @@
         <v>45014</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D240" s="6"/>
       <c r="E240" s="6"/>
@@ -8725,13 +8725,13 @@
         <v>1</v>
       </c>
       <c r="H240" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I240" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J240" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K240" s="6"/>
       <c r="L240" s="6"/>
@@ -8744,7 +8744,7 @@
         <v>45014</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D241" s="6"/>
       <c r="E241" s="6"/>
@@ -8753,19 +8753,19 @@
         <v>1</v>
       </c>
       <c r="H241" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J241" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K241" s="8">
         <v>0.10972222222222222</v>
       </c>
       <c r="L241" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="242" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
@@ -8776,7 +8776,7 @@
         <v>45014</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D242" s="6"/>
       <c r="E242" s="6"/>
@@ -8785,19 +8785,19 @@
         <v>1</v>
       </c>
       <c r="H242" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I242" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J242" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K242" s="8">
         <v>0.10972222222222222</v>
       </c>
       <c r="L242" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
@@ -8808,7 +8808,7 @@
         <v>45014</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
@@ -8817,19 +8817,19 @@
         <v>1</v>
       </c>
       <c r="H243" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I243" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J243" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K243" s="7">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="L243" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="244" spans="1:12" ht="374.4" x14ac:dyDescent="0.3">
@@ -8840,7 +8840,7 @@
         <v>45014</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D244" s="6"/>
       <c r="E244" s="6"/>
@@ -8849,19 +8849,19 @@
         <v>1</v>
       </c>
       <c r="H244" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I244" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J244" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K244" s="8">
         <v>0.13333333333333333</v>
       </c>
       <c r="L244" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="245" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -8872,7 +8872,7 @@
         <v>45014</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D245" s="6"/>
       <c r="E245" s="6"/>
@@ -8881,19 +8881,19 @@
         <v>1</v>
       </c>
       <c r="H245" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I245" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J245" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K245" s="8">
         <v>0.41805555555555557</v>
       </c>
       <c r="L245" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="246" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -8904,7 +8904,7 @@
         <v>45014</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D246" s="6"/>
       <c r="E246" s="6"/>
@@ -8913,19 +8913,19 @@
         <v>1</v>
       </c>
       <c r="H246" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I246" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J246" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K246" s="8">
         <v>0.23124999999999998</v>
       </c>
       <c r="L246" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
@@ -8936,7 +8936,7 @@
         <v>45015</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
@@ -8945,19 +8945,19 @@
         <v>1</v>
       </c>
       <c r="H247" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I247" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J247" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K247" s="7">
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="L247" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="248" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
@@ -8968,7 +8968,7 @@
         <v>45015</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D248" s="6"/>
       <c r="E248" s="6"/>
@@ -8977,19 +8977,19 @@
         <v>1</v>
       </c>
       <c r="H248" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I248" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J248" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K248" s="8">
         <v>8.4722222222222213E-2</v>
       </c>
       <c r="L248" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249" spans="1:12" ht="230.4" x14ac:dyDescent="0.3">
@@ -9000,7 +9000,7 @@
         <v>45015</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D249" s="6"/>
       <c r="E249" s="6"/>
@@ -9009,19 +9009,19 @@
         <v>1</v>
       </c>
       <c r="H249" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I249" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J249" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K249" s="8">
         <v>0.3354166666666667</v>
       </c>
       <c r="L249" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
@@ -9032,7 +9032,7 @@
         <v>45015</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
@@ -9041,19 +9041,19 @@
         <v>1</v>
       </c>
       <c r="H250" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I250" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J250" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K250" s="7">
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="L250" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
@@ -9071,19 +9071,19 @@
         <v>1</v>
       </c>
       <c r="H251" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I251" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J251" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K251" s="7">
         <v>2.1527777777777781E-2</v>
       </c>
       <c r="L251" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="252" spans="1:12" ht="216" x14ac:dyDescent="0.3">
@@ -9094,7 +9094,7 @@
         <v>45015</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D252" s="6"/>
       <c r="E252" s="6"/>
@@ -9103,19 +9103,19 @@
         <v>1</v>
       </c>
       <c r="H252" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I252" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J252" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K252" s="8">
         <v>0.17777777777777778</v>
       </c>
       <c r="L252" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253" spans="1:12" ht="216" x14ac:dyDescent="0.3">
@@ -9126,7 +9126,7 @@
         <v>45015</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D253" s="6"/>
       <c r="E253" s="6"/>
@@ -9135,19 +9135,19 @@
         <v>1</v>
       </c>
       <c r="H253" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I253" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J253" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K253" s="8">
         <v>0.15</v>
       </c>
       <c r="L253" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="254" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -9158,7 +9158,7 @@
         <v>45015</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D254" s="6"/>
       <c r="E254" s="6"/>
@@ -9167,19 +9167,19 @@
         <v>1</v>
       </c>
       <c r="H254" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I254" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J254" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K254" s="8">
         <v>0.23541666666666669</v>
       </c>
       <c r="L254" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255" spans="1:12" ht="216" x14ac:dyDescent="0.3">
@@ -9190,7 +9190,7 @@
         <v>45016</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D255" s="6"/>
       <c r="E255" s="6"/>
@@ -9199,19 +9199,19 @@
         <v>1</v>
       </c>
       <c r="H255" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I255" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J255" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K255" s="8">
         <v>0.13402777777777777</v>
       </c>
       <c r="L255" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="256" spans="1:12" ht="331.2" x14ac:dyDescent="0.3">
@@ -9222,7 +9222,7 @@
         <v>45016</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D256" s="6"/>
       <c r="E256" s="6"/>
@@ -9231,19 +9231,19 @@
         <v>1</v>
       </c>
       <c r="H256" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I256" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J256" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K256" s="8">
         <v>0.21180555555555555</v>
       </c>
       <c r="L256" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="257" spans="1:12" ht="331.2" x14ac:dyDescent="0.3">
@@ -9254,7 +9254,7 @@
         <v>45016</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
@@ -9263,19 +9263,19 @@
         <v>1</v>
       </c>
       <c r="H257" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I257" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J257" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K257" s="7">
         <v>0.32847222222222222</v>
       </c>
       <c r="L257" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="258" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -9286,7 +9286,7 @@
         <v>45016</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D258" s="6"/>
       <c r="E258" s="6"/>
@@ -9295,19 +9295,19 @@
         <v>1</v>
       </c>
       <c r="H258" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I258" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J258" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K258" s="8">
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="L258" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="259" spans="1:12" ht="216" x14ac:dyDescent="0.3">
@@ -9318,7 +9318,7 @@
         <v>45016</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D259" s="6"/>
       <c r="E259" s="6"/>
@@ -9327,19 +9327,19 @@
         <v>1</v>
       </c>
       <c r="H259" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I259" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J259" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K259" s="8">
         <v>0.13055555555555556</v>
       </c>
       <c r="L259" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="260" spans="1:12" ht="388.8" x14ac:dyDescent="0.3">
@@ -9350,7 +9350,7 @@
         <v>45016</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D260" s="6"/>
       <c r="E260" s="6"/>
@@ -9359,19 +9359,19 @@
         <v>1</v>
       </c>
       <c r="H260" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I260" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J260" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K260" s="8">
         <v>0.52430555555555558</v>
       </c>
       <c r="L260" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/call_log.xlsx
+++ b/call_log.xlsx
@@ -1350,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3A60FE-583D-4435-8016-E6D6AD39F1F9}">
   <dimension ref="A1:L260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
